--- a/Recommendations__.xlsx
+++ b/Recommendations__.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26306"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syngenta.sharepoint.com/sites/ICoLGchemistry/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syngenta-my.sharepoint.com/personal/edouard_godineau_syngenta_com/Documents/Documents/GitHub/recommendations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E69A23B7-3094-4E2F-8BF6-9B35BE55BD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="14_{6C43EE42-BFF3-45EF-997B-4B8B046255E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17E3333F-5485-4761-8BFC-359F201FFE37}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="855" windowWidth="21600" windowHeight="12510" tabRatio="774" firstSheet="12" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="774" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Green Solvents" sheetId="20" r:id="rId1"/>
@@ -90,7 +90,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000005R0592984734S00000041P00504LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhggAAAA/AQA/AACAAAAAAAA8L8CAAAAAABAHEACjnVxGw1gGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSVB5AAltCPujZLBjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKjAbwFElQeQAKCc0aU9sYVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8Cayv2l90zIEACObTIdr5fGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AnbgnBGlPSFAAltCPujZLBjAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLOqs/VViwaQAKTGARWDi0YwAAAAAAUAAQEAAAAAAAABAgIAAAAAAAABAwEAAAAAAAADBAEAAAAAAAAABQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00004C0000005R0806750437S00000041P00504LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhggAAAA/AQA/AACAAAAAAAA8L8CAAAAAABAHEACjnVxGw1gGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSVB5AAltCPujZLBjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKjAbwFElQeQAKCc0aU9sYVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8Cayv2l90zIEACObTIdr5fGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AnbgnBGlPSFAAltCPujZLBjAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLOqs/VViwaQAKTGARWDi0YwAAAAAAUAAQEAAAAAAAABAgIAAAAAAAABAwEAAAAAAAADBAEAAAAAAAAABQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -103,7 +103,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000006R0592984734S00000043P00584LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwBEAAAAPwEAPwAAgAAAAAAAPC/ApMYBFYOzSVAAu58PzVeuhXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKEDU+vlMUmQAJPr5RliCMXwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CLbKd76dmJkACQBNhw9NrGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Avp+arx0MyVAAkATYcPTaxnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKjI7n8h9QkQAJPr5RliCMXwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CtMh2vp+aJkACqFfKMsTxE8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AnNoke18/yRAAqhXyjLE8RPAAAAAABwABAQABAAAAAAECAQABAAAAAAIDAQABAAAAAAMEAQABAAAAAAQAAQABAAAAAAAFAgAAAAAAAAAGAgAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000006R0806750437S00000043P00584LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwBEAAAAPwEAPwAAgAAAAAAAPC/ApMYBFYOzSVAAu58PzVeuhXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKEDU+vlMUmQAJPr5RliCMXwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CLbKd76dmJkACQBNhw9NrGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Avp+arx0MyVAAkATYcPTaxnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKjI7n8h9QkQAJPr5RliCMXwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CtMh2vp+aJkACqFfKMsTxE8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AnNoke18/yRAAqhXyjLE8RPAAAAAABwABAQABAAAAAAECAQABAAAAAAIDAQABAAAAAAMEAQABAAAAAAQAAQABAAAAAAAFAgAAAAAAAAAGAgAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -116,7 +116,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000007R0592984734S00000045P01052LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAjggAAAA/AQA/AACAAAAAAAA8L8CSFD8GHOXGEACIv32deAcD8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmZmZmZmphZAAl+YTBWMSgzAAAAAABgIAAD8BAD8AAIAAAAAAADwvwIVHcnlP2QXQAJ90LNZ9bkHwAAAAAAYDAAA/AQA/AACAAAAAAAA8L8Ce4MvTKbKGUACfdCzWfW5B8AAAAAAGAwAAPwEAPwAAgAAAAAAAPC/Aio6kst/iBpAAl+YTBWMSgzAAAAAABgMAAD8BAD8AAIAAAAAAADwvwKQoPgx5u4cQAJfmEwVjEoMwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CXW3F/rK7G0ACumsJ+aDnBMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aj9XW7G/rB1AAn3Qs1n1uQfAAAAAACAAAAD8BAD8AAIAAAAAAADwvwLy0k1iEFgeQAIRNjy9UhYQwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8Cs+pztRX7FUACufyH9NvXA8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvLSTWIQmBNAAiqpE9BEWATAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJa9bnail0gQAKxv+yePKwPwAAAAAAEAAAA/AQA/AACAAAAAAAA8L8C2PD0SllGG0ACPZtVn6ttEMAAAAAABAAAAPwEAPwAAgAAAAAAAPC/As3MzMzMDBlAApoIG55eKQPAAAAAADwABAQABAAAAAAECAQABAAAAAAIDAQABAAAAAAMEAQABAAAAAAQAAQABAAAAAAYHAQABAAAAAAcFAQABAAAAAAQFAQABAAAAAAMGAQABAAAAAAUIAQQAAAAAAAIJAQUAAAAAAAkKAQAAAAAAAAgLAQAAAAAAAAQMAQUAAAAAAAMNAQUAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000007R0806750437S00000045P01052LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAjggAAAA/AQA/AACAAAAAAAA8L8CSFD8GHOXGEACIv32deAcD8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmZmZmZmphZAAl+YTBWMSgzAAAAAABgIAAD8BAD8AAIAAAAAAADwvwIVHcnlP2QXQAJ90LNZ9bkHwAAAAAAYDAAA/AQA/AACAAAAAAAA8L8Ce4MvTKbKGUACfdCzWfW5B8AAAAAAGAwAAPwEAPwAAgAAAAAAAPC/Aio6kst/iBpAAl+YTBWMSgzAAAAAABgMAAD8BAD8AAIAAAAAAADwvwKQoPgx5u4cQAJfmEwVjEoMwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CXW3F/rK7G0ACumsJ+aDnBMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aj9XW7G/rB1AAn3Qs1n1uQfAAAAAACAAAAD8BAD8AAIAAAAAAADwvwLy0k1iEFgeQAIRNjy9UhYQwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8Cs+pztRX7FUACufyH9NvXA8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvLSTWIQmBNAAiqpE9BEWATAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJa9bnail0gQAKxv+yePKwPwAAAAAAEAAAA/AQA/AACAAAAAAAA8L8C2PD0SllGG0ACPZtVn6ttEMAAAAAABAAAAPwEAPwAAgAAAAAAAPC/As3MzMzMDBlAApoIG55eKQPAAAAAADwABAQABAAAAAAECAQABAAAAAAIDAQABAAAAAAMEAQABAAAAAAQAAQABAAAAAAYHAQABAAAAAAcFAQABAAAAAAQFAQABAAAAAAMGAQABAAAAAAUIAQQAAAAAAAIJAQUAAAAAAAkKAQAAAAAAAAgLAQAAAAAAAAQMAQUAAAAAAAMNAQUAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -129,7 +129,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000008R0592984734S00000047P00452LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhQYAAAA/AQA/AACAAAAAAAA8L8CAAAAAABAIUACJ8KGp1fKE8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Aiv2l92TRyBAAhpR2ht8YRLAAAAAABgAAAD8BAD8AAIAAAAAAADwvwL129eBc6YgQAJhw9MrZRkQwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CCyQofozZIUACYcPTK2UZEMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AtUJaCJsOCJAAhpR2ht8YRLAAAAAABQQAAQABAAAAAAMEAQABAAAAAAIDAQABAAAAAAABAQABAAAAAAECAQABAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000008R0806750437S00000047P00452LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhQYAAAA/AQA/AACAAAAAAAA8L8CAAAAAABAIUACJ8KGp1fKE8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Aiv2l92TRyBAAhpR2ht8YRLAAAAAABgAAAD8BAD8AAIAAAAAAADwvwL129eBc6YgQAJhw9MrZRkQwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CCyQofozZIUACYcPTK2UZEMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AtUJaCJsOCJAAhpR2ht8YRLAAAAAABQQAAQABAAAAAAMEAQABAAAAAAIDAQABAAAAAAABAQABAAAAAAECAQABAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -142,7 +142,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000009R0592984734S00000004P00440LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhQYAAAA/AQA/AACAAAAAAAA8L8CkzoBTYQtIEACfq62Yn+ZH8AAAAAAGAAAAPwMAPwAAgAAAAAAAPC/AnGsi9toYCFAAn6utmJ/mR/AAAAAABwAAAD8DAD8AAIAAAAAAADwvwLek4eFWpMiQAJ+rrZif5kfwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CKxiV1AkoH0ACS1mGONaFHcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlJJnYAmwhxAAktZhjjWhR3AAAAAABAABAQAAAAAAAAECAwAAAAAAAAADAQAAAAAAAAMEAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000009R0806750437S00000004P00440LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhQYAAAA/AQA/AACAAAAAAAA8L8CkzoBTYQtIEACfq62Yn+ZH8AAAAAAGAAAAPwMAPwAAgAAAAAAAPC/AnGsi9toYCFAAn6utmJ/mR/AAAAAABwAAAD8DAD8AAIAAAAAAADwvwLek4eFWpMiQAJ+rrZif5kfwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CKxiV1AkoH0ACS1mGONaFHcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlJJnYAmwhxAAktZhjjWhR3AAAAAABAABAQAAAAAAAAECAwAAAAAAAAADAQAAAAAAAAMEAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -155,7 +155,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000010R0592984734S00000051P00724LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAiQgAAAA/AQA/AACAAAAAAAA8L8COGdEaW9wGUAC8IXJVMEoEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Anh6pSxDXBpAAgu1pnnHaRTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJDrWnecQoYQAIZBFYOLbIVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CZRniWBd3F0ACeAskKH4MGMAAAAAAGAgAAPwEAPwAAgAAAAAAAPC/AjhnRGlvcBlAApCg+DHmrhbAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJEi2zn+2kbQALqlbIMcewZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGQRWDi1yG0AC9+RhodZ0F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aqd5xyk6Uh1AAuPHmLuW0BbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIXSFD8GHMcQAIg0m9fBw4VwAAAAAAoABAEAAQAAAAABAAEAAQAAAAABCAEAAQAAAAACAQEAAQAAAAADAgEAAQAAAAAEAwEFAQAAAAAGBAEAAQAAAAAGBQIAAAAAAAAHBgEAAQAAAAAIBwEAAQAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00004C0000010R0806750437S00000051P00724LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAiQgAAAA/AQA/AACAAAAAAAA8L8COGdEaW9wGUAC8IXJVMEoEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Anh6pSxDXBpAAgu1pnnHaRTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJDrWnecQoYQAIZBFYOLbIVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CZRniWBd3F0ACeAskKH4MGMAAAAAAGAgAAPwEAPwAAgAAAAAAAPC/AjhnRGlvcBlAApCg+DHmrhbAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJEi2zn+2kbQALqlbIMcewZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGQRWDi1yG0AC9+RhodZ0F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aqd5xyk6Uh1AAuPHmLuW0BbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIXSFD8GHMcQAIg0m9fBw4VwAAAAAAoABAEAAQAAAAABAAEAAQAAAAABCAEAAQAAAAACAQEAAQAAAAADAgEAAQAAAAAEAwEFAQAAAAAGBAEAAQAAAAAGBQIAAAAAAAAHBgEAAQAAAAAIBwEAAQAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -168,7 +168,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000011R0592984734S00000053P00572LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwYAAAA/AQA/AACAAAAAAAA8L8CAAAAAAAAI0ACjnVxGw0gGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtIA3gIJCiRAAltCPujZ7BfAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLSAN4CCQokQAKCc0aU9oYVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cayv2l90TJUACObTIdr4fGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmfV52or9iFAApMYBFYO7RfAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJcIEHxY+wgQAKOdXEbDSAZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CZ9Xnaiv2IUACukkMAiuHFcAAAAAAGAAEBAAAAAAAAAQICAAAAAAAAAQMBAAAAAAAAAAQBAAAAAAAABAUBAAAAAAAABAYBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000011R0806750437S00000053P00572LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwYAAAA/AQA/AACAAAAAAAA8L8CAAAAAAAAI0ACjnVxGw0gGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtIA3gIJCiRAAltCPujZ7BfAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLSAN4CCQokQAKCc0aU9oYVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cayv2l90TJUACObTIdr4fGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmfV52or9iFAApMYBFYO7RfAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJcIEHxY+wgQAKOdXEbDSAZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CZ9Xnaiv2IUACukkMAiuHFcAAAAAAGAAEBAAAAAAAAAQICAAAAAAAAAQMBAAAAAAAAAAQBAAAAAAAABAUBAAAAAAAABAYBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -181,7 +181,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000012R0592984734S00000055P00780LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAigYAAAA/AQA/AACAAAAAAAA8L8C9bnaiv2FIkACzczMzMwMGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvW52or9hSJAAjMzMzMzcxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLHuriNBpAjQAJmZmZmZqYcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CmbuWkA+aJEACMzMzMzNzG8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Apm7lpAPmiRAAs3MzMzMDBnAAAAAABgIAAD8BAD8AAIAAAAAAADwvwLHuriNBpAjQAKamZmZmdkXwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cx7q4jQaQI0ACwcqhRbZzFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ai6QoPgxhiJAAuJYF7fRQBTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLSb18HzpkkQALiWBe30UAUwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cx7q4jQaQI0ACPzVeukkMH8AAAAAAKBAUBAAEAAAAAAwQBAAEAAAAAAgMCAgEAAAAAAQIBAAEAAAAAAAEBAAEAAAAAAAUBAAEAAAAABQYBBAAAAAAABgcCAAAAAAAABggBAAAAAAAAAgkBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000012R0806750437S00000055P00780LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAigYAAAA/AQA/AACAAAAAAAA8L8C9bnaiv2FIkACzczMzMwMGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvW52or9hSJAAjMzMzMzcxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLHuriNBpAjQAJmZmZmZqYcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CmbuWkA+aJEACMzMzMzNzG8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Apm7lpAPmiRAAs3MzMzMDBnAAAAAABgIAAD8BAD8AAIAAAAAAADwvwLHuriNBpAjQAKamZmZmdkXwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cx7q4jQaQI0ACwcqhRbZzFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ai6QoPgxhiJAAuJYF7fRQBTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLSb18HzpkkQALiWBe30UAUwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cx7q4jQaQI0ACPzVeukkMH8AAAAAAKBAUBAAEAAAAAAwQBAAEAAAAAAgMCAgEAAAAAAQIBAAEAAAAAAAEBAAEAAAAAAAUBAAEAAAAABQYBBAAAAAAABgcCAAAAAAAABggBAAAAAAAAAgkBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -194,7 +194,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000013R0592984734S00000057P00636LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiAYAAAA/AQA/AACAAAAAAAA8L8CjnVxGw1gH0ACHOviNhrAD8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Apm7lpAPuiBAAraEfNCzWQ3AAAAAACAAAAD8BAD8AAIAAAAAAADwvwKOdXEbDWAfQAJLWYY41kUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXCBB8WNMHUACJzEIrBxaDcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AinLEMe6OBtAAhzr4jYawA/AAAAAACAAAAD8CAD8AAIAAAAAAADwvwJcIEHxY0wdQAJ1kxgEVo4IwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CE2HD0yslGUACJzEIrBxaDcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuELk6mCERdAAhzr4jYawA/AAAAAABwABAQAAAAAAAAACAQAAAAAAAAADAQAAAAAAAAMEAQAAAAAAAAMFAgAAAAAAAAQGAQAAAAAAAAYHAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000013R0806750437S00000057P00636LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiAYAAAA/AQA/AACAAAAAAAA8L8CjnVxGw1gH0ACHOviNhrAD8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Apm7lpAPuiBAAraEfNCzWQ3AAAAAACAAAAD8BAD8AAIAAAAAAADwvwKOdXEbDWAfQAJLWYY41kUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXCBB8WNMHUACJzEIrBxaDcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AinLEMe6OBtAAhzr4jYawA/AAAAAACAAAAD8CAD8AAIAAAAAAADwvwJcIEHxY0wdQAJ1kxgEVo4IwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CE2HD0yslGUACJzEIrBxaDcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuELk6mCERdAAhzr4jYawA/AAAAAABwABAQAAAAAAAAACAQAAAAAAAAADAQAAAAAAAAMEAQAAAAAAAAMFAgAAAAAAAAQGAQAAAAAAAAYHAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -207,7 +207,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000014R0592984734S00000059P00584LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwYAAAA/AQA/AACAAAAAAAA8L8CAAAAAACAHEACJ8KGp1cKEMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlfsL7snjxpAAjSitDf4Qg3AAAAAACAAAAD8BAD8AAIAAAAAAADwvwLpt68D50wbQALChqdXyrIIwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CF0hQ/BizHUACwoanV8qyCMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AqkT0ETYcB5AAjSitDf4Qg3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwIgY+5aQj4YQAKqglFJnYAOwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8C9bnaiv3lHkACXdxGA3iLBMAAAAAAHBAABAAEAAAAAAwQBAAEAAAAAAgMBAAEAAAAAAAEBAAEAAAAAAQIBAAEAAAAAAQUBAAAAAAAAAwYCAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000014R0806750437S00000059P00584LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwYAAAA/AQA/AACAAAAAAAA8L8CAAAAAACAHEACJ8KGp1cKEMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlfsL7snjxpAAjSitDf4Qg3AAAAAACAAAAD8BAD8AAIAAAAAAADwvwLpt68D50wbQALChqdXyrIIwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CF0hQ/BizHUACwoanV8qyCMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AqkT0ETYcB5AAjSitDf4Qg3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwIgY+5aQj4YQAKqglFJnYAOwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8C9bnaiv3lHkACXdxGA3iLBMAAAAAAHBAABAAEAAAAAAwQBAAEAAAAAAgMBAAEAAAAAAAEBAAEAAAAAAQIBAAEAAAAAAQUBAAAAAAAAAwYCAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -220,7 +220,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000018R0592984734S00000125P00584LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwYAAAA/AQA/AACAAAAAAAA8L8CLv8h/fY1LkACzczMzMzMF8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ai7/If32NS5AAjMzMzMzMxrAAAAAACAAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEAvQAJmZmZmZmYbwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CaQBvgQQlMEACMzMzMzMzGsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmkAb4EEJTBAAs3MzMzMzBfAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEAvQAKamZmZmZkWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CAAAAAABAL0ACwcqhRbYzFMAAAAAAHBAUBAAEAAAAAAwQBAAEAAAAAAgMBAAEAAAAAAQIBAAEAAAAAAAEBAAEAAAAAAAUBAAEAAAAABQYBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000018R0806750437S00000125P00584LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwYAAAA/AQA/AACAAAAAAAA8L8CLv8h/fY1LkACzczMzMzMF8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ai7/If32NS5AAjMzMzMzMxrAAAAAACAAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEAvQAJmZmZmZmYbwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CaQBvgQQlMEACMzMzMzMzGsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmkAb4EEJTBAAs3MzMzMzBfAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEAvQAKamZmZmZkWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CAAAAAABAL0ACwcqhRbYzFMAAAAAAHBAUBAAEAAAAAAwQBAAEAAAAAAgMBAAEAAAAAAQIBAAEAAAAAAAEBAAEAAAAAAAUBAAEAAAAABQYBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -233,7 +233,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000019R0592984734S00000126P00932LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAgAAAA/AQA/AACAAAAAAAA8L8CVg4tsp1vJEACke18PzXeFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuSDns2qzyRAAr3jFB3JJRnAAAAAACAAAAD8BAD8AAIAAAAAAADwvwKVZYhjXfwlQAL67evAOaMZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CRUdy+Q/JJkAC8BZIUPzYF8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ailcj8L1aCZAAsUgsHJokRXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJ4eqUsQzwlQAKjAbwFEhQVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C6gQ0ETb8J0ACZvfkYaHWF8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AuJYF7fRYCdAAmZmZmZmJhTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwILRiV1AlooQAKvJeSDno0VwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CE/JBz2b1KEACrrZif9k9GcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArAD54wojSlAAkHxY8xdixXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwI+eVioNe0pQAJt5/up8dIXwAAAAAA4EBQEAAQAAAAADBAEAAQAAAAACAwEAAQAAAAABAgEAAQAAAAAAAQEAAQAAAAAABQEAAQAAAAAIBgEAAQAAAAAHCAEAAQAAAAADBgEAAQAAAAAEBwEAAQAAAAALCQEAAQAAAAAKCwEAAQAAAAAGCQEAAQAAAAAICgEAAQAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00004C0000019R0806750437S00000126P00932LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAgAAAA/AQA/AACAAAAAAAA8L8CVg4tsp1vJEACke18PzXeFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuSDns2qzyRAAr3jFB3JJRnAAAAAACAAAAD8BAD8AAIAAAAAAADwvwKVZYhjXfwlQAL67evAOaMZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CRUdy+Q/JJkAC8BZIUPzYF8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ailcj8L1aCZAAsUgsHJokRXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJ4eqUsQzwlQAKjAbwFEhQVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C6gQ0ETb8J0ACZvfkYaHWF8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AuJYF7fRYCdAAmZmZmZmJhTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwILRiV1AlooQAKvJeSDno0VwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CE/JBz2b1KEACrrZif9k9GcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArAD54wojSlAAkHxY8xdixXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwI+eVioNe0pQAJt5/up8dIXwAAAAAA4EBQEAAQAAAAADBAEAAQAAAAACAwEAAQAAAAABAgEAAQAAAAAAAQEAAQAAAAAABQEAAQAAAAAIBgEAAQAAAAAHCAEAAQAAAAADBgEAAQAAAAAEBwEAAQAAAAALCQEAAQAAAAAKCwEAAQAAAAAGCQEAAQAAAAAICgEAAQAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -246,7 +246,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000020R0592984734S00000127P00856LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiwYAAAA/AQA/AACAAAAAAAA8L8CjSjtDb7wEEACS8gHPZvVCcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Asx/SL99HQ5AAuSDns2qzwzAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLi6ZWyDHERQALKw0KtaV4NwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cbef7qfFSE0AC+THmriVkCsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AscpOpLLPxVAAhlz1xLyQQ3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwI9LNSa5l0TQAJ1ApoIGx4QwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CqRPQRNiwEkAC3NeBc0YUB8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ao/k8h/SbxRAApvmHafoyAPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKvlGWIY50VQAK9UpYhjvUIwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CINJvXwfOEUACrthfdk+eAsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AkOtad5xShBAAtzXgXNGFAfAAAAAADAABAQABAAAAAAECAQABAAAAAAADAQABAAAAAAMEAQABAAAAAAQFAQABAAAAAAUCAQABAAAAAAIGAQABAAAAAAYHAQABAAAAAAMHAQABAAAAAAMIAQAAAAAAAAYJAQAAAAAAAAYKAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000020R0806750437S00000127P00856LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiwYAAAA/AQA/AACAAAAAAAA8L8CjSjtDb7wEEACS8gHPZvVCcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Asx/SL99HQ5AAuSDns2qzwzAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLi6ZWyDHERQALKw0KtaV4NwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cbef7qfFSE0AC+THmriVkCsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AscpOpLLPxVAAhlz1xLyQQ3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwI9LNSa5l0TQAJ1ApoIGx4QwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CqRPQRNiwEkAC3NeBc0YUB8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ao/k8h/SbxRAApvmHafoyAPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKvlGWIY50VQAK9UpYhjvUIwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CINJvXwfOEUACrthfdk+eAsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AkOtad5xShBAAtzXgXNGFAfAAAAAADAABAQABAAAAAAECAQABAAAAAAADAQABAAAAAAMEAQABAAAAAAQFAQABAAAAAAUCAQABAAAAAAIGAQABAAAAAAYHAQABAAAAAAMHAQABAAAAAAMIAQAAAAAAAAYJAQAAAAAAAAYKAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -269,7 +269,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00003C0000021R0592984750S00000006P01312LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgESGAAAAPwEAPwAAgAAAAAAAPC/AtDVVuwv+xpAAuhqK/aXHR/AAAAAABgAAAD8BAD8AAIAAAAAAADwvwJTBaOSOsEeQAICmggbnj4gwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CtTf4wmTqIEACnMQgsHLoHcAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjzCFAAsWPMXctYSHAAAAAADwAAAD8BAD8AAIAAAAAAADwvwJ2Tx4Was0iQAK5jQbwFkgfwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CLbKd76cmI0ACMlUwKqlTG8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AjnWxW00ACpAAmB2Tx4WKhbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwItIR/0bHYoQALJ5T+k374YwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CbAn5oGeTJkACrBxaZDtfF8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AtSa5h2nCCRAAkT67evAeRbAAAAAADwAAAD8BAD8AAIAAAAAAADwvwLvycNCrQklQAIVjErqBPQZwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CbAn5oGeTJkACf/s6cM6IHMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AnL5D+m3zyhAAhe30QDe4iTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwItIR/0bHYoQAJGJXUCmugiwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CbAn5oGeTJkACRrbz/dQ4IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AuoENBE2PChAAgKaCBuePiDAAAAAADwAAAD8BAD8AAIAAAAAAADwvwK1pnnHKTomQAICmggbnj4gwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C845TdCRXJEACkX77OnDuIMAAAAAAARIBERAEAAQAAAAABAAEAAAAAAAACAQEAAAAAAAAEAgEAAAAAAAAEAwIAAAAAAAAEBQEAAQAAAAAFCgEAAQAAAAAHBgEAAAAAAAAIBwEAAAAAAAAKCAEAAAAAAAAKCQIAAAAAAAALCgEAAQAAAAAARAsBAAEAAAAADQwBAAAAAAAADg0BAAAAAAAAAEQOAQAAAAAAAABEDwIAAAAAAAAAREBEAQABAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00003C0000021R0806750453S00000006P01312LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgESGAAAAPwEAPwAAgAAAAAAAPC/AtDVVuwv+xpAAuhqK/aXHR/AAAAAABgAAAD8BAD8AAIAAAAAAADwvwJTBaOSOsEeQAICmggbnj4gwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CtTf4wmTqIEACnMQgsHLoHcAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjzCFAAsWPMXctYSHAAAAAADwAAAD8BAD8AAIAAAAAAADwvwJ2Tx4Was0iQAK5jQbwFkgfwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CLbKd76cmI0ACMlUwKqlTG8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AjnWxW00ACpAAmB2Tx4WKhbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwItIR/0bHYoQALJ5T+k374YwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CbAn5oGeTJkACrBxaZDtfF8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AtSa5h2nCCRAAkT67evAeRbAAAAAADwAAAD8BAD8AAIAAAAAAADwvwLvycNCrQklQAIVjErqBPQZwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CbAn5oGeTJkACf/s6cM6IHMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AnL5D+m3zyhAAhe30QDe4iTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwItIR/0bHYoQAJGJXUCmugiwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CbAn5oGeTJkACRrbz/dQ4IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AuoENBE2PChAAgKaCBuePiDAAAAAADwAAAD8BAD8AAIAAAAAAADwvwK1pnnHKTomQAICmggbnj4gwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C845TdCRXJEACkX77OnDuIMAAAAAAARIBERAEAAQAAAAABAAEAAAAAAAACAQEAAAAAAAAEAgEAAAAAAAAEAwIAAAAAAAAEBQEAAQAAAAAFCgEAAQAAAAAHBgEAAAAAAAAIBwEAAAAAAAAKCAEAAAAAAAAKCQIAAAAAAAALCgEAAQAAAAAARAsBAAEAAAAADQwBAAAAAAAADg0BAAAAAAAAAEQOAQAAAAAAAABEDwIAAAAAAAAAREBEAQABAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -282,7 +282,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00005C0000021R0592984750S00000007P01912LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEbJAAAAPwEAPwAAgAAAAAAAPC/AgHeAgmK/y5AApMYBFYObR/AAAAAACQAAAD8BAD8AAIAAAAAAADwvwLMXUvIBx0vQAKVZYhjXdwiwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8C63O1FfurL0AC7nw/NV4aIcAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AvRsVn2u1itAAu58PzVeGiHAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLD9ShcjyItQAIE54wo7Q0jwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CAJF++zowLUAC2ht8YTJVHsAAAAAAPAD8APwEAPwAAgAAAAAAAPC/Ak9AE2HDsy1AAu58PzVeGiHAAAAAABgAAAD8BAD8AAIAAAAAAADwvwICmggbnr4rQALi6ZWyDDEawAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C4XoUrkcBKkACUdobfGEyGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AmgibHh6RShAAp+rrdhfNhrAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJHA3gLJIgmQAIwuycPCzUUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CRwN4CySIJkACD5wzorQ3GMAAAAAAHAAAAPwMAPwAAgAAAAAAAPC/Am+BBMWPUSFAAlg5tMh2PhbAAAAAABgAAAD8DAD8AAIAAAAAAADwvwKsi9toAA8jQALpSC7/IT0YwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CzqrP1VbMJEAClkOLbOc7GsAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/As6qz9VWzCRAAlg5tMh2Ph7AAAAAACAAAAD8BAD8AAIAAAAAAADwvwLNzMzMzIwmQAICmggbnh4gwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C7uvAOSNKKEACqoJRSZ0gJcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmdEaW/wBSpAApOpglFJHSLAAAAAABwABAD8CAD8AAIAAAAAAADwvwLu68A5I0ooQAI6kst/SB8jwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CzczMzMyMJkACcoqO5PIfIsAAAAAAHAAAAPwEAPwAAgAAAAAAAPC/AlR0JJf/0CRAAhlz1xLyISPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJUdCSX/9AkQAIX2c73UyMlwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CwcqhRbYTI0ACTDeJQWAlJsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ap+rrdhfViFAAoMvTKYKJiXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKfq63YX1YhQAJlqmBUUicjwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CGQRWDi0SI0ACMEymCkYlIsAAAAAAARoAGAQAAAAAAAAYBAQAAAAAAAAYCAQAAAAAAAAYDAQAAAAAAAAYEAQAAAAAAAAYFAQAAAAAAAABGgEVBAAEAAAAACAcBAAAAAAAACQgBAAAAAAAACwkBAAAAAAAACwoCAAAAAAAADgsBAAAAAAAADQwDAAAAAAAADg0BAAAAAAAADw4CAgAAAAAAAEQPAQAAAAAAAABFAEQBAAAAAAAAAETAREEAAAAAAAAARMBEgQAAAAAAAABFAETCAwAAAAAAAEVARQEAAAAAAAAARYBFQQABAAAAAABFwEWBAAEAAAAAAEYARcEAAQAAAAAARkBGAQABAAAAAABGgEZBAAEAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00005C0000021R0806750453S00000007P01912LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEbJAAAAPwEAPwAAgAAAAAAAPC/AgHeAgmK/y5AApMYBFYObR/AAAAAACQAAAD8BAD8AAIAAAAAAADwvwLMXUvIBx0vQAKVZYhjXdwiwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8C63O1FfurL0AC7nw/NV4aIcAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AvRsVn2u1itAAu58PzVeGiHAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLD9ShcjyItQAIE54wo7Q0jwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CAJF++zowLUAC2ht8YTJVHsAAAAAAPAD8APwEAPwAAgAAAAAAAPC/Ak9AE2HDsy1AAu58PzVeGiHAAAAAABgAAAD8BAD8AAIAAAAAAADwvwICmggbnr4rQALi6ZWyDDEawAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C4XoUrkcBKkACUdobfGEyGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AmgibHh6RShAAp+rrdhfNhrAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJHA3gLJIgmQAIwuycPCzUUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CRwN4CySIJkACD5wzorQ3GMAAAAAAHAAAAPwMAPwAAgAAAAAAAPC/Am+BBMWPUSFAAlg5tMh2PhbAAAAAABgAAAD8DAD8AAIAAAAAAADwvwKsi9toAA8jQALpSC7/IT0YwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CzqrP1VbMJEAClkOLbOc7GsAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/As6qz9VWzCRAAlg5tMh2Ph7AAAAAACAAAAD8BAD8AAIAAAAAAADwvwLNzMzMzIwmQAICmggbnh4gwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C7uvAOSNKKEACqoJRSZ0gJcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmdEaW/wBSpAApOpglFJHSLAAAAAABwABAD8CAD8AAIAAAAAAADwvwLu68A5I0ooQAI6kst/SB8jwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CzczMzMyMJkACcoqO5PIfIsAAAAAAHAAAAPwEAPwAAgAAAAAAAPC/AlR0JJf/0CRAAhlz1xLyISPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJUdCSX/9AkQAIX2c73UyMlwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CwcqhRbYTI0ACTDeJQWAlJsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ap+rrdhfViFAAoMvTKYKJiXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKfq63YX1YhQAJlqmBUUicjwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CGQRWDi0SI0ACMEymCkYlIsAAAAAAARoAGAQAAAAAAAAYBAQAAAAAAAAYCAQAAAAAAAAYDAQAAAAAAAAYEAQAAAAAAAAYFAQAAAAAAAABGgEVBAAEAAAAACAcBAAAAAAAACQgBAAAAAAAACwkBAAAAAAAACwoCAAAAAAAADgsBAAAAAAAADQwDAAAAAAAADg0BAAAAAAAADw4CAgAAAAAAAEQPAQAAAAAAAABFAEQBAAAAAAAAAETAREEAAAAAAAAARMBEgQAAAAAAAABFAETCAwAAAAAAAEVARQEAAAAAAAAARYBFQQABAAAAAABFwEWBAAEAAAAAAEYARcEAAQAAAAAARkBGAQABAAAAAABGgEZBAAEAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -295,7 +295,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00007C0000021R0592984750S00000005P01492LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEVJAAAAPwEAPwAAgAAAAAAAPC/ArkehetRmChAAtKRXP5Duh7AAAAAACQAAAD8BAD8AAIAAAAAAADwvwIZBFYOLRIsQAIFVg4tsp0ewAAAAAAkAAAA/AQA/AACAAAAAAAA8L8C5tAi2/leKkACDy2yne+nGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AubQItv5XipAAjMzMzMzUyDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwI7cM6I0p4oQAKIhVrTvKMawAAAAAA8APwA/AQA/AACAAAAAAAA8L8C5tAi2/leKkACqOhILv+hHMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AuM2GsBbICxAAnE9CtejsBrAAAAAAAERAAAA/AQA/AACAAAAAAAA8L8CUWuad5yCI0ACgLdAguLnIcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvLSTWIQ+CZAApayDHGsyxvAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKXIY51cXsjQAKsPldbsb8bwAAAAAAcAAQA/AgA/AACAAAAAAAA8L8Cy6FFtvM9JUACHeviNhrAHcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvLSTWIQ+CZAAs+I0t7g6yPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJQHhZqTbMoQAIwTKYKRuUgwAAAAAAcAAAA/AQA/AACAAAAAAAA8L8C8tJNYhD4JkACgLdAguLnIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsuhRbbzPSVAAjBMpgpG5SDAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLJdr6fGg8vQAJGJXUCmmgjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CmN2Th4XaLUACmG4Sg8CKIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aqrx0k1iUC5AAhb7y+7JIyHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLo+6nx0s0vQAIW+8vuySMhwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/Yf029chMEACmG4Sg8CKIsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvVKWYY4RjBAArWmeccpuh/AAAAAAAETFAAEAAAAAAAAFAQEAAAAAAAAFAgEAAAAAAAAFAwEAAAAAAAAFBAEAAAAAAAAFBgEAAAAAAAAOBwEAAAAAAAAKCAEAAAAAAAAKCQEAAAAAAAAOCgIDAAAAAAANCwEAAAAAAAANDAEAAAAAAAAODQEAAAAAAAAARM8CAgEBAAAAAESARMEAAQEAAAAAREBEgQABAQAAAA8ARAEAAQEAAAAARABEQgIBAQAAAABEgEUBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00007C0000021R0806750453S00000005P01492LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEVJAAAAPwEAPwAAgAAAAAAAPC/ArkehetRmChAAtKRXP5Duh7AAAAAACQAAAD8BAD8AAIAAAAAAADwvwIZBFYOLRIsQAIFVg4tsp0ewAAAAAAkAAAA/AQA/AACAAAAAAAA8L8C5tAi2/leKkACDy2yne+nGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AubQItv5XipAAjMzMzMzUyDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwI7cM6I0p4oQAKIhVrTvKMawAAAAAA8APwA/AQA/AACAAAAAAAA8L8C5tAi2/leKkACqOhILv+hHMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AuM2GsBbICxAAnE9CtejsBrAAAAAAAERAAAA/AQA/AACAAAAAAAA8L8CUWuad5yCI0ACgLdAguLnIcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvLSTWIQ+CZAApayDHGsyxvAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKXIY51cXsjQAKsPldbsb8bwAAAAAAcAAQA/AgA/AACAAAAAAAA8L8Cy6FFtvM9JUACHeviNhrAHcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvLSTWIQ+CZAAs+I0t7g6yPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJQHhZqTbMoQAIwTKYKRuUgwAAAAAAcAAAA/AQA/AACAAAAAAAA8L8C8tJNYhD4JkACgLdAguLnIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsuhRbbzPSVAAjBMpgpG5SDAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLJdr6fGg8vQAJGJXUCmmgjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CmN2Th4XaLUACmG4Sg8CKIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aqrx0k1iUC5AAhb7y+7JIyHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLo+6nx0s0vQAIW+8vuySMhwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/Yf029chMEACmG4Sg8CKIsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvVKWYY4RjBAArWmeccpuh/AAAAAAAETFAAEAAAAAAAAFAQEAAAAAAAAFAgEAAAAAAAAFAwEAAAAAAAAFBAEAAAAAAAAFBgEAAAAAAAAOBwEAAAAAAAAKCAEAAAAAAAAKCQEAAAAAAAAOCgIDAAAAAAANCwEAAAAAAAANDAEAAAAAAAAODQEAAAAAAAAARM8CAgEBAAAAAESARMEAAQEAAAAAREBEgQABAQAAAA8ARAEAAQEAAAAARABEQgIBAQAAAABEgEUBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -308,7 +308,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00003C0000022R0592984750S00000011P01364LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgETGAAAAPwEAPwAAgAAAAAAAPC/AkcDeAskSCRAAs4ZUdobvBzAAAAAADwAAAD8BAD8AAIAAAAAAADwvwIwTKYKRgUmQAKZu5aQD7oawAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMEymCkYFJkAC2T15WKi1FsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AlFrmnecwidAAuoENBE2vBzAAAAAADwAAAD8BAD8AAIAAAAAAADwvwLkFB3J5X8pQAKZu5aQD7oawAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CBTQRNjw9K0AC6gQ0ETa8HMAAAAAAPAAAAPwEAPwAAgAAAAAAAPC/AiZTBaOS+ixAApm7lpAPuhrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJHcvkP6bcuQALqBDQRNrwcwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CR3L5D+m3LkAC4zYawFtgIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Au0NvjCZOjBAAozbaABvYSHAAAAAACAAAAD8CAD8AAIAAAAAAADwvwImUwWjkvosQALZPXlYqLUWwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CR3L5D+m3LkACK4cW2c63GMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AuQUHcnlfylAAtk9eViotRbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLkFB3J5X8pQAJYObTIdr4ewAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CBTQRNjw9K0AC4zYawFtgIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgU0ETY8PStAAsP1KFyPYiLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwIOLbKd70ckQAIrhxbZzrcYwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CRwN4CyRIJEACx0s3iUFgIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aibkg57NiiJAAm/whclUYSHAAAAAAAESAAQEAAAAAAAABAgIAAAAAAAABAwEAAAAAAAADBAEAAAAAAAAEBQEAAAAAAAAFBgEAAAAAAAAGBwEAAAAAAAAHCAEAAAAAAAAICQEAAAAAAAAGCgIAAAAAAAAGCwEAAAAAAAAEDAIAAAAAAAAEDQEAAAAAAAANDgEAAAAAAAAODwEAAAAAAAABAEQBAAAAAAAAAABEQQAAAAAAAABEQESBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00003C0000022R0806750453S00000011P01364LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgETGAAAAPwEAPwAAgAAAAAAAPC/AkcDeAskSCRAAs4ZUdobvBzAAAAAADwAAAD8BAD8AAIAAAAAAADwvwIwTKYKRgUmQAKZu5aQD7oawAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMEymCkYFJkAC2T15WKi1FsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AlFrmnecwidAAuoENBE2vBzAAAAAADwAAAD8BAD8AAIAAAAAAADwvwLkFB3J5X8pQAKZu5aQD7oawAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CBTQRNjw9K0AC6gQ0ETa8HMAAAAAAPAAAAPwEAPwAAgAAAAAAAPC/AiZTBaOS+ixAApm7lpAPuhrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJHcvkP6bcuQALqBDQRNrwcwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CR3L5D+m3LkAC4zYawFtgIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Au0NvjCZOjBAAozbaABvYSHAAAAAACAAAAD8CAD8AAIAAAAAAADwvwImUwWjkvosQALZPXlYqLUWwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CR3L5D+m3LkACK4cW2c63GMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AuQUHcnlfylAAtk9eViotRbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLkFB3J5X8pQAJYObTIdr4ewAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CBTQRNjw9K0AC4zYawFtgIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgU0ETY8PStAAsP1KFyPYiLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwIOLbKd70ckQAIrhxbZzrcYwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CRwN4CyRIJEACx0s3iUFgIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aibkg57NiiJAAm/whclUYSHAAAAAAAESAAQEAAAAAAAABAgIAAAAAAAABAwEAAAAAAAADBAEAAAAAAAAEBQEAAAAAAAAFBgEAAAAAAAAGBwEAAAAAAAAHCAEAAAAAAAAICQEAAAAAAAAGCgIAAAAAAAAGCwEAAAAAAAAEDAIAAAAAAAAEDQEAAAAAAAANDgEAAAAAAAAODwEAAAAAAAABAEQBAAAAAAAAAABEQQAAAAAAAABEQESBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -321,7 +321,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00005C0000022R0592984750S00000015P01544LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEVGAAAAPwEAPwAAgAAAAAAAPC/AlJJnYAmwh1AAqyL22gA7x/AAAAAACAAAAD8BAD8AAIAAAAAAADwvwJSSZ2AJsIdQAILJCh+jPkhwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cke18PzWeIEACmN2Th4X6IsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ano2qz5XWyJAAgskKH6M+SHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ6Nqs+V1siQAKsi9toAO8fwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cke18PzWeIEACkxgEVg7tHcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AptVn6utGCRAAltCPujZ7B3AAAAAACAAAAD8CAD8AAIAAAAAAADwvwKbVZ+rrRgkQAJ/2T15WOgZwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CvHSTGATWJUACrIvbaADvH8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ak8eFmpNkydAAltCPujZ7B3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8dJMYBNYlQAJE+u3rwPkhwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CyjLEsS6OLEACuK8D54wIIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArN78rBQSy5AAjsBTYQNDx7AAAAAABwAAAD8CAD8AAIAAAAAAADwvwLKMsSxLo4sQAKYbhKDwAoiwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cs3vysFBLLkACe4MvTKYKGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AmpN845TBDBAAtSa5h2nCCDAAAAAABgAAAD8BAD8AAIAAAAAAADwvwL7XG3F/uIwQAI7AU2EDQ8ewAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Ci2zn+6nBMUAC1JrmHacIIMAAAAAAGAAAAPwMAPwAAgAAAAAAAPC/AqkT0ETY0CpAAgIrhxbZDh7AAAAAABwAAAD8DAD8AAIAAAAAAADwvwKI9NvXgRMpQAKx4emVsgwcwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CqRPQRNjQKkACzojS3uALI8AAAAAAARQQFAQABAAAAAAMEAQABAAAAAAIDAQABAAAAAAECAQABAAAAAAABAQABAAAAAAAFAQABAAAAAAQGAQAAAAAAAAYHAgAAAAAAAAYIAQAAAAAAAAgJAQAAAAAAAAgKAQAAAAAAAAsMAQAAAAAAAAsNAgMAAAAAAAwOAgAAAAAAAAwPAQAAAAAAAA8ARAEAAAAAAAAARABEQQAAAAAAAABEgETDAAAAAAAACwBEgQAAAAAAAA0ARQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIAR/R0dPT09PT+vYCQ072AvYS9hPx8dPR9hL68fjx8frxAAAAAAAAAA==</t>
+          <t>Insight iXlW00005C0000022R0806750453S00000015P01544LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEVGAAAAPwEAPwAAgAAAAAAAPC/AlJJnYAmwh1AAqyL22gA7x/AAAAAACAAAAD8BAD8AAIAAAAAAADwvwJSSZ2AJsIdQAILJCh+jPkhwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cke18PzWeIEACmN2Th4X6IsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ano2qz5XWyJAAgskKH6M+SHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ6Nqs+V1siQAKsi9toAO8fwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cke18PzWeIEACkxgEVg7tHcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AptVn6utGCRAAltCPujZ7B3AAAAAACAAAAD8CAD8AAIAAAAAAADwvwKbVZ+rrRgkQAJ/2T15WOgZwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CvHSTGATWJUACrIvbaADvH8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ak8eFmpNkydAAltCPujZ7B3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8dJMYBNYlQAJE+u3rwPkhwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CyjLEsS6OLEACuK8D54wIIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArN78rBQSy5AAjsBTYQNDx7AAAAAABwAAAD8CAD8AAIAAAAAAADwvwLKMsSxLo4sQAKYbhKDwAoiwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cs3vysFBLLkACe4MvTKYKGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AmpN845TBDBAAtSa5h2nCCDAAAAAABgAAAD8BAD8AAIAAAAAAADwvwL7XG3F/uIwQAI7AU2EDQ8ewAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Ci2zn+6nBMUAC1JrmHacIIMAAAAAAGAAAAPwMAPwAAgAAAAAAAPC/AqkT0ETY0CpAAgIrhxbZDh7AAAAAABwAAAD8DAD8AAIAAAAAAADwvwKI9NvXgRMpQAKx4emVsgwcwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CqRPQRNjQKkACzojS3uALI8AAAAAAARQQFAQABAAAAAAMEAQABAAAAAAIDAQABAAAAAAECAQABAAAAAAABAQABAAAAAAAFAQABAAAAAAQGAQAAAAAAAAYHAgAAAAAAAAYIAQAAAAAAAAgJAQAAAAAAAAgKAQAAAAAAAAsMAQAAAAAAAAsNAgMAAAAAAAwOAgAAAAAAAAwPAQAAAAAAAA8ARAEAAAAAAAAARABEQQAAAAAAAABEgETDAAAAAAAACwBEgQAAAAAAAA0ARQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIAR/R0dPT09PT+vYCQ072AvYS9hPx8dPR9hL68fjx8frxAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -334,7 +334,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00007C0000022R0592984750S00000017P01084LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjwcAAAA/AgA/AACAAAAAAAA8L8COiNKe4NPI0ACMzMzMzPzH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiJseHqlDCVAAv7UeOkm8R3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwI6I0p7g08jQAJ5WKg1zfshwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CGQRWDi2SIUACxf6ye/LwHcAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiJseHqlDCVAAj9XW7G/7BnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJEi2zn+8kmQAJsCfmgZ/MfwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C1zTvOEWHKEAC/tR46SbxHcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AkSLbOf7ySZAApZDi2zn+yHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwI6I0p7g68rQALKVMGopM4hwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CHVpkO98PKkACxm00gLegIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AspUwaikripAAuOlm8QgcB3AAAAAABwAAAD8CAD8AAIAAAAAAADwvwKq8dJNYrAsQALjpZvEIHAdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CV+wvuydPLUACxm00gLegIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aqg1zTtOsS1AAmfV52or9hnAAAAAAAERAAAA/AQA/AACAAAAAAAA8L8CAd4CCYo/LUACKA8Ltaa5IsAAAAAANAAEBAAAAAAAAAAIBAAAAAAAAAAMBAAAAAAAAAQQCAAAAAAAAAQUBAAAAAAAABQYBAAAAAAAABQcBAAAAAAAADAgCAgEBAAAACwwBAAEBAAAACgsBAAEBAAAACAkBAAEBAAAACQoCAgEBAAAACw0BAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00007C0000022R0806750453S00000017P01084LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjwcAAAA/AgA/AACAAAAAAAA8L8COiNKe4NPI0ACMzMzMzPzH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiJseHqlDCVAAv7UeOkm8R3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwI6I0p7g08jQAJ5WKg1zfshwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CGQRWDi2SIUACxf6ye/LwHcAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiJseHqlDCVAAj9XW7G/7BnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJEi2zn+8kmQAJsCfmgZ/MfwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C1zTvOEWHKEAC/tR46SbxHcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AkSLbOf7ySZAApZDi2zn+yHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwI6I0p7g68rQALKVMGopM4hwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CHVpkO98PKkACxm00gLegIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AspUwaikripAAuOlm8QgcB3AAAAAABwAAAD8CAD8AAIAAAAAAADwvwKq8dJNYrAsQALjpZvEIHAdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CV+wvuydPLUACxm00gLegIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aqg1zTtOsS1AAmfV52or9hnAAAAAAAERAAAA/AQA/AACAAAAAAAA8L8CAd4CCYo/LUACKA8Ltaa5IsAAAAAANAAEBAAAAAAAAAAIBAAAAAAAAAAMBAAAAAAAAAQQCAAAAAAAAAQUBAAAAAAAABQYBAAAAAAAABQcBAAAAAAAADAgCAgEBAAAACwwBAAEBAAAACgsBAAEBAAAACAkBAAEBAAAACQoCAgEBAAAACw0BAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -357,7 +357,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00003C0000013R0592984767S00000002P01400LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgETPAAAAPwEAPwAAgAAAAAAAPC/Ase6uI0GcCBAAgAAAAAAQCHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKZu5aQD3ohQAJmZmZmZqYgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cx7q4jQZwIEACbef7qfFyIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjzB5AAhHHuriNpiDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKIY13cRoMiQAKFfNCzWbUdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJzEIrBx6IUAC9P3UeOnmHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArAD54wojSNAApzEILBy6B7AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJpAG+BBIUiQAKNl24Sg0AhwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CWYY41sWNI0ACEoPAyqGlIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An2utmJ/eSFAAuauJeSDPiTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLSb18HznkhQAJ4CyQofgwjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CVg4tsp1vIEACZF3cRgPYJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Au7rwDkjyh5AApMYBFYODSPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKvJeSDns0eQALHKTqSyz8kwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9P3UeOmmGkACuycPC7WmIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ag3gLZCguBxAAnKKjuTyPyHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL0/dR46aYaQAJlqmBUUucewAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXCBB8WPMHkACat5xio7kHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap7vp8ZLtxxAAhTQRNjwtB3AAAAAAAEVAAQEAAAAAAAAAAgEAAAAAAAAAAwEAAAAAAAAIBgEAAQEAAAAHCAICAQEAAAAEBQEAAQEAAAAGBAICAQEAAAAFAQIDAQEAAAABBwEAAQEAAAANCwEAAQEAAAAMDQICAQEAAAAJCgEAAQEAAAALCQICAQEAAAAKAgIDAQEAAAACDAEAAQEAAAAARIBEAQABAQAAAABEQESCAgEBAAAADg8BAAEBAAAAAEQOAgIBAQAAAA8DAgMBAQAAAAMAREEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00003C0000013R0806750485S00000002P01400LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgETPAAAAPwEAPwAAgAAAAAAAPC/Ase6uI0GcCBAAgAAAAAAQCHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKZu5aQD3ohQAJmZmZmZqYgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cx7q4jQZwIEACbef7qfFyIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjzB5AAhHHuriNpiDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKIY13cRoMiQAKFfNCzWbUdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJzEIrBx6IUAC9P3UeOnmHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArAD54wojSNAApzEILBy6B7AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJpAG+BBIUiQAKNl24Sg0AhwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CWYY41sWNI0ACEoPAyqGlIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An2utmJ/eSFAAuauJeSDPiTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLSb18HznkhQAJ4CyQofgwjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CVg4tsp1vIEACZF3cRgPYJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Au7rwDkjyh5AApMYBFYODSPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKvJeSDns0eQALHKTqSyz8kwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9P3UeOmmGkACuycPC7WmIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ag3gLZCguBxAAnKKjuTyPyHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL0/dR46aYaQAJlqmBUUucewAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXCBB8WPMHkACat5xio7kHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap7vp8ZLtxxAAhTQRNjwtB3AAAAAAAEVAAQEAAAAAAAAAAgEAAAAAAAAAAwEAAAAAAAAIBgEAAQEAAAAHCAICAQEAAAAEBQEAAQEAAAAGBAICAQEAAAAFAQIDAQEAAAABBwEAAQEAAAANCwEAAQEAAAAMDQICAQEAAAAJCgEAAQEAAAALCQICAQEAAAAKAgIDAQEAAAACDAEAAQEAAAAARIBEAQABAQAAAABEQESCAgEBAAAADg8BAAEBAAAAAEQOAgIBAQAAAA8DAgMBAQAAAAMAREEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -370,7 +370,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00005C0000013R0592984767S00000010P01028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AQA/AACAAAAAAAA8L8C+n5qvHRTIUACObTIdr6fG8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aj0K16NwXSJAAi2yne+nBhjAAAAAABgAAAD8BAD8AAIAAAAAAADwvwL6fmq8dFMhQAILJCh+jDkZwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CDJOpglFJIEAC9dvXgXMGGMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AjxO0ZFcfh5AAjm0yHa+nxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI8TtGRXH4eQAILJCh+jDkZwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CfGEyVTBqHEAC9dvXgXMGGMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AqCJsOHpVRpAAgskKH6MORnAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLEsS5uo0EYQALHSzeJQaAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CxLEubqNBGEAC9dvXgXMGGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AujZrPpcLRZAAgskKH6MORnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIMAiuHFhkUQALHSzeJQaAVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CDAIrhxYZFEAC9dvXgXMGGMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmkAb4EEBRJAAtNNYhBYORnAAAAAADQIAAQAAAAAAAAIBAQAAAAAAAAMCAQAAAAAAAAUDAQAAAAAAAAUEAgAAAAAAAAYFAQAAAAAAAAcGAgMAAAAAAAkHAQAAAAAAAAkIAgAAAAAAAAoJAQAAAAAAAAwKAQAAAAAAAAwLAQAAAAAAAA0MAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00005C0000013R0806750485S00000010P01028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AQA/AACAAAAAAAA8L8C+n5qvHRTIUACObTIdr6fG8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aj0K16NwXSJAAi2yne+nBhjAAAAAABgAAAD8BAD8AAIAAAAAAADwvwL6fmq8dFMhQAILJCh+jDkZwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CDJOpglFJIEAC9dvXgXMGGMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AjxO0ZFcfh5AAjm0yHa+nxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI8TtGRXH4eQAILJCh+jDkZwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CfGEyVTBqHEAC9dvXgXMGGMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AqCJsOHpVRpAAgskKH6MORnAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLEsS5uo0EYQALHSzeJQaAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CxLEubqNBGEAC9dvXgXMGGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AujZrPpcLRZAAgskKH6MORnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIMAiuHFhkUQALHSzeJQaAVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CDAIrhxYZFEAC9dvXgXMGGMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmkAb4EEBRJAAtNNYhBYORnAAAAAADQIAAQAAAAAAAAIBAQAAAAAAAAMCAQAAAAAAAAUDAQAAAAAAAAUEAgAAAAAAAAYFAQAAAAAAAAcGAgMAAAAAAAkHAQAAAAAAAAkIAgAAAAAAAAoJAQAAAAAAAAwKAQAAAAAAAAwLAQAAAAAAAA0MAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -383,7 +383,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00003C0000014R0592984767S00000012P01468LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUPAAAAPwEAPwAAgAAAAAAAPC/AqMjufyHlCJAAs07TtGRXBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwICmggbnp4jQAIAb4EExY8YwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+76IUACcT0K16NwGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtEi2/l+iiFAApoIG55eKRbAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI8vVKWIS4jQAIqOpLLf0gVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1JrmHaeoJEACzTtO0ZFcF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwsiVAAgBvgQTFjxjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsLIlQAJn1edqK/YawAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1JrmHaeoJEACmggbnl4pHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgKaCBueniNAAmfV52or9hrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKjI7n8h5QiQAIUP8bctYQbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+76IUAC1CtlGeKYHcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtZW7C+7xyBAAtQrZRnimB3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwI8vVKWIS4gQAIUP8bctYQbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1lbsL7vHIEACcT0K16NwGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Av8h/fZ1gCBAAs07TtGRXBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJbQj7o2eweQAKaCBueXikWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CW0I+6NnsHkACNKK0N/jCE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Av8h/fZ1gCBAAgBvgQTFjxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLRItv5foohQAI0orQ3+MITwAAAAAABFgAEBAAAAAAAAAAIBAAAAAAAAAAMBAAAAAAAAAAQCAAAAAAAABgUBAAEBAAAABwYCAgEBAAAACAcBAAEBAAAACQgCAgEBAAAABQECAwEBAAAAAQkBAAEBAAAACwoBAAEBAAAADAsCAgEBAAAADQwBAAEBAAAADg0CAgEBAAAACgICAwEBAAAAAg4BAAEBAAAAAEQPAQABAQAAAABEQEQCAgEBAAAAAESAREEAAQEAAAAARMBEggIBAQAAAA8DAgMBAQAAAAMARMEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00003C0000014R0806750485S00000012P01468LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUPAAAAPwEAPwAAgAAAAAAAPC/AqMjufyHlCJAAs07TtGRXBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwICmggbnp4jQAIAb4EExY8YwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+76IUACcT0K16NwGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtEi2/l+iiFAApoIG55eKRbAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI8vVKWIS4jQAIqOpLLf0gVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1JrmHaeoJEACzTtO0ZFcF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwsiVAAgBvgQTFjxjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsLIlQAJn1edqK/YawAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1JrmHaeoJEACmggbnl4pHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgKaCBueniNAAmfV52or9hrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKjI7n8h5QiQAIUP8bctYQbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+76IUAC1CtlGeKYHcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtZW7C+7xyBAAtQrZRnimB3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwI8vVKWIS4gQAIUP8bctYQbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1lbsL7vHIEACcT0K16NwGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Av8h/fZ1gCBAAs07TtGRXBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJbQj7o2eweQAKaCBueXikWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CW0I+6NnsHkACNKK0N/jCE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Av8h/fZ1gCBAAgBvgQTFjxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLRItv5foohQAI0orQ3+MITwAAAAAABFgAEBAAAAAAAAAAIBAAAAAAAAAAMBAAAAAAAAAAQCAAAAAAAABgUBAAEBAAAABwYCAgEBAAAACAcBAAEBAAAACQgCAgEBAAAABQECAwEBAAAAAQkBAAEBAAAACwoBAAEBAAAADAsCAgEBAAAADQwBAAEBAAAADg0CAgEBAAAACgICAwEBAAAAAg4BAAEBAAAAAEQPAQABAQAAAABEQEQCAgEBAAAAAESAREEAAQEAAAAARMBEggIBAQAAAA8DAgMBAQAAAAMARMEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -396,7 +396,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00005C0000014R0592984767S00000017P01028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AQA/AACAAAAAAAA8L8CaQBvgQTFEkAC001iEFj5F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgwCK4cW2RRAAsdLN4lBYBTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIMAiuHFtkUQAL129eBc8YWwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C6Nms+lztFkACCyQofoz5F8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AsSxLm6jARlAAsdLN4lBYBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLEsS5uowEZQAL129eBc8YWwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CoImw4ekVG0ACCyQofoz5F8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AnxhMlUwKh1AAvXb14FzxhbAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI8TtGRXD4fQAI5tMh2vl8awAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CPE7RkVw+H0ACCyQofoz5F8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AgyTqYJRqSBAAvXb14FzxhbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwI9CtejcL0iQAItsp3vp8YWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C+n5qvHSzIUACCyQofoz5F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Avp+arx0syFAAjm0yHa+XxrAAAAAADQACAQAAAAAAAAIBAQAAAAAAAAIDAQAAAAAAAAMFAQAAAAAAAAUEAgAAAAAAAAUGAQAAAAAAAAYHAQAAAAAAAAcJAQAAAAAAAAkIAgAAAAAAAAkKAQAAAAAAAAoMAQAAAAAAAAwLAQAAAAAAAAwNAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00005C0000014R0806750485S00000017P01028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AQA/AACAAAAAAAA8L8CaQBvgQTFEkAC001iEFj5F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgwCK4cW2RRAAsdLN4lBYBTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIMAiuHFtkUQAL129eBc8YWwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C6Nms+lztFkACCyQofoz5F8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AsSxLm6jARlAAsdLN4lBYBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLEsS5uowEZQAL129eBc8YWwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CoImw4ekVG0ACCyQofoz5F8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AnxhMlUwKh1AAvXb14FzxhbAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI8TtGRXD4fQAI5tMh2vl8awAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CPE7RkVw+H0ACCyQofoz5F8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AgyTqYJRqSBAAvXb14FzxhbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwI9CtejcL0iQAItsp3vp8YWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C+n5qvHSzIUACCyQofoz5F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Avp+arx0syFAAjm0yHa+XxrAAAAAADQACAQAAAAAAAAIBAQAAAAAAAAIDAQAAAAAAAAMFAQAAAAAAAAUEAgAAAAAAAAUGAQAAAAAAAAYHAQAAAAAAAAcJAQAAAAAAAAkIAgAAAAAAAAkKAQAAAAAAAAoMAQAAAAAAAAwLAQAAAAAAAAwNAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -419,7 +419,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000020R0592984783S00000005P01460LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUGAAAAPwEAPwAAgAAAAAAAPC/AkVHcvkPiSBAAo9TdCSXfxrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJR/Bhz15IhQAKV9gZfmEwZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CRUdy+Q+JIEACaCJseHrlHMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlH8GHPXkiFAAm7F/rJ7shvAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKmLEMc68ImQAI7AU2EDU8TwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CP1dbsb/MJ0ACGXPXEvKBFMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ag0CK4cWuSVAAhlz1xLygRTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKmLEMc68ImQAIU0ETY8LQVwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8ChslUwajEJkACg1FJnYDmHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AndPHhZqzSdAAnE9CtejsBvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLNzMzMzMwnQALo+6nx0k0ZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CpixDHOvCJkAC7Z48LNQaGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkT67evAuSVAAkA1XrpJTBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK2hHzQs7klQAIZBFYOLbIbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6iYxCKycIkACkX77OnBOH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoGVQ4tspyNAAqwcWmQ7PyDAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIdWmQ7368kQAKzne+nxksfwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CHVpkO9+vJEACFGHD0yvlHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkqdgCbCpiNAAlHaG3xhshvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLqJjEIrJwiQAJoImx4euUcwAAAAAABFQwABAAAAAAAAAwEBAAAAAAAAAwIBAAAAAAAAAETDAQAAAAAAAAcEAQAAAAAAAAcFAQAAAAAAAAcGAQAAAAAAAAsHAQAAAAAAAA0IAQABAQAAAAgJAgIBAQAAAAkKAQABAQAAAAoLAgMBAQAAAAsMAQABAQAAAAwNAgIBAQAAAABETQEAAAAAAAAARM4BAAEBAAAADg8CAgEBAAAADwBEAQABAQAAAABEAERCAwEBAAAAAERARIEAAQEAAAAARIBEwgMBAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00006C0000020R0806750502S00000005P01460LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUGAAAAPwEAPwAAgAAAAAAAPC/AkVHcvkPiSBAAo9TdCSXfxrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJR/Bhz15IhQAKV9gZfmEwZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CRUdy+Q+JIEACaCJseHrlHMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlH8GHPXkiFAAm7F/rJ7shvAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKmLEMc68ImQAI7AU2EDU8TwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CP1dbsb/MJ0ACGXPXEvKBFMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ag0CK4cWuSVAAhlz1xLygRTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKmLEMc68ImQAIU0ETY8LQVwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8ChslUwajEJkACg1FJnYDmHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AndPHhZqzSdAAnE9CtejsBvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLNzMzMzMwnQALo+6nx0k0ZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CpixDHOvCJkAC7Z48LNQaGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkT67evAuSVAAkA1XrpJTBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK2hHzQs7klQAIZBFYOLbIbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6iYxCKycIkACkX77OnBOH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoGVQ4tspyNAAqwcWmQ7PyDAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIdWmQ7368kQAKzne+nxksfwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CHVpkO9+vJEACFGHD0yvlHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkqdgCbCpiNAAlHaG3xhshvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLqJjEIrJwiQAJoImx4euUcwAAAAAABFQwABAAAAAAAAAwEBAAAAAAAAAwIBAAAAAAAAAETDAQAAAAAAAAcEAQAAAAAAAAcFAQAAAAAAAAcGAQAAAAAAAAsHAQAAAAAAAA0IAQABAQAAAAgJAgIBAQAAAAkKAQABAQAAAAoLAgMBAQAAAAsMAQABAQAAAAwNAgIBAQAAAABETQEAAAAAAAAARM4BAAEBAAAADg8CAgEBAAAADwBEAQABAQAAAABEAERCAwEBAAAAAERARIEAAQEAAAAARIBEwgMBAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -432,7 +432,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00007C0000020R0592984783S00000006P01460LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUJAAAAPwEAPwAAgAAAAAAAPC/AuxRuB6FqyRAAnsUrkfhOhrAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLsUbgehaskQAJU46WbxKAcwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CUyegibChI0ACnaIjufwHGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlMnoImwoSNAAnZxGw3gbRvAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJz+Q/pt48hQAJ4nKIjuRwgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CY3/ZPXmYIkAC3iQGgZUDH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akhy+Q/plyJAAlTjpZvEoBzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKSXP5D+o0hQAJahjjWxW0bwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cv58aL92EIEACrBxaZDufHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqK0N/jChCBAAobrUbgeBR/AAAAAACQAAAD8BAD8AAIAAAAAAADwvwJj7lpCPqgWQAJsmnecooMiwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8ClkOLbOe7GEAC6Ugu/yEdI8AAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AmPuWkI+qBZAAv+ye/KwUCHAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKWQ4ts57sYQAJ8YTJVMOohwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CrK3YX3bPGkAC/7J78rBQIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Avd14JwR5RxAAmMQWDm06CHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwISFD/G3PUeQAKQwvUoXE8hwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CEhQ/xtz1HkACQKTfvg4cIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoiFWtO84xxAAr7BFyZTBR/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKsrdhfds8aQALrBDQRNhwgwAAAAAABFQwABAAAAAAAAAwEBAAAAAAAAAwIBAAAAAAAABgMBAAAAAAAACQQBAAEBAAAABAUCAgEBAAAABQYBAAEBAAAABgcCAwEBAAAABwgBAAEBAAAACAkCAgEBAAAAAERJAQAAAAAAAA0KAQAAAAAAAA0LAQAAAAAAAA0MAQAAAAAAAA4NAQAAAAAAAABEzgEAAQEAAAAODwIDAQEAAAAPAEQBAAEBAAAAAEQAREIDAQEAAAAAREBEgQABAQAAAABEgETCAgEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00007C0000020R0806750502S00000006P01460LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUJAAAAPwEAPwAAgAAAAAAAPC/AuxRuB6FqyRAAnsUrkfhOhrAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLsUbgehaskQAJU46WbxKAcwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CUyegibChI0ACnaIjufwHGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlMnoImwoSNAAnZxGw3gbRvAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJz+Q/pt48hQAJ4nKIjuRwgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CY3/ZPXmYIkAC3iQGgZUDH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akhy+Q/plyJAAlTjpZvEoBzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKSXP5D+o0hQAJahjjWxW0bwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cv58aL92EIEACrBxaZDufHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqK0N/jChCBAAobrUbgeBR/AAAAAACQAAAD8BAD8AAIAAAAAAADwvwJj7lpCPqgWQAJsmnecooMiwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8ClkOLbOe7GEAC6Ugu/yEdI8AAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AmPuWkI+qBZAAv+ye/KwUCHAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKWQ4ts57sYQAJ8YTJVMOohwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CrK3YX3bPGkAC/7J78rBQIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Avd14JwR5RxAAmMQWDm06CHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwISFD/G3PUeQAKQwvUoXE8hwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CEhQ/xtz1HkACQKTfvg4cIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoiFWtO84xxAAr7BFyZTBR/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKsrdhfds8aQALrBDQRNhwgwAAAAAABFQwABAAAAAAAAAwEBAAAAAAAAAwIBAAAAAAAABgMBAAAAAAAACQQBAAEBAAAABAUCAgEBAAAABQYBAAEBAAAABgcCAwEBAAAABwgBAAEBAAAACAkCAgEBAAAAAERJAQAAAAAAAA0KAQAAAAAAAA0LAQAAAAAAAA0MAQAAAAAAAA4NAQAAAAAAAABEzgEAAQEAAAAODwIDAQEAAAAPAEQBAAEBAAAAAEQAREIDAQEAAAAAREBEgQABAQAAAABEgETCAgEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -455,7 +455,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000026R0592984796S00000009P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMEEACBoGVQ4tsEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hRAArK/7J48bBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL/If32deASQALfcYqO5HIOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyFEACUfwYc9fSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBBAAi/dJAaB1RLAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuESQAL2l92ThwUUwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GF0ACL26jAbwFFMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Au9aQj7oGRlAAlH8GHPX0hLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYXQAIIPZtVn2sWwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00004C0000026R0806750515S00000009P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMEEACBoGVQ4tsEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hRAArK/7J48bBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL/If32deASQALfcYqO5HIOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyFEACUfwYc9fSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBBAAi/dJAaB1RLAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuESQAL2l92ThwUUwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GF0ACL26jAbwFFMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Au9aQj7oGRlAAlH8GHPX0hLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYXQAIIPZtVn2sWwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -468,7 +468,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00005C0000026R0592984796S00000010P00648LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiAgAAAA/AQA/AACAAAAAAAA8L8Cr7Zif9n9H0ACMEymCkZlGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Aio6kst/iCBAAvyp8dJNYhbAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJ0RpT2Bl8fQAL5wmSqYBQYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CINJvXwcOHUACoWez6nN1F8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/Ao4G8BZIUBxAAunZrPpcLRXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ8YTJVMOoZQALp2az6XC0VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6pWyDHEsGUACoWez6nN1F8AAAAAAARAAAAD8BAD8AAIAAAAAAADwvwJ3vp8aLx0bQALKw0Ktad4YwAAAAAAgCAAEAAAAAAAACAQEAAAAAAAADAgEAAAAAAAADBwEAAQEAAAAEAwIDAQEAAAAFBAEAAQEAAAAGBQICAQEAAAAHBgEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00005C0000026R0806750515S00000010P00648LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiAgAAAA/AQA/AACAAAAAAAA8L8Cr7Zif9n9H0ACMEymCkZlGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Aio6kst/iCBAAvyp8dJNYhbAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJ0RpT2Bl8fQAL5wmSqYBQYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CINJvXwcOHUACoWez6nN1F8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/Ao4G8BZIUBxAAunZrPpcLRXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ8YTJVMOoZQALp2az6XC0VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6pWyDHEsGUACoWez6nN1F8AAAAAAARAAAAD8BAD8AAIAAAAAAADwvwJ3vp8aLx0bQALKw0Ktad4YwAAAAAAgCAAEAAAAAAAACAQEAAAAAAAADAgEAAAAAAAADBwEAAQEAAAAEAwIDAQEAAAAFBAEAAQEAAAAGBQICAQEAAAAHBgEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -481,7 +481,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000026R0592984796S00000013P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8Csr/snjysGUACDQIrhxZZD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWj0h1AAmN/2T15WA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaMAbQALfcYqO5PIMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaPSHUACUfwYc9cSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArK/7J48rBlAAi/dJAaBFRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLhnBGlvcEbQAL2l92Th0UTwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CS3uDL0zmH0ACL26jAbxFE8AAAAAAJAAAAPwEAPwAAgAAAAAAAPC/Akt7gy9M5h9AAm7F/rJ78gzAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLhnBGlvcEbQAKze/KwUKsVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8Cf2q8dJOYF0ACF0hQ/BjzDMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArByaJHt/CBAAlH8GHPXEhLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwJLe4MvTOYfQAIIPZtVn6sVwAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAABBwEAAAAAAAAFCAEAAAAAAAAACQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000026R0806750515S00000013P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8Csr/snjysGUACDQIrhxZZD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWj0h1AAmN/2T15WA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaMAbQALfcYqO5PIMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaPSHUACUfwYc9cSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArK/7J48rBlAAi/dJAaBFRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLhnBGlvcEbQAL2l92Th0UTwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CS3uDL0zmH0ACL26jAbxFE8AAAAAAJAAAAPwEAPwAAgAAAAAAAPC/Akt7gy9M5h9AAm7F/rJ78gzAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLhnBGlvcEbQAKze/KwUKsVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8Cf2q8dJOYF0ACF0hQ/BjzDMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArByaJHt/CBAAlH8GHPXEhLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwJLe4MvTOYfQAIIPZtVn6sVwAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAABBwEAAAAAAAAFCAEAAAAAAAAACQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -494,7 +494,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00007C0000026R0592984796S00000014P01120LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMF0ACBoGVQ4tsFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8htAArK/7J48bBbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAZQALvOEVHcjkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyG0ACUfwYc9fSGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBdAAi/dJAaB1RjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEZQAL3l92ThwUawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GHkACL26jAbwFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0DCBAAlH8GHPX0hjAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAIIPZtVn2scwAAAAAABEQAAAPwEAPwAAgAAAAAAAPC/Am8Sg8DK4RlAArN78rBQaxzAAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAK3Yn/ZPTkVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CpHA9CtfjH0AChQ1Pr5QlFMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AubQItv5Ph9AAru4jQbwVhfAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLek4eFWtMcQAKh+DHmriUTwAAAAAA4FAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAFCQEAAAAAAAAKDQEAAAAAAAAKDAEAAAAAAAAKCwEAAAAAAAABCgEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIATnR0dPT09PT+vYDQ0Yz9gT2CvYL9gz2DfHx09H2Dfrx+dH2DfSTqYJRSZ3gv/TnHafoSC7Tv/Xx+vEAAAAAAAAA</t>
+          <t>Insight iXlW00007C0000026R0806750515S00000014P01120LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMF0ACBoGVQ4tsFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8htAArK/7J48bBbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAZQALvOEVHcjkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyG0ACUfwYc9fSGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBdAAi/dJAaB1RjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEZQAL3l92ThwUawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GHkACL26jAbwFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0DCBAAlH8GHPX0hjAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAIIPZtVn2scwAAAAAABEQAAAPwEAPwAAgAAAAAAAPC/Am8Sg8DK4RlAArN78rBQaxzAAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAK3Yn/ZPTkVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CpHA9CtfjH0AChQ1Pr5QlFMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AubQItv5Ph9AAru4jQbwVhfAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLek4eFWtMcQAKh+DHmriUTwAAAAAA4FAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAFCQEAAAAAAAAKDQEAAAAAAAAKDAEAAAAAAAAKCwEAAAAAAAABCgEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIATnR0dPT09PT+vYDQ0Yz9gT2CvYL9gz2DfHx09H2Dfrx+dH2DfSTqYJRSZ3gv/TnHafoSC7Tv/Xx+vEAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -507,7 +507,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000028R0592984796S00000011P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMHEACBoGVQ4ssF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtNNYhBYeSBAArK/7J48LBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAeQALwOEVHcvkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C001iEFh5IEACUfwYc9eSGcAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBxAAi/dJAaBlRnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEeQAL3l92Th8UawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8C3gIJih+DIUACL26jAbzFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0jCJAAlH8GHPXkhnAAAAAACAAAAD8BAD8AAIAAAAAAADwvwLeAgmKH4MhQAIIPZtVnysdwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00004C0000028R0806750515S00000011P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMHEACBoGVQ4ssF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtNNYhBYeSBAArK/7J48LBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAeQALwOEVHcvkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C001iEFh5IEACUfwYc9eSGcAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBxAAi/dJAaBlRnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEeQAL3l92Th8UawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8C3gIJih+DIUACL26jAbzFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0jCJAAlH8GHPXkhnAAAAAACAAAAD8BAD8AAIAAAAAAADwvwLeAgmKH4MhQAIIPZtVnysdwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -520,7 +520,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00005C0000028R0592984796S00000012P00716LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQcAAAA/AgA/AACAAAAAAAA8L8CjnVxGw1gGkACtTf4wmTqFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuVhodY0bxhAAozbaABvgRTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ4LSEf9CwZQALTTWIQWDkSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AuTG0AC001iEFg5EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhueXinLUBxAAozbaABvgRTAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJvEoPAyqEeQALjNhrAWyAVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CthX7y+4pIEAC5x2n6EhuE8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AqqCUUmdQB9AAhvAWyBBcRfAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CjnVxGw1gGkACjgbwFkhQGMAAAAAAJBAABAAEBAAAAAwQCAgEBAAAAAgMBAAEBAAAAAAEBAAEBAAAAAQICAgEBAAAABAUBAAAAAAAABQYBAAAAAAAABQcBAAAAAAAAAAgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00005C0000028R0806750515S00000012P00716LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQcAAAA/AgA/AACAAAAAAAA8L8CjnVxGw1gGkACtTf4wmTqFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuVhodY0bxhAAozbaABvgRTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ4LSEf9CwZQALTTWIQWDkSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AuTG0AC001iEFg5EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhueXinLUBxAAozbaABvgRTAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJvEoPAyqEeQALjNhrAWyAVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CthX7y+4pIEAC5x2n6EhuE8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AqqCUUmdQB9AAhvAWyBBcRfAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CjnVxGw1gGkACjgbwFkhQGMAAAAAAJBAABAAEBAAAAAwQCAgEBAAAAAgMBAAEBAAAAAAEBAAEBAAAAAQICAgEBAAAABAUBAAAAAAAABQYBAAAAAAAABQcBAAAAAAAAAAgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -533,7 +533,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000028R0592984796S00000015P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CQDVeuklMGEACBoGVQ4tsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchxAArK/7J48bBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32dWAaQALvOEVHcjkTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILByHEACUfwYc9fSFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJTBhAAi/dJAaB1RbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAymEaQAL2l92ThwUYwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD+GHkACL26jAbwFGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AgAi/fZ1YBpAAhZqTfOO0xDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwIN4C2QoDgWQAIMJCh+jDkTwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CDeAtkKA4FkACKjqSy38IGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0TCBAAlH8GHPX0hbAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUP4YeQAIIPZtVn2sawAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAACBwEAAAAAAAAACAEAAAAAAAAECQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000028R0806750515S00000015P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CQDVeuklMGEACBoGVQ4tsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchxAArK/7J48bBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32dWAaQALvOEVHcjkTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILByHEACUfwYc9fSFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJTBhAAi/dJAaB1RbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAymEaQAL2l92ThwUYwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD+GHkACL26jAbwFGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AgAi/fZ1YBpAAhZqTfOO0xDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwIN4C2QoDgWQAIMJCh+jDkTwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CDeAtkKA4FkACKjqSy38IGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0TCBAAlH8GHPX0hbAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUP4YeQAIIPZtVn2sawAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAACBwEAAAAAAAAACAEAAAAAAAAECQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -556,7 +556,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000005R0597676890S00000002P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMEEACBoGVQ4tsEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hRAArK/7J48bBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL/If32deASQALfcYqO5HIOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyFEACUfwYc9fSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBBAAi/dJAaB1RLAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuESQAL2l92ThwUUwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GF0ACL26jAbwFFMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Au9aQj7oGRlAAlH8GHPX0hLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYXQAIIPZtVn2sWwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000005R0806750531S00000002P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMEEACBoGVQ4tsEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hRAArK/7J48bBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL/If32deASQALfcYqO5HIOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyFEACUfwYc9fSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBBAAi/dJAaB1RLAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuESQAL2l92ThwUUwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GF0ACL26jAbwFFMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Au9aQj7oGRlAAlH8GHPX0hLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYXQAIIPZtVn2sWwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -569,7 +569,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000006R0597676890S00000003P00648LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiAgAAAA/AQA/AACAAAAAAAA8L8Cr7Zif9n9H0ACMEymCkZlGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Aio6kst/iCBAAvyp8dJNYhbAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJ0RpT2Bl8fQAL5wmSqYBQYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CINJvXwcOHUACoWez6nN1F8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/Ao4G8BZIUBxAAunZrPpcLRXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ8YTJVMOoZQALp2az6XC0VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6pWyDHEsGUACoWez6nN1F8AAAAAAARAAAAD8BAD8AAIAAAAAAADwvwJ3vp8aLx0bQALKw0Ktad4YwAAAAAAgCAAEAAAAAAAACAQEAAAAAAAADAgEAAAAAAAADBwEAAQEAAAAEAwIDAQEAAAAFBAEAAQEAAAAGBQICAQEAAAAHBgEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000006R0806750531S00000003P00648LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiAgAAAA/AQA/AACAAAAAAAA8L8Cr7Zif9n9H0ACMEymCkZlGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Aio6kst/iCBAAvyp8dJNYhbAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJ0RpT2Bl8fQAL5wmSqYBQYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CINJvXwcOHUACoWez6nN1F8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/Ao4G8BZIUBxAAunZrPpcLRXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ8YTJVMOoZQALp2az6XC0VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6pWyDHEsGUACoWez6nN1F8AAAAAAARAAAAD8BAD8AAIAAAAAAADwvwJ3vp8aLx0bQALKw0Ktad4YwAAAAAAgCAAEAAAAAAAACAQEAAAAAAAADAgEAAAAAAAADBwEAAQEAAAAEAwIDAQEAAAAFBAEAAQEAAAAGBQICAQEAAAAHBgEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -582,7 +582,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000007R0597676890S00000006P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8Csr/snjysGUACDQIrhxZZD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWj0h1AAmN/2T15WA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaMAbQALfcYqO5PIMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaPSHUACUfwYc9cSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArK/7J48rBlAAi/dJAaBFRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLhnBGlvcEbQAL2l92Th0UTwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CS3uDL0zmH0ACL26jAbxFE8AAAAAAJAAAAPwEAPwAAgAAAAAAAPC/Akt7gy9M5h9AAm7F/rJ78gzAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLhnBGlvcEbQAKze/KwUKsVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8Cf2q8dJOYF0ACF0hQ/BjzDMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArByaJHt/CBAAlH8GHPXEhLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwJLe4MvTOYfQAIIPZtVn6sVwAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAABBwEAAAAAAAAFCAEAAAAAAAAACQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000007R0806750531S00000006P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8Csr/snjysGUACDQIrhxZZD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWj0h1AAmN/2T15WA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaMAbQALfcYqO5PIMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaPSHUACUfwYc9cSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArK/7J48rBlAAi/dJAaBFRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLhnBGlvcEbQAL2l92Th0UTwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CS3uDL0zmH0ACL26jAbxFE8AAAAAAJAAAAPwEAPwAAgAAAAAAAPC/Akt7gy9M5h9AAm7F/rJ78gzAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLhnBGlvcEbQAKze/KwUKsVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8Cf2q8dJOYF0ACF0hQ/BjzDMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArByaJHt/CBAAlH8GHPXEhLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwJLe4MvTOYfQAIIPZtVn6sVwAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAABBwEAAAAAAAAFCAEAAAAAAAAACQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -595,7 +595,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000008R0597676890S00000007P01120LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMF0ACBoGVQ4tsFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8htAArK/7J48bBbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAZQALvOEVHcjkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyG0ACUfwYc9fSGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBdAAi/dJAaB1RjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEZQAL3l92ThwUawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GHkACL26jAbwFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0DCBAAlH8GHPX0hjAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAIIPZtVn2scwAAAAAABEQAAAPwEAPwAAgAAAAAAAPC/Am8Sg8DK4RlAArN78rBQaxzAAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAK3Yn/ZPTkVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CpHA9CtfjH0AChQ1Pr5QlFMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AubQItv5Ph9AAru4jQbwVhfAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLek4eFWtMcQAKh+DHmriUTwAAAAAA4FAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAFCQEAAAAAAAAKDQEAAAAAAAAKDAEAAAAAAAAKCwEAAAAAAAABCgEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIATnR0dPT09PT+vYDQ0Yz9gT2CvYL9gz2DfHx09H2Dfrx+dH2DfSTqYJRSZ3gv/TnHafoSC7Tv/Xx+vEAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000008R0806750531S00000007P01120LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMF0ACBoGVQ4tsFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8htAArK/7J48bBbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAZQALvOEVHcjkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyG0ACUfwYc9fSGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBdAAi/dJAaB1RjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEZQAL3l92ThwUawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GHkACL26jAbwFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0DCBAAlH8GHPX0hjAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAIIPZtVn2scwAAAAAABEQAAAPwEAPwAAgAAAAAAAPC/Am8Sg8DK4RlAArN78rBQaxzAAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAK3Yn/ZPTkVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CpHA9CtfjH0AChQ1Pr5QlFMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AubQItv5Ph9AAru4jQbwVhfAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLek4eFWtMcQAKh+DHmriUTwAAAAAA4FAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAFCQEAAAAAAAAKDQEAAAAAAAAKDAEAAAAAAAAKCwEAAAAAAAABCgEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIATnR0dPT09PT+vYDQ0Yz9gT2CvYL9gz2DfHx09H2Dfrx+dH2DfSTqYJRSZ3gv/TnHafoSC7Tv/Xx+vEAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -608,7 +608,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000009R0597676890S00000004P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMHEACBoGVQ4ssF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtNNYhBYeSBAArK/7J48LBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAeQALwOEVHcvkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C001iEFh5IEACUfwYc9eSGcAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBxAAi/dJAaBlRnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEeQAL3l92Th8UawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8C3gIJih+DIUACL26jAbzFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0jCJAAlH8GHPXkhnAAAAAACAAAAD8BAD8AAIAAAAAAADwvwLeAgmKH4MhQAIIPZtVnysdwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000009R0806750531S00000004P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMHEACBoGVQ4ssF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtNNYhBYeSBAArK/7J48LBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAeQALwOEVHcvkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C001iEFh5IEACUfwYc9eSGcAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBxAAi/dJAaBlRnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEeQAL3l92Th8UawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8C3gIJih+DIUACL26jAbzFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0jCJAAlH8GHPXkhnAAAAAACAAAAD8BAD8AAIAAAAAAADwvwLeAgmKH4MhQAIIPZtVnysdwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -621,7 +621,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000010R0597676890S00000005P00716LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQcAAAA/AgA/AACAAAAAAAA8L8CjnVxGw1gGkACtTf4wmTqFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuVhodY0bxhAAozbaABvgRTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ4LSEf9CwZQALTTWIQWDkSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AuTG0AC001iEFg5EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhueXinLUBxAAozbaABvgRTAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJvEoPAyqEeQALjNhrAWyAVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CthX7y+4pIEAC5x2n6EhuE8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AqqCUUmdQB9AAhvAWyBBcRfAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CjnVxGw1gGkACjgbwFkhQGMAAAAAAJBAABAAEBAAAAAwQCAgEBAAAAAgMBAAEBAAAAAAEBAAEBAAAAAQICAgEBAAAABAUBAAAAAAAABQYBAAAAAAAABQcBAAAAAAAAAAgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00006C0000010R0806750531S00000005P00716LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQcAAAA/AgA/AACAAAAAAAA8L8CjnVxGw1gGkACtTf4wmTqFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuVhodY0bxhAAozbaABvgRTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ4LSEf9CwZQALTTWIQWDkSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AuTG0AC001iEFg5EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhueXinLUBxAAozbaABvgRTAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJvEoPAyqEeQALjNhrAWyAVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CthX7y+4pIEAC5x2n6EhuE8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AqqCUUmdQB9AAhvAWyBBcRfAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CjnVxGw1gGkACjgbwFkhQGMAAAAAAJBAABAAEBAAAAAwQCAgEBAAAAAgMBAAEBAAAAAAEBAAEBAAAAAQICAgEBAAAABAUBAAAAAAAABQYBAAAAAAAABQcBAAAAAAAAAAgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -634,7 +634,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000011R0597676890S00000010P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CQDVeuklMGEACBoGVQ4tsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchxAArK/7J48bBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32dWAaQALvOEVHcjkTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILByHEACUfwYc9fSFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJTBhAAi/dJAaB1RbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAymEaQAL2l92ThwUYwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD+GHkACL26jAbwFGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AgAi/fZ1YBpAAhZqTfOO0xDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwIN4C2QoDgWQAIMJCh+jDkTwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CDeAtkKA4FkACKjqSy38IGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0TCBAAlH8GHPX0hbAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUP4YeQAIIPZtVn2sawAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAACBwEAAAAAAAAACAEAAAAAAAAECQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000011R0806750531S00000010P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CQDVeuklMGEACBoGVQ4tsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchxAArK/7J48bBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32dWAaQALvOEVHcjkTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILByHEACUfwYc9fSFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJTBhAAi/dJAaB1RbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAymEaQAL2l92ThwUYwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD+GHkACL26jAbwFGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AgAi/fZ1YBpAAhZqTfOO0xDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwIN4C2QoDgWQAIMJCh+jDkTwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CDeAtkKA4FkACKjqSy38IGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0TCBAAlH8GHPX0hbAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUP4YeQAIIPZtVn2sawAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAACBwEAAAAAAAAACAEAAAAAAAAECQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -647,7 +647,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000012R0597676890S00000001P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CQDVeuklMGEACBoGVQ4tsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchxAArK/7J48bBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32dWAaQALvOEVHcjkTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILByHEACUfwYc9fSFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJTBhAAi/dJAaB1RbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAymEaQAL2l92ThwUYwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD+GHkACL26jAbwFGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AgAi/fZ1YBpAAhZqTfOO0xDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwIN4C2QoDgWQAIMJCh+jDkTwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CDeAtkKA4FkACKjqSy38IGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0TCBAAlH8GHPX0hbAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUP4YeQAIIPZtVn2sawAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAACBwEAAAAAAAAACAEAAAAAAAAECQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000012R0806750531S00000001P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CQDVeuklMGEACBoGVQ4tsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchxAArK/7J48bBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32dWAaQALvOEVHcjkTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILByHEACUfwYc9fSFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJTBhAAi/dJAaB1RbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAymEaQAL2l92ThwUYwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD+GHkACL26jAbwFGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AgAi/fZ1YBpAAhZqTfOO0xDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwIN4C2QoDgWQAIMJCh+jDkTwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CDeAtkKA4FkACKjqSy38IGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0TCBAAlH8GHPX0hbAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUP4YeQAIIPZtVn2sawAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAACBwEAAAAAAAAACAEAAAAAAAAECQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -670,7 +670,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000008R0592984813S00000005P00968LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiwYAAAA/AgA/AACAAAAAAAA8L8Csb/snjzsFUACDAIrhxZZD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjEhpAAmN/2T15WA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaAAYQALecYqO5PIMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaMSGkACUPwYc9cSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487BVAAi/dJAaBFRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLgnBGlvQEYQAL2l92Th0UTwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CAAAAAAAAGEACAAAAAADAEMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEAUQAIAAAAAAMAQwAAAAAAcAAAA/AQA/AACAAAAAAAA8L8CSnuDL0wmHEACbcX+snvyDMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwJKe4MvTCYcQAL0/dR46SYIwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AmDl0CLbOR5AAmN/2T15WA/AAAAAACgUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAYHAQAAAAAAAAEIAQAAAAAAAAgJAQAAAAAAAAgKAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAACAgBKdHR09PT09P69gJSMdH2CfHx09H2CPrx+dH2CPX0MzMzMzMz47/18frxCAEz9gL2AtPT09PT+vYCUjLR9grx8dPR9gn68fnR9gn0pHA9Ctej4L/0MzMzMzMz0z/18frxAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000008R0806750546S00000005P00968LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiwYAAAA/AgA/AACAAAAAAAA8L8Csb/snjzsFUACDAIrhxZZD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjEhpAAmN/2T15WA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaAAYQALecYqO5PIMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaMSGkACUPwYc9cSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487BVAAi/dJAaBFRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLgnBGlvQEYQAL2l92Th0UTwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CAAAAAAAAGEACAAAAAADAEMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEAUQAIAAAAAAMAQwAAAAAAcAAAA/AQA/AACAAAAAAAA8L8CSnuDL0wmHEACbcX+snvyDMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwJKe4MvTCYcQAL0/dR46SYIwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AmDl0CLbOR5AAmN/2T15WA/AAAAAACgUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAYHAQAAAAAAAAEIAQAAAAAAAAgJAQAAAAAAAAgKAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAACAgBKdHR09PT09P69gJSMdH2CfHx09H2CPrx+dH2CPX0MzMzMzMz47/18frxCAEz9gL2AtPT09PT+vYCUjLR9grx8dPR9gn68fnR9gn0pHA9Ctej4L/0MzMzMzMz0z/18frxAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -683,7 +683,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000009R0592984813S00000004P01916LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEaGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTGApAAgaBlUOLLBHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsDIRQAKxv+yePCwRwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/kP67etADkAC3nGKjuTyD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwMhFAAlD8GHPXkhPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/arx0kxgKQAIv3SQGgZUTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3SQGgZVDDkAC9pfdk4fFFMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/ArwFEhQ/RhNAAm3F/rJ78g/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwLuWkI+6FkVQAKxv+yePCwRwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8C7lpCPuhZFUACio7k8h+SE8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgAAAAAAAA5AAgAAAAAAQBLAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CHOviNhpAB0ACAAAAAABAEsAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwIhsHJokW0XQAJtxf6ye/IPwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AgtGJXUCmh9AAs6I0t7gixLAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLMXUvIB30hQALOiNLe4IsSwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CqmBUUiegI0ACodY07zhFEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/At4CCYofgyBAAhpR2ht84RPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIE54wo7Y0hQALFILByaBEVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CETY8vVKWIkACH4XrUbjeE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhE2PL1SliJAAoBIv30deBHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLM7snDQo0hQAK+wRcmU0UQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3gIJih+DIEAC1QloImx4EcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjnWxW00wCNAAoMvTKYKxgvAAAAAACAAAAD8BAD8AAIAAAAAAADwvwI/NV66SewkQAJmiGNd3MYKwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cofgx5q6FJUACIbByaJHtDsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AtUJaCJsuCRAAq36XG3FPhHAAAAAACAAAAD8CAD8AAIAAAAAAADwvwK6SQwCK+ciQAKL/WX35GEIwAAAAAABGRQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAQYBAAAAAAAABgcBAAAAAAAABwgCAAAAAAAACQoBAAAAAAAABwsBAAAAAAAADQwBAAAAAAAAAESOAQAAAAAAAABFDwEAAQEAAAAPAEQCAgEBAAAAAEQAREEAAQEAAAAAREBEggMBAQAAAABEgETBAAEBAAAAAETARQICAQEAAAAARcBGAQABAAAAAABFgEXBAAEAAAAAAEVARYEAAQAAAAAARU4BAAEAAAAAAEYOAQABAAAAAABFQEZCAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAECAEx0dHT09PT0/r2AlIx0fYL8fHT0fYK+vH50fYK9KRwPQrXo+C/9DMzMzMzM9O/9fH68QAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000009R0806750546S00000004P01916LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEaGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTGApAAgaBlUOLLBHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsDIRQAKxv+yePCwRwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/kP67etADkAC3nGKjuTyD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwMhFAAlD8GHPXkhPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/arx0kxgKQAIv3SQGgZUTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3SQGgZVDDkAC9pfdk4fFFMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/ArwFEhQ/RhNAAm3F/rJ78g/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwLuWkI+6FkVQAKxv+yePCwRwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8C7lpCPuhZFUACio7k8h+SE8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgAAAAAAAA5AAgAAAAAAQBLAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CHOviNhpAB0ACAAAAAABAEsAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwIhsHJokW0XQAJtxf6ye/IPwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AgtGJXUCmh9AAs6I0t7gixLAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLMXUvIB30hQALOiNLe4IsSwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CqmBUUiegI0ACodY07zhFEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/At4CCYofgyBAAhpR2ht84RPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIE54wo7Y0hQALFILByaBEVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CETY8vVKWIkACH4XrUbjeE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhE2PL1SliJAAoBIv30deBHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLM7snDQo0hQAK+wRcmU0UQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3gIJih+DIEAC1QloImx4EcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjnWxW00wCNAAoMvTKYKxgvAAAAAACAAAAD8BAD8AAIAAAAAAADwvwI/NV66SewkQAJmiGNd3MYKwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cofgx5q6FJUACIbByaJHtDsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AtUJaCJsuCRAAq36XG3FPhHAAAAAACAAAAD8CAD8AAIAAAAAAADwvwK6SQwCK+ciQAKL/WX35GEIwAAAAAABGRQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAQYBAAAAAAAABgcBAAAAAAAABwgCAAAAAAAACQoBAAAAAAAABwsBAAAAAAAADQwBAAAAAAAAAESOAQAAAAAAAABFDwEAAQEAAAAPAEQCAgEBAAAAAEQAREEAAQEAAAAAREBEggMBAQAAAABEgETBAAEBAAAAAETARQICAQEAAAAARcBGAQABAAAAAABFgEXBAAEAAAAAAEVARYEAAQAAAAAARU4BAAEAAAAAAEYOAQABAAAAAABFQEZCAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAECAEx0dHT09PT0/r2AlIx0fYL8fHT0fYK+vH50fYK9KRwPQrXo+C/9DMzMzMzM9O/9fH68QAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -696,7 +696,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000010R0592984813S00000006P00704LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CY3/ZPXnYDkACBoGVQ4tsE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjkhNAArG/7J48bBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaIARQALvOEVHcjkSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaOSE0ACUPwYc9fSFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmN/2T152A5AAi/dJAaB1RXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLgnBGlvYERQAL2l92ThwUXwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CAAAAAACAEUACAAAAAADAFMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwJOYhBYObQLQAIAAAAAAMAUwAAAAAAcAAAA/AQA/AACAAAAAAAA8L8CSnuDL0ymFUACt2J/2T05EsAAAAAAIBQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAABgcBAAAAAAAAAQgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000010R0806750546S00000006P00704LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CY3/ZPXnYDkACBoGVQ4tsE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjkhNAArG/7J48bBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaIARQALvOEVHcjkSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaOSE0ACUPwYc9fSFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmN/2T152A5AAi/dJAaB1RXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLgnBGlvYERQAL2l92ThwUXwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CAAAAAACAEUACAAAAAADAFMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwJOYhBYObQLQAIAAAAAAMAUwAAAAAAcAAAA/AQA/AACAAAAAAAA8L8CSnuDL0ymFUACt2J/2T05EsAAAAAAIBQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAABgcBAAAAAAAAAQgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -709,7 +709,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000011R0592984813S00000007P01236LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgERGAAAAPwIAPwAAgAAAAAAAPC/AuF6FK5HQSZAAlg5tMh2PiPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIUrkfhelQoQAKu2F92Tz4jwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CQfFjzF1LJ0ACTRWMSuqkIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhSuR+F6VChAAv32deCccSTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLhehSuR0EmQAJt5/up8XIkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CeekmMQhMJ0AC0ETY8PQKJcAAAAAAHAAAAPwEAPwAAgAAAAAAAPC/Aq7YX3ZPXilAAjAqqRPQpCLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK5jQbwFmgqQAKu2F92Tz4jwAAAAAABbAAAAPwIAPwAAgAAAAAAAPC/Au2ePCzUeixAAgN4CyQoPiPAAAAAAAFsAAAA/AgA/AACAAAAAAAA8L8C4C2QoPhxK0ACTRWMSuqkIsAAAAAAAWwAAAD8CAD8AAIAAAAAAADwvwLtnjws1HosQAL+1HjpJnEkwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CuY0G8BZoKkAC+zpwzohyJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjcitAArU3+MJkCiXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLQ1VbsLzsnQAKcM6K0N7gjwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AnsUrkfhWiVAApwzorQ3uCPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIJG55eKYsrQALVeOkmMcgjwAAAAAABJwAAAPwEAPwAAgAAAAAAAPC/Agkbnl4pqy1AAtV46SYxyCPAAAAAAAEQFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAGBwEAAAAAAAAMCgEAAQEAAAALDAICAQEAAAAICQEAAQEAAAAKCAICAQEAAAAJBwIDAQEAAAAHCwEAAQEAAAANDgEAAAAAAAAPAEQBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000011R0806750546S00000007P01236LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgERGAAAAPwIAPwAAgAAAAAAAPC/AuF6FK5HQSZAAlg5tMh2PiPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIUrkfhelQoQAKu2F92Tz4jwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CQfFjzF1LJ0ACTRWMSuqkIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhSuR+F6VChAAv32deCccSTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLhehSuR0EmQAJt5/up8XIkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CeekmMQhMJ0AC0ETY8PQKJcAAAAAAHAAAAPwEAPwAAgAAAAAAAPC/Aq7YX3ZPXilAAjAqqRPQpCLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK5jQbwFmgqQAKu2F92Tz4jwAAAAAABbAAAAPwIAPwAAgAAAAAAAPC/Au2ePCzUeixAAgN4CyQoPiPAAAAAAAFsAAAA/AgA/AACAAAAAAAA8L8C4C2QoPhxK0ACTRWMSuqkIsAAAAAAAWwAAAD8CAD8AAIAAAAAAADwvwLtnjws1HosQAL+1HjpJnEkwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CuY0G8BZoKkAC+zpwzohyJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjcitAArU3+MJkCiXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLQ1VbsLzsnQAKcM6K0N7gjwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AnsUrkfhWiVAApwzorQ3uCPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIJG55eKYsrQALVeOkmMcgjwAAAAAABJwAAAPwEAPwAAgAAAAAAAPC/Agkbnl4pqy1AAtV46SYxyCPAAAAAAAEQFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAGBwEAAAAAAAAMCgEAAQEAAAALDAICAQEAAAAICQEAAQEAAAAKCAICAQEAAAAJBwIDAQEAAAAHCwEAAQEAAAANDgEAAAAAAAAPAEQBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -722,7 +722,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000012R0592984813S00000009P01288LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgERGAAAAPwIAPwAAgAAAAAAAPC/AnZxGw3gjSdAAgWjkjoBDRvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKppE5AE6EpQAKx4emVsgwbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1edqK/aXKEAC7lpCPujZGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqmkTkAToSlAAk8eFmpNcx3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ2cRsN4I0nQAJL6gQ0EXYdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CDeAtkKCYKEAC9bnaiv2lHsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArRZ9bnaqipAAtJvXwfO2RnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLWVuwvu4coQAIbDeAtkCAcwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AtbFbTSAtyZAAhsN4C2QIBzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJNhA1Pr7QrQAKx4emVsgwbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CgZVDi2zHLUACPzVeukkMG8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnQkl/+QvixAAtJvXwfO2RnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIPC7WmecctQAJR2ht8YXIdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C2/l+ary0K0ACTKYKRiV1HcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjqSy39IvyxAAr6fGi/dpB7AAAAAABgAAAD8BAD8AAIAAAAAAADwvwIAAAAAAOAsQAKOdXEbDSAcwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/Ase6uI0GsC5AAo51cRsNIBzAAAAAAAEQFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAHCAEAAAAAAAAGCQEAAAAAAAAODAEAAQEAAAANDgICAQEAAAAKCwEAAQEAAAAMCgICAQEAAAALCQIDAQEAAAAJDQEAAQEAAAAPAEQBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAECAEp0dHT09PT0/r2AlIx0fYQ8fHT0fYP+vH50fYP9B+F61G4Hu2/9fXx+vEAAAAAAAAA</t>
+          <t>Insight iXlW00004C0000012R0806750546S00000009P01288LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgERGAAAAPwIAPwAAgAAAAAAAPC/AnZxGw3gjSdAAgWjkjoBDRvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKppE5AE6EpQAKx4emVsgwbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1edqK/aXKEAC7lpCPujZGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqmkTkAToSlAAk8eFmpNcx3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ2cRsN4I0nQAJL6gQ0EXYdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CDeAtkKCYKEAC9bnaiv2lHsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArRZ9bnaqipAAtJvXwfO2RnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLWVuwvu4coQAIbDeAtkCAcwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AtbFbTSAtyZAAhsN4C2QIBzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJNhA1Pr7QrQAKx4emVsgwbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CgZVDi2zHLUACPzVeukkMG8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnQkl/+QvixAAtJvXwfO2RnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIPC7WmecctQAJR2ht8YXIdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C2/l+ary0K0ACTKYKRiV1HcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjqSy39IvyxAAr6fGi/dpB7AAAAAABgAAAD8BAD8AAIAAAAAAADwvwIAAAAAAOAsQAKOdXEbDSAcwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/Ase6uI0GsC5AAo51cRsNIBzAAAAAAAEQFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAHCAEAAAAAAAAGCQEAAAAAAAAODAEAAQEAAAANDgICAQEAAAAKCwEAAQEAAAAMCgICAQEAAAALCQIDAQEAAAAJDQEAAQEAAAAPAEQBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAECAEp0dHT09PT0/r2AlIx0fYQ8fHT0fYP+vH50fYP9B+F61G4Hu2/9fXx+vEAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -735,7 +735,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000013R0592984813S00000008P00840LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAigYAAAA/PwA/AACAAAAAAAA8L8CQDVeuklMFEACeAskKH6MFcAAAAAAGAAAAPz8APwAAgAAAAAAAPC/AqabxCCwchhAAiRKe4MvjBXAAAAAABgAAAD8/AD8AAIAAAAAAADwvwL/If32dWAWQAJhw9MrZVkUwAAAAAAYAAAA/PwA/AACAAAAAAAA8L8CppvEILByGEACwoanV8ryF8AAAAAAGAAAAPz8APwAAgAAAAAAAPC/AkA1XrpJTBRAAr5SliGO9RfAAAAAABgAAAD8/AD8AAIAAAAAAADwvwJvEoPAymEWQAJoImx4eiUZwAAAAAAgAAAA/PwA/AACAAAAAAAA8L8CvAUSFD+GGkACRdjw9EpZFMAAAAAAAWkAAAD8/AD8AAIAAAAAAADwvwLvWkI+6JkcQAIkSnuDL4wVwAAAAAAYAAAA/PwA/AACAAAAAAAA8L8CAAAAAABAFkACjnVxGw2gFsAAAAAAAWkAAAD8/AD8AAIAAAAAAADwvwIB3gIJip8SQAKOdXEbDaAWwAAAAAAkFAwEAAAAAAAAEBQICAAAAAAABAgEAAAAAAAAABAEAAAAAAAADAQICAAAAAAACAAICAAAAAAABBgEAAAAAAAAGBwEAAAAAAAAICQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIATHR0dPT09PT+vYCUjHR9gfx8dPR9gf68fnR9gf0pHA9Ctej4L/0MzMzMzMz0z/18frxAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000013R0806750546S00000008P00840LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAigYAAAA/PwA/AACAAAAAAAA8L8CQDVeuklMFEACeAskKH6MFcAAAAAAGAAAAPz8APwAAgAAAAAAAPC/AqabxCCwchhAAiRKe4MvjBXAAAAAABgAAAD8/AD8AAIAAAAAAADwvwL/If32dWAWQAJhw9MrZVkUwAAAAAAYAAAA/PwA/AACAAAAAAAA8L8CppvEILByGEACwoanV8ryF8AAAAAAGAAAAPz8APwAAgAAAAAAAPC/AkA1XrpJTBRAAr5SliGO9RfAAAAAABgAAAD8/AD8AAIAAAAAAADwvwJvEoPAymEWQAJoImx4eiUZwAAAAAAgAAAA/PwA/AACAAAAAAAA8L8CvAUSFD+GGkACRdjw9EpZFMAAAAAAAWkAAAD8/AD8AAIAAAAAAADwvwLvWkI+6JkcQAIkSnuDL4wVwAAAAAAYAAAA/PwA/AACAAAAAAAA8L8CAAAAAABAFkACjnVxGw2gFsAAAAAAAWkAAAD8/AD8AAIAAAAAAADwvwIB3gIJip8SQAKOdXEbDaAWwAAAAAAkFAwEAAAAAAAAEBQICAAAAAAABAgEAAAAAAAAABAEAAAAAAAADAQICAAAAAAACAAICAAAAAAABBgEAAAAAAAAGBwEAAAAAAAAICQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIATHR0dPT09PT+vYCUjHR9gfx8dPR9gf68fnR9gf0pHA9Ctej4L/0MzMzMzMz0z/18frxAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -748,7 +748,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000014R0592984813S00000010P00704LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CdnEbDeCNJ0ACvJaQD3o2I8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqmkTkAToSlAAhE2PL1SNiPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLV52or9pcoQAKwcmiR7ZwiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CqaROQBOhKUACYVRSJ6BpJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnZxGw3gjSdAAl66SQwCayTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIN4C2QoJgoQAI0orQ3+AIlwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CtFn1udqqKkACIv32deCcIsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AtZW7C+7hyhAAsdLN4lBwCPAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8C1sVtNIC3JkACx0s3iUHAI8AAAAAAIBQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAQYBAAAAAAAABwgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000014R0806750546S00000010P00704LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CdnEbDeCNJ0ACvJaQD3o2I8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqmkTkAToSlAAhE2PL1SNiPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLV52or9pcoQAKwcmiR7ZwiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CqaROQBOhKUACYVRSJ6BpJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnZxGw3gjSdAAl66SQwCayTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIN4C2QoJgoQAI0orQ3+AIlwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CtFn1udqqKkACIv32deCcIsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AtZW7C+7hyhAAsdLN4lBwCPAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8C1sVtNIC3JkACx0s3iUHAI8AAAAAAIBQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAQYBAAAAAAAABwgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -761,7 +761,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000015R0592984813S00000011P00900LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CPZtVn6vNJ0ACejarPle7I8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap0Rpb3B1yhAAuCcEaW9ISPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEpQAJ6Nqs+V7sjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMrhKUACrWnecYruJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap0Rpb3B1yhAAkcDeAskiCXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI9m1Wfq80nQAKtad5xiu4kwAAAAAABEAAAAPwEAPwAAgAAAAAAAPC/AkATYcPT6ypAAuCcEaW9ISPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKneccpOlIqQAIPnDOitBciwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CEhQ/xtz1K0ACRwN4CySIIsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AraEfNCz2ShAAhZqTfOOUyTAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CSZ2AJsLmJkACFmpN845TJMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Atqs+lxthStAArKd76fGKyTAAAAAACwEAAgIBAQAAAAIBAQABAQAAAAMCAgIBAQAAAAQDAQABAQAAAAUEAgIBAQAAAAAFAQABAQAAAAIGAQAAAAAAAAYHAgAAAAAAAAYIAgAAAAAAAAkKAQAAAAAAAAYLAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000015R0806750546S00000011P00900LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CPZtVn6vNJ0ACejarPle7I8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap0Rpb3B1yhAAuCcEaW9ISPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEpQAJ6Nqs+V7sjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMrhKUACrWnecYruJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap0Rpb3B1yhAAkcDeAskiCXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI9m1Wfq80nQAKtad5xiu4kwAAAAAABEAAAAPwEAPwAAgAAAAAAAPC/AkATYcPT6ypAAuCcEaW9ISPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKneccpOlIqQAIPnDOitBciwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CEhQ/xtz1K0ACRwN4CySIIsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AraEfNCz2ShAAhZqTfOOUyTAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CSZ2AJsLmJkACFmpN845TJMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Atqs+lxthStAArKd76fGKyTAAAAAACwEAAgIBAQAAAAIBAQABAQAAAAMCAgIBAQAAAAQDAQABAQAAAAUEAgIBAQAAAAAFAQABAQAAAAIGAQAAAAAAAAYHAgAAAAAAAAYIAgAAAAAAAAkKAQAAAAAAAAYLAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -774,7 +774,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000016R0592984813S00000012P00880LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiwYAAAA/AgA/AACAAAAAAAA8L8Cke18PzV+J0AC2IFzRpQWI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsUgsHJokSlAAi0hH/RsFiPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLxY8xdS4goQALMXUvIB30iwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CxSCwcmiRKUACfT81XrpJJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApHtfD81fidAAnqlLEMcSyTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIpXI/C9YgoQAJQjZduEuMkwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C0NVW7C+bKkACPujZrPp8IsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/ArmNBvAWiChAAuM2GsBboCPAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CuY0G8BaoJkAC4zYawFugI8AAAAAAGAAAAPwMAPwAAgAAAAAAAPC/AmkAb4EEpStAAi0hH/RsFiPAAAAAABwAAAD8DAD8AAIAAAAAAADwvwICK4cW2a4sQAKrz9VW7K8jwAAAAAAoFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAHCAEAAAAAAAAJCgMAAAAAAAAGCQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIAR/R0dPT09PT+vYCQ072AvYJ9grx8dPR9gn68fjx8frxAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000016R0806750546S00000012P00880LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiwYAAAA/AgA/AACAAAAAAAA8L8Cke18PzV+J0AC2IFzRpQWI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsUgsHJokSlAAi0hH/RsFiPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLxY8xdS4goQALMXUvIB30iwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CxSCwcmiRKUACfT81XrpJJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApHtfD81fidAAnqlLEMcSyTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIpXI/C9YgoQAJQjZduEuMkwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C0NVW7C+bKkACPujZrPp8IsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/ArmNBvAWiChAAuM2GsBboCPAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CuY0G8BaoJkAC4zYawFugI8AAAAAAGAAAAPwMAPwAAgAAAAAAAPC/AmkAb4EEpStAAi0hH/RsFiPAAAAAABwAAAD8DAD8AAIAAAAAAADwvwICK4cW2a4sQAKrz9VW7K8jwAAAAAAoFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAHCAEAAAAAAAAJCgMAAAAAAAAGCQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIAR/R0dPT09PT+vYCQ072AvYJ9grx8dPR9gn68fjx8frxAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -787,7 +787,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000017R0592984813S00000013P01028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8Csb/snjysE0AC8BZIUPyYD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWj0hdAAkaU9gZfmA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaMAVQALChqdXyjINwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaPSF0ACwoanV8oyEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J48rBNAAr1SliGONRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLgnBGlvcEVQAJoImx4emUTwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CSnuDL0zmGUACirDh6ZUyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmDl0CLb+RtAAkaU9gZfmA/AAAAAACAAAAD8BAD8AAIAAAAAAADwvwKTOgFNhA0eQAKKsOHplTINwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CYOXQItv5G0AC/Bhz1xIyEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuPHmLuWECBAAkaU9gZfmA/AAAAAABgAAAD8BAD8AAIAAAAAAADwvwLufD81XhohQAKKsOHplTINwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CjnVxGw2gFUACjnVxGw3gEMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEASQAKOdXEbDeAQwAAAAAA0FAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAGBwEAAAAAAAAHCAEAAAAAAAAHCQIAAAAAAAAICgEAAAAAAAAKCwEAAAAAAAAMDQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00004C0000017R0806750546S00000013P01028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8Csb/snjysE0AC8BZIUPyYD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWj0hdAAkaU9gZfmA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaMAVQALChqdXyjINwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaPSF0ACwoanV8oyEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J48rBNAAr1SliGONRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLgnBGlvcEVQAJoImx4emUTwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CSnuDL0zmGUACirDh6ZUyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmDl0CLb+RtAAkaU9gZfmA/AAAAAACAAAAD8BAD8AAIAAAAAAADwvwKTOgFNhA0eQAKKsOHplTINwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CYOXQItv5G0AC/Bhz1xIyEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuPHmLuWECBAAkaU9gZfmA/AAAAAABgAAAD8BAD8AAIAAAAAAADwvwLufD81XhohQAKKsOHplTINwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CjnVxGw2gFUACjnVxGw3gEMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEASQAKOdXEbDeAQwAAAAAA0FAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAGBwEAAAAAAAAHCAEAAAAAAAAHCQIAAAAAAAAICgEAAAAAAAAKCwEAAAAAAAAMDQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -800,7 +800,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000018R0592984813S00000014P01036LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjQYAAAA/AgA/AACAAAAAAAA8L8C5BQdyeU/F0AC4L4OnDOiE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSVBlAAqyL22gAbxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJHA3gLJGgbQALgvg6cM6ITwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CRwN4CyRoG0ACRiV1ApoIFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSVBlAAnlYqDXNOxfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLkFB3J5T8XQAJGJXUCmggWwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C6gQ0ETZ8HUACrIvbaABvEsAAAAAAARAAAAD8BAD8AAIAAAAAAADwvwKOBvAWSJAfQALgvg6cM6ITwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AuCcEaW9YSBAAjy9UpYhjhHAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIZBFYOLdIgQAIT8kHPZtUUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CW9O84xRdHkACg8DKoUW2FcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ar7BFyZTBRlAAm40gLdAwhTAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CV1uxv+xeFUACbjSAt0DCFMAAAAAAMAQACAgEBAAAAAgEBAAEBAAAAAwICAgEBAAAABAMBAAEBAAAABQQCAgEBAAAAAAUBAAEBAAAAAgYBAAAAAAAABgcBAAAAAAAABwgBAAAAAAAABwkCAAAAAAAABwoCAAAAAAAACwwBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAECAEx0dHT09PT0/r2AlIx0fYI8fHT0fYI+vH50fYI9DMzMzMzM9O/9KRwPQrXo+C/9fH68QAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000018R0806750546S00000014P01036LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjQYAAAA/AgA/AACAAAAAAAA8L8C5BQdyeU/F0AC4L4OnDOiE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSVBlAAqyL22gAbxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJHA3gLJGgbQALgvg6cM6ITwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CRwN4CyRoG0ACRiV1ApoIFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSVBlAAnlYqDXNOxfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLkFB3J5T8XQAJGJXUCmggWwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C6gQ0ETZ8HUACrIvbaABvEsAAAAAAARAAAAD8BAD8AAIAAAAAAADwvwKOBvAWSJAfQALgvg6cM6ITwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AuCcEaW9YSBAAjy9UpYhjhHAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIZBFYOLdIgQAIT8kHPZtUUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CW9O84xRdHkACg8DKoUW2FcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ar7BFyZTBRlAAm40gLdAwhTAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CV1uxv+xeFUACbjSAt0DCFMAAAAAAMAQACAgEBAAAAAgEBAAEBAAAAAwICAgEBAAAABAMBAAEBAAAABQQCAgEBAAAAAAUBAAEBAAAAAgYBAAAAAAAABgcBAAAAAAAABwgBAAAAAAAABwkCAAAAAAAABwoCAAAAAAAACwwBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAECAEx0dHT09PT0/r2AlIx0fYI8fHT0fYI+vH50fYI9DMzMzMzM9O/9KRwPQrXo+C/9fH68QAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -823,7 +823,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000008R0592984828S00000002P01040LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8Cf2q8dJMYBkAC8BZIUPyYB8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akw3iUFgZQ5AAkaU9gZfmAfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL+Q/rt60AKQALChqdXyjIFwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CTDeJQWBlDkAChA1Pr5RlDMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTGAZAAnqlLEMcawzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLdJAaBlUMKQALQRNjw9MoOwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CvAUSFD9GEUACirDh6ZUyBcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/At0kBoGVQwpAAkHxY8xdyxHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwK8BRIUP0YRQAJB8WPMXcsOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C7lpCPuhZE0AChA1Pr5RlDMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRbRVAAkHxY8xdyw7AAAAAACAAAAD8CAD8AAIAAAAAAADwvwLuWkI+6FkTQALSb18HzpkHwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CIbByaJFtFUACescpOpLLEcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AjcawFsggRdAAoQNT6+UZQzAAAAAADgUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAEGAQAAAAAAAAUHAQAAAAAAAAMIAQAAAAAAAAgJAQAAAAAAAAkKAQAAAAAAAAkLAgAAAAAAAAoMAgAAAAAAAAoNAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000008R0806750562S00000002P01040LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8Cf2q8dJMYBkAC8BZIUPyYB8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akw3iUFgZQ5AAkaU9gZfmAfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL+Q/rt60AKQALChqdXyjIFwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CTDeJQWBlDkAChA1Pr5RlDMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTGAZAAnqlLEMcawzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLdJAaBlUMKQALQRNjw9MoOwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CvAUSFD9GEUACirDh6ZUyBcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/At0kBoGVQwpAAkHxY8xdyxHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwK8BRIUP0YRQAJB8WPMXcsOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C7lpCPuhZE0AChA1Pr5RlDMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRbRVAAkHxY8xdyw7AAAAAACAAAAD8CAD8AAIAAAAAAADwvwLuWkI+6FkTQALSb18HzpkHwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CIbByaJFtFUACescpOpLLEcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AjcawFsggRdAAoQNT6+UZQzAAAAAADgUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAEGAQAAAAAAAAUHAQAAAAAAAAMIAQAAAAAAAAgJAQAAAAAAAAkKAQAAAAAAAAkLAgAAAAAAAAoMAgAAAAAAAAoNAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -836,7 +836,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000009R0592984828S00000003P02136LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEeIAAAAPwEAPwAAgAAAAAAAPC/AvvL7snDQhZAAgXFjzF37RjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIqqRPQRBgUQAIWak3zjhMawAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+4aEkAC+n5qvHTTGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXQItv5/g9AAigPC7Wm+RnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLl0CLb+f4PQAJWn6ut2F8cwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CsHJoke38EUACcoqO5PKfHcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArByaJHt/BFAAlCNl24SAyDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIqqRPQRBgUQAJg5dAi23kcwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CorQ3+MIkFkACYOXQItu5HcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjnWxW00QBhAAk9AE2HDkxzAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI51sVtNEAYQAIhsHJokS0awAAAAAAYAAAA/AgA/AACAAAAAAAA8L8ClPYGX5hMGkACayv2l93THcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvvL7snDQhZAAtc07zhFhxbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLRkVz+Q/oTQALeAgmKH6MgwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C9bnaiv3lC0ACCyQofoy5GMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgFNhA1PrwdAAh3J5T+k3xnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIrGJXUCWgcQAJZhjjWxa0cwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8ClPYGX5hMGkACzF1LyAcdIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoY41sVtdB5AAnZxGw3g7R3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIOLbKd70cgQAJkzF1LyMccwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CLbKd76dGIUACgLdAguIHHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ai2yne+nRiFAAtejcD0KNyDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJiodY07zggQAJgdk8eFsogwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8ChjjWxW10HkAC0gDeAgkqIMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ag4tsp3vRyBAAhpR2ht8YRrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLfT42XbpIeQAIaUdobfCEZwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C0gDeAglKHEACW9O84xS9IMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AtIA3gIJShxAAgCRfvs68CHAAAAAACAAAAD8BAD8AAIAAAAAAADwvwJbQj7o2UwiQAJlGeJYF9cgwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CJlMFo5JaI0AC3EYDeAtEIMAAAAAAAR8ABAQAAAAAAAAECAgMBAQAAAAIDAQABAQAAAAMEAgIBAQAAAAQFAQABAQAAAAUGAQAAAAAAAAUHAgIBAQAAAAcBAQABAQAAAAcIAQAAAAAAAAgJAQAAAAAAAAkKAgAAAAAAAAkLAQAAAAAAAAAMAQAAAAAAAAYNAQAAAAAAAAMOAQAAAAAAAA4PAQAAAAAAAAsARAEAAAAAAAALAERCAAAAAAAAAEQARIEAAAAAAAAARQBEwQABAQAAAABFQEUCAgEBAAAAAEWARUEAAQEAAAAARcBFggIBAQAAAABEwESCAwEBAAAAAESARcEAAQEAAAAARMBGAQAAAAAAAABGAEZBAAAAAAAAAEXARoEAAAAAAAAARoBGwQAAAAAAAABFQEcBAAAAAAAAAEcAR0EAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000009R0806750562S00000003P02136LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEeIAAAAPwEAPwAAgAAAAAAAPC/AvvL7snDQhZAAgXFjzF37RjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIqqRPQRBgUQAIWak3zjhMawAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+4aEkAC+n5qvHTTGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXQItv5/g9AAigPC7Wm+RnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLl0CLb+f4PQAJWn6ut2F8cwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CsHJoke38EUACcoqO5PKfHcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArByaJHt/BFAAlCNl24SAyDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIqqRPQRBgUQAJg5dAi23kcwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CorQ3+MIkFkACYOXQItu5HcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjnWxW00QBhAAk9AE2HDkxzAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI51sVtNEAYQAIhsHJokS0awAAAAAAYAAAA/AgA/AACAAAAAAAA8L8ClPYGX5hMGkACayv2l93THcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvvL7snDQhZAAtc07zhFhxbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLRkVz+Q/oTQALeAgmKH6MgwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C9bnaiv3lC0ACCyQofoy5GMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgFNhA1PrwdAAh3J5T+k3xnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIrGJXUCWgcQAJZhjjWxa0cwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8ClPYGX5hMGkACzF1LyAcdIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoY41sVtdB5AAnZxGw3g7R3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIOLbKd70cgQAJkzF1LyMccwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CLbKd76dGIUACgLdAguIHHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ai2yne+nRiFAAtejcD0KNyDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJiodY07zggQAJgdk8eFsogwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8ChjjWxW10HkAC0gDeAgkqIMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ag4tsp3vRyBAAhpR2ht8YRrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLfT42XbpIeQAIaUdobfCEZwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C0gDeAglKHEACW9O84xS9IMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AtIA3gIJShxAAgCRfvs68CHAAAAAACAAAAD8BAD8AAIAAAAAAADwvwJbQj7o2UwiQAJlGeJYF9cgwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CJlMFo5JaI0AC3EYDeAtEIMAAAAAAAR8ABAQAAAAAAAAECAgMBAQAAAAIDAQABAQAAAAMEAgIBAQAAAAQFAQABAQAAAAUGAQAAAAAAAAUHAgIBAQAAAAcBAQABAQAAAAcIAQAAAAAAAAgJAQAAAAAAAAkKAgAAAAAAAAkLAQAAAAAAAAAMAQAAAAAAAAYNAQAAAAAAAAMOAQAAAAAAAA4PAQAAAAAAAAsARAEAAAAAAAALAERCAAAAAAAAAEQARIEAAAAAAAAARQBEwQABAQAAAABFQEUCAgEBAAAAAEWARUEAAQEAAAAARcBFggIBAQAAAABEwESCAwEBAAAAAESARcEAAQEAAAAARMBGAQAAAAAAAABGAEZBAAAAAAAAAEXARoEAAAAAAAAARoBGwQAAAAAAAABFQEcBAAAAAAAAAEcAR0EAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -849,7 +849,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000010R0592984828S00000004P02300LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEgGAAAAPwIAPwAAgAAAAAAAPC/Ahb7y+7JAyJAAjeJQWDl0BfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJE+u3rwPkgQAIEVg4tsp0WwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CeAskKH6MF0AC/Knx0k2iEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtUJaCJseBVAApHtfD813g7AAAAAABgAAAD8BAD8AAIAAAAAAADwvwLjx5i7llARQALr4jYawNsOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CMQisHFpkE0AC/Knx0k2iEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjEIrBxaZBNAAmIQWDm0CBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKBBMWPMXcVQAJtVn2utqIWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1QloImx4FUAClkOLbOc7FMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApT2Bl+YjBdAAmIQWDm0CBPAAAAAABwAAAD8CAD8AAIAAAAAAADwvwI2PL1SlqEZQAKX/5B++zoUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8ChjjWxW20G0AC/yH99nWgEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ar1SliGOtRtAAmaIY13cBhPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJ6xyk6kssdQAIB3gIJip8WwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CX5hMFYzKHUACmnecoiM5FMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AuauJeSD3h9AAmkAb4EEBRPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJE+u3rwPkgQAKe76fGSzcUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cv30dOGcEIkACr5RliGOdEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ahb7y+7JAyJAAmq8dJMYBBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLn+6nx0g0jQAKe76fGSzcUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5/up8dINI0ACBFYOLbKdFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ag+cM6K0FyRAAoqO5PIf0hfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIHzhlR2vsgQAIK16NwPQoKwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+76IEACw2SqYFTSDsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhKlvcEXBiJAAoNRSZ2ApgfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLkg57Nqg8jQAL4wmSqYNQOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CrWnecYoOI0ACKH6MuWsJCsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvFjzF1LiBdAAnsUrkfhOhrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLu68A5I4oXQAKfzarP1dYXwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3bWEfNBzFUACW0I+6NlsG8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ajj4wmSqYBNAAoSezarP1RfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKlLEMc62ITQALswDkjSjsawAAAAAABIwABFAQABAQAAAAEAAgIBAQAAAABEAQEAAQEAAAACCQEAAQEAAAADAgICAQEAAAAFAwEAAQEAAAAFBAEAAAAAAAAGBQICAQEAAAAIBgEAAQEAAAAIBwEAAAAAAAAJCAICAQEAAAAKCQEAAAAAAAAMCgEAAAAAAAAMCwIAAAAAAAAODAEAAAAAAAAODQIAAAAAAAAPDgEAAAAAAAAARA8BAAAAAAAAAESARAIDAQEAAAAARIBEQQAAAAAAAABEwESBAAEBAAAAAEUARMICAQEAAAAARUBFAQAAAAAAAABGgEYBAAEBAAAAAEZARoICAQEAAAAARYBFwQABAQAAAABGAEWCAgEBAAAAAEXAREIDAQEAAAAAREBGQQABAQAAAABHwEdBAAEBAAAAAEeAR8ICAQEAAAAARsBHAQABAQAAAABHQEbCAgEBAAAAAEcHAgMBAQAAAAcAR4EAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000010R0806750562S00000004P02300LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEgGAAAAPwIAPwAAgAAAAAAAPC/Ahb7y+7JAyJAAjeJQWDl0BfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJE+u3rwPkgQAIEVg4tsp0WwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CeAskKH6MF0AC/Knx0k2iEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtUJaCJseBVAApHtfD813g7AAAAAABgAAAD8BAD8AAIAAAAAAADwvwLjx5i7llARQALr4jYawNsOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CMQisHFpkE0AC/Knx0k2iEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjEIrBxaZBNAAmIQWDm0CBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKBBMWPMXcVQAJtVn2utqIWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1QloImx4FUAClkOLbOc7FMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApT2Bl+YjBdAAmIQWDm0CBPAAAAAABwAAAD8CAD8AAIAAAAAAADwvwI2PL1SlqEZQAKX/5B++zoUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8ChjjWxW20G0AC/yH99nWgEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ar1SliGOtRtAAmaIY13cBhPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJ6xyk6kssdQAIB3gIJip8WwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CX5hMFYzKHUACmnecoiM5FMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AuauJeSD3h9AAmkAb4EEBRPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJE+u3rwPkgQAKe76fGSzcUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cv30dOGcEIkACr5RliGOdEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ahb7y+7JAyJAAmq8dJMYBBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLn+6nx0g0jQAKe76fGSzcUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5/up8dINI0ACBFYOLbKdFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ag+cM6K0FyRAAoqO5PIf0hfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIHzhlR2vsgQAIK16NwPQoKwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+76IEACw2SqYFTSDsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhKlvcEXBiJAAoNRSZ2ApgfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLkg57Nqg8jQAL4wmSqYNQOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CrWnecYoOI0ACKH6MuWsJCsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvFjzF1LiBdAAnsUrkfhOhrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLu68A5I4oXQAKfzarP1dYXwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3bWEfNBzFUACW0I+6NlsG8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ajj4wmSqYBNAAoSezarP1RfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKlLEMc62ITQALswDkjSjsawAAAAAABIwABFAQABAQAAAAEAAgIBAQAAAABEAQEAAQEAAAACCQEAAQEAAAADAgICAQEAAAAFAwEAAQEAAAAFBAEAAAAAAAAGBQICAQEAAAAIBgEAAQEAAAAIBwEAAAAAAAAJCAICAQEAAAAKCQEAAAAAAAAMCgEAAAAAAAAMCwIAAAAAAAAODAEAAAAAAAAODQIAAAAAAAAPDgEAAAAAAAAARA8BAAAAAAAAAESARAIDAQEAAAAARIBEQQAAAAAAAABEwESBAAEBAAAAAEUARMICAQEAAAAARUBFAQAAAAAAAABGgEYBAAEBAAAAAEZARoICAQEAAAAARYBFwQABAQAAAABGAEWCAgEBAAAAAEXAREIDAQEAAAAAREBGQQABAQAAAABHwEdBAAEBAAAAAEeAR8ICAQEAAAAARsBHAQABAQAAAABHQEbCAgEBAAAAAEcHAgMBAQAAAAcAR4EAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -862,7 +862,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000011R0592984828S00000005P02164LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEeGAAAAPwIAPwAAgAAAAAAAPC/AjeJQWDl8CJAAtV46SYxyB7AAAAAABgAAAD8CAD8AAIAAAAAAADwvwL7XG3F/vIiQAIsZRniWJcgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C0gDeAgnqIUACNBE2PL0yIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXQItv53iBAApf/kH77miDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKUh4Va09wgQALImLuWkM8ewAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CS1mGONblIUACm1Wfq62YHcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnZPHhZq7SJAArIubqMB/BnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKHp1fKMuQhQALgLZCg+DEbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CdQKaCBseE0ACD5wzorR3FsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Au5aQj7oGRNAAqg1zTtOERTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJd/kP67SsVQAKY3ZOHhdoSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUkmdgCZCF0AC0gDeAgkKFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Atjw9EpZRhdAAjhnRGlvcBbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJqTfOOUzQVQAJlqmBUUqcXwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8rBQa5o3FUACINJvXwcOGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhNhw9MrJRNAAk7RkVz+QxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKcxCCwcigTQAK1N/jCZKodwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CA3gLJCg+FUAC0LNZ9bnaHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuPHmLuWUBdAAqK0N/jCpB3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ2Tx4Wak0XQAI8TtGRXD4bwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CVOOlm8RgGUAC8KfGSzcJGsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AvH0SlmGeBtAAoy5awn5oB3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKDwMqhRXYbQAIKaCJseDobwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CDwu1pnmHHUACdEaU9gafF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An0/NV66iR1AAtqs+lxtBRrAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKsHFpkO58fQAIQWDm0yDYbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C001iEFjZIEACxLEubqMBGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ag+cM6K01yBAAl5LyAc9mxfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL+Q/rt6+AhQAITYcPTK2UWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Csp3vp8brIkACS8gHPZuVF8AAAAAAASEAFAQABAQAAAAEAAgIBAQAAAAIBAQABAQAAAAMCAgIBAQAAAAQDAQABAQAAAAUEAgIBAQAAAAcFAQAAAAAAAAYAR0EAAQEAAAAHBgIDAQEAAAAARocBAAEBAAAACA0BAAEBAAAACQgCAgEBAAAACgkBAAEBAAAACwoCAgEBAAAADAsBAAEBAAAADQwCAgEBAAAADg0BAAAAAAAADgBEwQABAQAAAA8OAgMBAQAAAABEDwEAAQEAAAAAREBEAgIBAQAAAABEgERBAAEBAAAAAETARIICAQEAAAAARQBEwQAAAAAAAABFgEUBAAAAAAAAAEWARUIAAAAAAAAARgBFgQAAAAAAAABGAEXCAAAAAAAAAEZARgEAAAAAAAAARoBGQQAAAAAAAABGwEaCAgEBAAAAAEcARsEAAQEAAAAAR0BHAgIBAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000011R0806750562S00000005P02164LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEeGAAAAPwIAPwAAgAAAAAAAPC/AjeJQWDl8CJAAtV46SYxyB7AAAAAABgAAAD8CAD8AAIAAAAAAADwvwL7XG3F/vIiQAIsZRniWJcgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C0gDeAgnqIUACNBE2PL0yIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXQItv53iBAApf/kH77miDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKUh4Va09wgQALImLuWkM8ewAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CS1mGONblIUACm1Wfq62YHcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnZPHhZq7SJAArIubqMB/BnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKHp1fKMuQhQALgLZCg+DEbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CdQKaCBseE0ACD5wzorR3FsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Au5aQj7oGRNAAqg1zTtOERTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJd/kP67SsVQAKY3ZOHhdoSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUkmdgCZCF0AC0gDeAgkKFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Atjw9EpZRhdAAjhnRGlvcBbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJqTfOOUzQVQAJlqmBUUqcXwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8rBQa5o3FUACINJvXwcOGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhNhw9MrJRNAAk7RkVz+QxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKcxCCwcigTQAK1N/jCZKodwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CA3gLJCg+FUAC0LNZ9bnaHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuPHmLuWUBdAAqK0N/jCpB3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ2Tx4Wak0XQAI8TtGRXD4bwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CVOOlm8RgGUAC8KfGSzcJGsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AvH0SlmGeBtAAoy5awn5oB3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKDwMqhRXYbQAIKaCJseDobwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CDwu1pnmHHUACdEaU9gafF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An0/NV66iR1AAtqs+lxtBRrAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKsHFpkO58fQAIQWDm0yDYbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C001iEFjZIEACxLEubqMBGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ag+cM6K01yBAAl5LyAc9mxfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL+Q/rt6+AhQAITYcPTK2UWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Csp3vp8brIkACS8gHPZuVF8AAAAAAASEAFAQABAQAAAAEAAgIBAQAAAAIBAQABAQAAAAMCAgIBAQAAAAQDAQABAQAAAAUEAgIBAQAAAAcFAQAAAAAAAAYAR0EAAQEAAAAHBgIDAQEAAAAARocBAAEBAAAACA0BAAEBAAAACQgCAgEBAAAACgkBAAEBAAAACwoCAgEBAAAADAsBAAEBAAAADQwCAgEBAAAADg0BAAAAAAAADgBEwQABAQAAAA8OAgMBAQAAAABEDwEAAQEAAAAAREBEAgIBAQAAAABEgERBAAEBAAAAAETARIICAQEAAAAARQBEwQAAAAAAAABFgEUBAAAAAAAAAEWARUIAAAAAAAAARgBFgQAAAAAAAABGAEXCAAAAAAAAAEZARgEAAAAAAAAARoBGQQAAAAAAAABGwEaCAgEBAAAAAEcARsEAAQEAAAAAR0BHAgIBAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -875,7 +875,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000012R0592984828S00000006P01724LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwEAPwAAgAAAAAAAPC/AqTfvg6cMyBAAq+UZYhjnRbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKk374OnDMgQAJqvHSTGAQZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CduCcEaU9IUACnu+nxks3GsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnbgnBGlPSFAAgRWDi2ynRzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKk374OnDMgQAI3iUFg5dAdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cpb3BFyZTHkACBFYOLbKdHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AonS3uALUx5AAp7vp8ZLNxrAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLnjCjtDT4cQAJpAG+BBAUZwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cl5APejYrGkACAd4CCYqfHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmB2Tx4WKhpAApp3nKIjORrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLy0k1iENgRQAJRa5p3nKIcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8tJNYhDYEUAClkOLbOc7GsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApyiI7n8hw9AAmIQWDm0CBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKcoiO5/IcPQAL8qfHSTaIWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8tJNYhDYEUACyXa+nxpvFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApXUCWgi7BNAAvyp8dJNohbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKV1AloIuwTQAJiEFg5tAgZwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CNxrAWyABFkACl/+Qfvs6GsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ar4wmSoYFRhAAmaIY13cBhnAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKjAbwFEhQYQAL/If32daAWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cxyk6ksv/FUACHThnRGlvFcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ag8LtaZ5RyJAAuPHmLuW0B3AAAAAACAAAAD8BAD8AAIAAAAAAADwvwI4+MJkqmALQAIdOGdEaW8VwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cc2iR7Xw/HEAC48eYu5bQHcAAAAAAARkEAAQAAAAAAAAEGAQABAQAAAAIBAgMBAQAAAAMCAQABAQAAAAQDAgIBAQAAAAUEAQABAQAAAAYFAgIBAQAAAAcGAQAAAAAAAAkHAQAAAAAAAAkIAgAAAAAAAABEiQEAAAAAAAALCgEAAAAAAAALAEQBAAEBAAAADAsCAwEBAAAADQwBAAEBAAAADg0CAgEBAAAADw4BAAEBAAAAAEQPAgIBAQAAAABEQEQBAAAAAAAAAESAREEAAAAAAAAARMBEggAAAAAAAA8ARQEAAAAAAAADAEVBAAAAAAAADQBFgQAAAAAAAAUARcEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000012R0806750562S00000006P01724LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwEAPwAAgAAAAAAAPC/AqTfvg6cMyBAAq+UZYhjnRbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKk374OnDMgQAJqvHSTGAQZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CduCcEaU9IUACnu+nxks3GsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnbgnBGlPSFAAgRWDi2ynRzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKk374OnDMgQAI3iUFg5dAdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cpb3BFyZTHkACBFYOLbKdHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AonS3uALUx5AAp7vp8ZLNxrAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLnjCjtDT4cQAJpAG+BBAUZwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cl5APejYrGkACAd4CCYqfHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmB2Tx4WKhpAApp3nKIjORrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLy0k1iENgRQAJRa5p3nKIcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8tJNYhDYEUAClkOLbOc7GsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApyiI7n8hw9AAmIQWDm0CBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKcoiO5/IcPQAL8qfHSTaIWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8tJNYhDYEUACyXa+nxpvFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApXUCWgi7BNAAvyp8dJNohbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKV1AloIuwTQAJiEFg5tAgZwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CNxrAWyABFkACl/+Qfvs6GsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ar4wmSoYFRhAAmaIY13cBhnAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKjAbwFEhQYQAL/If32daAWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cxyk6ksv/FUACHThnRGlvFcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ag8LtaZ5RyJAAuPHmLuW0B3AAAAAACAAAAD8BAD8AAIAAAAAAADwvwI4+MJkqmALQAIdOGdEaW8VwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cc2iR7Xw/HEAC48eYu5bQHcAAAAAAARkEAAQAAAAAAAAEGAQABAQAAAAIBAgMBAQAAAAMCAQABAQAAAAQDAgIBAQAAAAUEAQABAQAAAAYFAgIBAQAAAAcGAQAAAAAAAAkHAQAAAAAAAAkIAgAAAAAAAABEiQEAAAAAAAALCgEAAAAAAAALAEQBAAEBAAAADAsCAwEBAAAADQwBAAEBAAAADg0CAgEBAAAADw4BAAEBAAAAAEQPAgIBAQAAAABEQEQBAAAAAAAAAESAREEAAAAAAAAARMBEggAAAAAAAA8ARQEAAAAAAAADAEVBAAAAAAAADQBFgQAAAAAAAAUARcEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -888,7 +888,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000013R0592984828S00000007P01592LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEWGAAAAPwEAPwAAgAAAAAAAPC/AuXQItv5fhRAAh4Wak3zDhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLo2az6XG0SQALdJAaBlUMWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cn82qz9VWEEACNs07TtERFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArpJDAIrhwxAAvXb14FzRhbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK6SQwCK4cMQAI/V1uxv6wYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJzEIrBxaEEACApoIG57eGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AicxCKwcWhBAAmkAb4EERRzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLo2az6XG0SQAJEi2zn+6kYwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CbjSAt0CCFEAC6+I2GsDbGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ai/dJAaBlRZAAizUmuYdpxjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIv3SQGgZUWQALGbTSAt0AWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C0SLb+X6qGEAC1CtlGeLYGcAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AtEi2/l+qhhAAjqSy39IPxzAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKSy39Iv70aQAIVHcnlP6QYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3NeBc0bUHEACvHSTGATWGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtnO91Pj5R5AAv5l9+RhoRjAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLZzvdT4+UeQAKX/5B++zoWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cr5RliGN9IEACpb3BFybTGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aq+UZYhjfSBAAgskKH6MORzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJhMlUwKukeQALKMsSxLm4dwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3NeBc0bUHEACI9v5fmo8HMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ahsv3SQGwRpAAuLplbIMcR3AAAAAAAEXAAQEAAAAAAAABAgIDAQEAAAACAwEAAQEAAAADBAICAQEAAAAEBQEAAQEAAAAFBgEAAAAAAAAFBwICAQEAAAAHAQEAAQEAAAAHCAEAAAAAAAAICQEAAAAAAAAJCgIAAAAAAAAJCwEAAAAAAAALDAIAAAAAAAALDQEAAAAAAAANDgEAAAAAAAAODwICAQEAAAAPAEQBAAAAAAAADwBEQQABAQAAAABEQESCAgEBAAAAAESARMEAAQEAAAAARMBFAgIBAQAAAABFDgEAAQEAAAAARQBFQQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000013R0806750562S00000007P01592LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEWGAAAAPwEAPwAAgAAAAAAAPC/AuXQItv5fhRAAh4Wak3zDhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLo2az6XG0SQALdJAaBlUMWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cn82qz9VWEEACNs07TtERFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArpJDAIrhwxAAvXb14FzRhbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK6SQwCK4cMQAI/V1uxv6wYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJzEIrBxaEEACApoIG57eGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AicxCKwcWhBAAmkAb4EERRzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLo2az6XG0SQAJEi2zn+6kYwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CbjSAt0CCFEAC6+I2GsDbGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ai/dJAaBlRZAAizUmuYdpxjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIv3SQGgZUWQALGbTSAt0AWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C0SLb+X6qGEAC1CtlGeLYGcAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AtEi2/l+qhhAAjqSy39IPxzAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKSy39Iv70aQAIVHcnlP6QYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3NeBc0bUHEACvHSTGATWGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtnO91Pj5R5AAv5l9+RhoRjAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLZzvdT4+UeQAKX/5B++zoWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cr5RliGN9IEACpb3BFybTGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aq+UZYhjfSBAAgskKH6MORzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJhMlUwKukeQALKMsSxLm4dwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3NeBc0bUHEACI9v5fmo8HMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ahsv3SQGwRpAAuLplbIMcR3AAAAAAAEXAAQEAAAAAAAABAgIDAQEAAAACAwEAAQEAAAADBAICAQEAAAAEBQEAAQEAAAAFBgEAAAAAAAAFBwICAQEAAAAHAQEAAQEAAAAHCAEAAAAAAAAICQEAAAAAAAAJCgIAAAAAAAAJCwEAAAAAAAALDAIAAAAAAAALDQEAAAAAAAANDgEAAAAAAAAODwICAQEAAAAPAEQBAAAAAAAADwBEQQABAQAAAABEQESCAgEBAAAAAESARMEAAQEAAAAARMBFAgIBAQAAAABFDgEAAQEAAAAARQBFQQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -901,7 +901,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000014R0592984828S00000008P02300LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEgGAAAAPwIAPwAAgAAAAAAAPC/AgBvgQTFzyBAAg5Pr5RlSBvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLqBDQRNtwhQAIXSFD8GHMcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CFvvL7snjIkAC1sVtNIA3G8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsnlP6Tf3iJAAoxK6gQ00RjAAAAAACAAAAD8BAD8AAIAAAAAAADwvwKTOgFNhM0hQAIc6+I2GkAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C30+Nl27SIUACg1FJnYCmF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArRZ9bnayiBAAsPTK2UZ4hjAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKWQ4ts53sfQAK4HoXrUbgXwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CD5wzorR3HUACQmDl0CJbG8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AltCPujZbB1AAvfkYaHW9BjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLVeOkmMUgbQAK+nxov3WQVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AtTG0ACCRueXinLF8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/Amq8dJMYRBlAAkjhehSuBxnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKYTBWMSioXQAI9LNSa5t0XwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C24r9ZfckFUAC5BQdyeV/G8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkJg5dAiGxVAAn2utmJ/GRnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJuNIC3QAITQAJ0tRX7y+4XwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8fRKWYb4EkACKjqSy3+IFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aiv2l92TBxVAAum3rwPnTBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL/If32dSAXQALysFBrmncVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9UpZhjgWE0AC0NVW7C+7HMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoZa07zj1CJAAjAqqRPQBBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIQWDm0yNYjQAL3deCcEWUQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CVTAqqRPQIkACV1uxv+yeEcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlCNl24S4yRAAsiYu5aQjxHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJuNIC3QOIjQAJUUiegiTAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CKjqSy3/oJEACNe84RUfyE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/At9PjZduEhFAAgXFjzF3LSDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJWn6ut2B8TQAKppE5AEyEfwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CwcqhRbbzDUACOGdEaW8wH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiSX/5B++xBAAqyt2F92jxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJZF7fRAN4NQALLEMe6uM0cwAAAAAABIwAYBAAEBAAAAAQACAgEBAAAAAgEBAAEBAAAAAwICAgEBAAAABQMBAAEBAAAABQQBAAAAAAAABgUCAgEBAAAABwYBAAAAAAAACQcBAAAAAAAACQgCAAAAAAAACwkBAAAAAAAACwoCAAAAAAAADAsBAAAAAAAADQwBAAAAAAAADQBEwQABAQAAAA8NAgIBAQAAAA8OAQAAAAAAAABEDwEAAQEAAAAAREBEAgIBAQAAAABEgERBAAEBAAAAAETARIICAQEAAAAOAEUBAAAAAAAABABFQQAAAAAAAABGgEYBAAEBAAAAAEZARoICAQEAAAAARYBFwQABAQAAAABGAEWCAgEBAAAAAEXARUIDAQEAAAAARUBGQQABAQAAAABHwEdBAAEBAAAAAEeAR8ICAQEAAAAARsBHAQABAQAAAABHQEbCAgEBAAAAAEcARQIDAQEAAAAARQBHgQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000014R0806750562S00000008P02300LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEgGAAAAPwIAPwAAgAAAAAAAPC/AgBvgQTFzyBAAg5Pr5RlSBvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLqBDQRNtwhQAIXSFD8GHMcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CFvvL7snjIkAC1sVtNIA3G8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsnlP6Tf3iJAAoxK6gQ00RjAAAAAACAAAAD8BAD8AAIAAAAAAADwvwKTOgFNhM0hQAIc6+I2GkAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C30+Nl27SIUACg1FJnYCmF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArRZ9bnayiBAAsPTK2UZ4hjAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKWQ4ts53sfQAK4HoXrUbgXwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CD5wzorR3HUACQmDl0CJbG8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AltCPujZbB1AAvfkYaHW9BjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLVeOkmMUgbQAK+nxov3WQVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AtTG0ACCRueXinLF8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/Amq8dJMYRBlAAkjhehSuBxnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKYTBWMSioXQAI9LNSa5t0XwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C24r9ZfckFUAC5BQdyeV/G8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkJg5dAiGxVAAn2utmJ/GRnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJuNIC3QAITQAJ0tRX7y+4XwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8fRKWYb4EkACKjqSy3+IFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aiv2l92TBxVAAum3rwPnTBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL/If32dSAXQALysFBrmncVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9UpZhjgWE0AC0NVW7C+7HMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoZa07zj1CJAAjAqqRPQBBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIQWDm0yNYjQAL3deCcEWUQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CVTAqqRPQIkACV1uxv+yeEcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlCNl24S4yRAAsiYu5aQjxHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJuNIC3QOIjQAJUUiegiTAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CKjqSy3/oJEACNe84RUfyE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/At9PjZduEhFAAgXFjzF3LSDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJWn6ut2B8TQAKppE5AEyEfwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CwcqhRbbzDUACOGdEaW8wH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiSX/5B++xBAAqyt2F92jxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJZF7fRAN4NQALLEMe6uM0cwAAAAAABIwAYBAAEBAAAAAQACAgEBAAAAAgEBAAEBAAAAAwICAgEBAAAABQMBAAEBAAAABQQBAAAAAAAABgUCAgEBAAAABwYBAAAAAAAACQcBAAAAAAAACQgCAAAAAAAACwkBAAAAAAAACwoCAAAAAAAADAsBAAAAAAAADQwBAAAAAAAADQBEwQABAQAAAA8NAgIBAQAAAA8OAQAAAAAAAABEDwEAAQEAAAAAREBEAgIBAQAAAABEgERBAAEBAAAAAETARIICAQEAAAAOAEUBAAAAAAAABABFQQAAAAAAAABGgEYBAAEBAAAAAEZARoICAQEAAAAARYBFwQABAQAAAABGAEWCAgEBAAAAAEXARUIDAQEAAAAARUBGQQABAQAAAABHwEdBAAEBAAAAAEeAR8ICAQEAAAAARsBHAQABAQAAAABHQEbCAgEBAAAAAEcARQIDAQEAAAAARQBHgQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -914,7 +914,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000015R0592984828S00000009P01252LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgERHAAAAPwIAPwAAgAAAAAAAPC/Ao51cRsNIBtAAgAAAAAAwBXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIydy0hHzQdQALNzMzMzIwUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMnctIR80HUAC9P3UeOkmEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkjhehSuRx9AAqs+V1uxvxXAAAAAACAAAAD8BAD8AAIAAAAAAADwvwI9m1Wfq60gQALNzMzMzIwUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CSOF6FK5HH0AChA1Pr5QlGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjDBlAAiKOdXEbjRTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL0/dR46eYUQAJ2Tx4Wao0UwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CDeAtkKD4FkAC5BQdyeW/FcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvT91Hjp5hRAAmWqYFRSJxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJcIEHxYwwZQAJq3nGKjiQSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cnu+nxkv3FkACFNBE2PD0EMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjJ3LSEf9BZAAlFrmnecIg3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIvbqMBvAUZQAK8lpAPerYKwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CjnVxGw0gG0ACzO7Jw0LtEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArhAguLHGBtAAqrx0k1iEA3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwIN4C2QoPgWQAKh+DHmriUYwAAAAAABEgAEBAAAAAAAAAQICAAAAAAAAAQMBAAAAAAAAAwQBAAAAAAAAAwUCAAAAAAAAAAYBAAAAAAAACwkBAAEBAAAACgsCAgEBAAAABwgBAAEBAAAACQcCAgEBAAAACAYCAwEBAAAABgoBAAEBAAAADw0BAAEBAAAADg8CAgEBAAAADQwCAgEBAAAACg4BAAEBAAAACwwBAAEBAAAACABEAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000015R0806750562S00000009P01252LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgERHAAAAPwIAPwAAgAAAAAAAPC/Ao51cRsNIBtAAgAAAAAAwBXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIydy0hHzQdQALNzMzMzIwUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMnctIR80HUAC9P3UeOkmEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkjhehSuRx9AAqs+V1uxvxXAAAAAACAAAAD8BAD8AAIAAAAAAADwvwI9m1Wfq60gQALNzMzMzIwUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CSOF6FK5HH0AChA1Pr5QlGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjDBlAAiKOdXEbjRTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL0/dR46eYUQAJ2Tx4Wao0UwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CDeAtkKD4FkAC5BQdyeW/FcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvT91Hjp5hRAAmWqYFRSJxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJcIEHxYwwZQAJq3nGKjiQSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cnu+nxkv3FkACFNBE2PD0EMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjJ3LSEf9BZAAlFrmnecIg3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIvbqMBvAUZQAK8lpAPerYKwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CjnVxGw0gG0ACzO7Jw0LtEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArhAguLHGBtAAqrx0k1iEA3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwIN4C2QoPgWQAKh+DHmriUYwAAAAAABEgAEBAAAAAAAAAQICAAAAAAAAAQMBAAAAAAAAAwQBAAAAAAAAAwUCAAAAAAAAAAYBAAAAAAAACwkBAAEBAAAACgsCAgEBAAAABwgBAAEBAAAACQcCAgEBAAAACAYCAwEBAAAABgoBAAEBAAAADw0BAAEBAAAADg8CAgEBAAAADQwCAgEBAAAACg4BAAEBAAAACwwBAAEBAAAACABEAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -927,7 +927,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000016R0592984828S00000010P01320LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgESHAAAAPwIAPwAAgAAAAAAAPC/Ao51cRsNYBVAAo51cRsNIBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIydy0hH3QXQAJbQj7o2ewVwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMnctIR90F0ACgnNGlPaGE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkjhehSuhxlAAjm0yHa+HxfAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ6Nqs+V5sbQAJbQj7o2ewVwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CSOF6FK6HGUACEoPAyqGFGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AqyL22gArx1AAjm0yHa+HxfAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJcIEHxY0wTQAKTGARWDu0VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CKcsQx7o4EUACjnVxGw0gF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsP1KFyPwh9AAltCPujZ7BXAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIN4C2QoPgQQAJSSZ2AJoIZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/kP67etADUAC4JwRpb0BGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ano2qz5X2wpAAgMJih9j7hfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLjx5i7lhAOQAJmZmZmZiYWwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cb/CFyVQBIEACe4MvTKaKE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgXFjzF3LSFAAuwvuycPCxPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJmiGNd3MYhQALKw0KtaR4VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCyQofoz5IEACZmZmZmbmFsAAAAAAARMABAQAAAAAAAAECAgAAAAAAAAEDAQAAAAAAAAMEAQAAAAAAAAMFAgAAAAAAAAQGAQAAAAAAAAAHAQAAAAAAAAcIAQAAAAAAAAYJAQAAAAAAAAwNAQABAQAAAAsMAgIBAQAAAAoLAQABAQAAAAoIAQABAQAAAA0IAgMBAQAAAABEAERBAAEBAAAADwBEAgIBAQAAAA4PAQABAQAAAA4JAQABAQAAAABESQIDAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000016R0806750562S00000010P01320LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgESHAAAAPwIAPwAAgAAAAAAAPC/Ao51cRsNYBVAAo51cRsNIBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIydy0hH3QXQAJbQj7o2ewVwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMnctIR90F0ACgnNGlPaGE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkjhehSuhxlAAjm0yHa+HxfAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ6Nqs+V5sbQAJbQj7o2ewVwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CSOF6FK6HGUACEoPAyqGFGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AqyL22gArx1AAjm0yHa+HxfAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJcIEHxY0wTQAKTGARWDu0VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CKcsQx7o4EUACjnVxGw0gF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsP1KFyPwh9AAltCPujZ7BXAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIN4C2QoPgQQAJSSZ2AJoIZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/kP67etADUAC4JwRpb0BGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ano2qz5X2wpAAgMJih9j7hfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLjx5i7lhAOQAJmZmZmZiYWwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cb/CFyVQBIEACe4MvTKaKE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgXFjzF3LSFAAuwvuycPCxPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJmiGNd3MYhQALKw0KtaR4VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCyQofoz5IEACZmZmZmbmFsAAAAAAARMABAQAAAAAAAAECAgAAAAAAAAEDAQAAAAAAAAMEAQAAAAAAAAMFAgAAAAAAAAQGAQAAAAAAAAAHAQAAAAAAAAcIAQAAAAAAAAYJAQAAAAAAAAwNAQABAQAAAAsMAgIBAQAAAAoLAQABAQAAAAoIAQABAQAAAA0IAgMBAQAAAABEAERBAAEBAAAADwBEAgIBAQAAAA4PAQABAQAAAA4JAQABAQAAAABESQIDAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -940,7 +940,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000017R0592984828S00000011P01324LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgESGAAAAPwIAPwAAgAAAAAAAPC/Ag+cM6K0VyFAAn9qvHSTmBXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLD9Shcj4IiQAIK16NwPQoVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUWuad5wiI0ACguLHmLsWF8AAAAAAARAAAAD8BAD8AAIAAAAAAADwvwJCPujZrFoiQAJhMlUwKukYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CpSxDHOtCIUAC1QloImz4F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuoENBE2PCBAAtbFbTSANxnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJb07zjFF0eQALG3LWEfBAYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8C6Gor9pddHEACEhQ/xty1G8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuSDns2qTxxAAuSDns2qTxnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIE54wo7c0TQAKIhVrTvOMbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CuB6F61F4EUAC/Bhz1xJyHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApwzorQ3OBBAAqH4MeauZRrAAAAAAAEQAAAA/AQA/AACAAAAAAAA8L8CuY0G8BbIEUACpb3BFyaTGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjqSy39I/xNAAjqSy39IfxnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKyne+nxgsWQALGbTSAt0AYwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CEOm3rwMnGEAC1lbsL7tnGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoY41sVtNBpAArivA+eMKBjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKDUUmdgCYaQAKKH2PuWsIVwAAAAAABEwAQCAgEBAAAAAQABAAEBAAAAAgECAgEBAAAAAwIBAAEBAAAABAMBAAEBAAAABQQBAAAAAAAABgUBAAAAAAAACAYBAAAAAAAACAcCAAAAAAAAAEQIAQAAAAAAAAkNAgIBAQAAAAoJAQABAQAAAAsKAgIBAQAAAAwLAQABAQAAAA0MAQABAQAAAA4NAQAAAAAAAA8OAQAAAAAAAABEDwEAAAAAAAAAREBEAgAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000017R0806750562S00000011P01324LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgESGAAAAPwIAPwAAgAAAAAAAPC/Ag+cM6K0VyFAAn9qvHSTmBXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLD9Shcj4IiQAIK16NwPQoVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUWuad5wiI0ACguLHmLsWF8AAAAAAARAAAAD8BAD8AAIAAAAAAADwvwJCPujZrFoiQAJhMlUwKukYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CpSxDHOtCIUAC1QloImz4F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuoENBE2PCBAAtbFbTSANxnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJb07zjFF0eQALG3LWEfBAYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8C6Gor9pddHEACEhQ/xty1G8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuSDns2qTxxAAuSDns2qTxnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIE54wo7c0TQAKIhVrTvOMbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CuB6F61F4EUAC/Bhz1xJyHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApwzorQ3OBBAAqH4MeauZRrAAAAAAAEQAAAA/AQA/AACAAAAAAAA8L8CuY0G8BbIEUACpb3BFyaTGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjqSy39I/xNAAjqSy39IfxnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKyne+nxgsWQALGbTSAt0AYwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CEOm3rwMnGEAC1lbsL7tnGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoY41sVtNBpAArivA+eMKBjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKDUUmdgCYaQAKKH2PuWsIVwAAAAAABEwAQCAgEBAAAAAQABAAEBAAAAAgECAgEBAAAAAwIBAAEBAAAABAMBAAEBAAAABQQBAAAAAAAABgUBAAAAAAAACAYBAAAAAAAACAcCAAAAAAAAAEQIAQAAAAAAAAkNAgIBAQAAAAoJAQABAQAAAAsKAgIBAQAAAAwLAQABAQAAAA0MAQABAQAAAA4NAQAAAAAAAA8OAQAAAAAAAABEDwEAAAAAAAAAREBEAgAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -953,7 +953,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000018R0592984828S00073737P01596LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEWGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJTBBAAgaBlUOLLBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsHIUQAKxv+yePCwTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nVgEkAC7zhFR3L5EcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchRAAlD8GHPXkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI/NV66SUwQQAIv3SQGgZUVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMphEkAC9pfdk4fFFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/ArwFEhQ/hhZAAi9uowG8xRbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLuWkI+6JkYQAJQ/Bhz15IVwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CIbByaJGtGkACL26jAbzFFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjcawFsgwRxAAlD8GHPXkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJpb/CFydQeQAIvbqMBvMUWwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CNxrAWyDBHEACdy0hH/QsE8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AsDsnjwsdCBAAlD8GHPXkhXAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJpb/CFydQeQAIIPZtVnysZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CWRe30QB+IUACL26jAbzFFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvJBz2bVhyJAAlD8GHPXkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL99nXgnJEjQAIvbqMBvMUWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CMQisHFqkJUAC2qz6XG3FFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiSX/5B+myRAAm3n+6nxkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIxCKwcWqQlQALsUbgehSsZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/fZ14JyRI0ACyjLEsS4uGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlyPwvUonCRAAj0s1JrmXRrAAAAAAAEXFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAHCAEAAAAAAAAICQEAAAAAAAAJCgEAAAAAAAAJCwIAAAAAAAAKDAEAAAAAAAAKDQIAAAAAAAAMDgEAAAAAAAAODwEAAAAAAAAPAEQBAAAAAAAAAEVARMEAAQEAAAAARQBFQgIBAQAAAABEQESBAAEBAAAAAETAREICAQEAAAAARIBEAgMBAQAAAABEAEUBAAEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00002C0000018R0806750562S00073737P01596LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEWGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJTBBAAgaBlUOLLBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsHIUQAKxv+yePCwTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nVgEkAC7zhFR3L5EcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchRAAlD8GHPXkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI/NV66SUwQQAIv3SQGgZUVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMphEkAC9pfdk4fFFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/ArwFEhQ/hhZAAi9uowG8xRbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLuWkI+6JkYQAJQ/Bhz15IVwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CIbByaJGtGkACL26jAbzFFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjcawFsgwRxAAlD8GHPXkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJpb/CFydQeQAIvbqMBvMUWwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CNxrAWyDBHEACdy0hH/QsE8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AsDsnjwsdCBAAlD8GHPXkhXAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJpb/CFydQeQAIIPZtVnysZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CWRe30QB+IUACL26jAbzFFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvJBz2bVhyJAAlD8GHPXkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL99nXgnJEjQAIvbqMBvMUWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CMQisHFqkJUAC2qz6XG3FFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiSX/5B+myRAAm3n+6nxkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIxCKwcWqQlQALsUbgehSsZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/fZ14JyRI0ACyjLEsS4uGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlyPwvUonCRAAj0s1JrmXRrAAAAAAAEXFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAHCAEAAAAAAAAICQEAAAAAAAAJCgEAAAAAAAAJCwIAAAAAAAAKDAEAAAAAAAAKDQIAAAAAAAAMDgEAAAAAAAAODwEAAAAAAAAPAEQBAAAAAAAAAEVARMEAAQEAAAAARQBFQgIBAQAAAABEQESBAAEBAAAAAETAREICAQEAAAAARIBEAgMBAQAAAABEAEUBAAEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -966,7 +966,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000019R0592984828S00073739P01456LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTGAtAAgwCK4cW2Q3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsLIRQAJjf9k9edgNwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/kP67etAD0AC3nGKjuRyC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwshFAAlD8GHPXUhHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/arx0kxgLQAIv3SQGgVURwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3SQGgZVDD0AC9pfdk4eFEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/ArwFEhQ/xhNAAm3F/rJ7cgvAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLuWkI+6NkVQAJjf9k9edgNwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CIbByaJHtF0ACbcX+sntyC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjcawFsgARpAAmN/2T152A3AAAAAACAAAAD8CAD8AAIAAAAAAADwvwIhsHJoke0XQAL0/dR46aYGwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CaW/whckUHEACbcX+sntyC8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AjcawFsgARpAAoqO5PIfUhHAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJ/2T15WCgeQAJjf9k9edgNwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CWRe30QAeIEACbcX+sntyC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Atc07zhFJyFAAhb7y+7JQwTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ1ApoIGx4gQAK7Jw8LtaYGwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/tR46SYxIkACC7WmecepBsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ailcj8L1KCFAAkJg5dAi2w3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIZ4lgXtzEiQAIdOGdEaW8LwAAAAAABFRQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAQYBAAAAAAAABgcBAAAAAAAABwgBAAAAAAAACAkBAAAAAAAACAoCAAAAAAAACQsBAAAAAAAACQwCAAAAAAAACw0BAAAAAAAADQ4BAAAAAAAAAETAREEAAQEAAAAARIBEwgIBAQAAAA8ARAEAAQEAAAAARE8CAgEBAAAAAEQOAgMBAQAAAA4ARIEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000019R0806750562S00073739P01456LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTGAtAAgwCK4cW2Q3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsLIRQAJjf9k9edgNwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/kP67etAD0AC3nGKjuRyC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwshFAAlD8GHPXUhHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/arx0kxgLQAIv3SQGgVURwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3SQGgZVDD0AC9pfdk4eFEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/ArwFEhQ/xhNAAm3F/rJ7cgvAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLuWkI+6NkVQAJjf9k9edgNwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CIbByaJHtF0ACbcX+sntyC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjcawFsgARpAAmN/2T152A3AAAAAACAAAAD8CAD8AAIAAAAAAADwvwIhsHJoke0XQAL0/dR46aYGwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CaW/whckUHEACbcX+sntyC8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AjcawFsgARpAAoqO5PIfUhHAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJ/2T15WCgeQAJjf9k9edgNwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CWRe30QAeIEACbcX+sntyC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Atc07zhFJyFAAhb7y+7JQwTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ1ApoIGx4gQAK7Jw8LtaYGwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/tR46SYxIkACC7WmecepBsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ailcj8L1KCFAAkJg5dAi2w3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIZ4lgXtzEiQAIdOGdEaW8LwAAAAAABFRQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAQYBAAAAAAAABgcBAAAAAAAABwgBAAAAAAAACAkBAAAAAAAACAoCAAAAAAAACQsBAAAAAAAACQwCAAAAAAAACw0BAAAAAAAADQ4BAAAAAAAAAETAREEAAQEAAAAARIBEwgIBAQAAAA8ARAEAAQEAAAAARE8CAgEBAAAAAEQOAgMBAQAAAA4ARIEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -979,7 +979,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000020R0592984828S00073741P02028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEcGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJDBRAAgaBlUOLLBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsDIYQAKxv+yePCwUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nUgFkAC7zhFR3L5EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwMhhAAlD8GHPXkhbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI/NV66SQwUQAIv3SQGgZUWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMohFkAC9pfdk4fFF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Apm7lpAP+hFAAkT67evA+RLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKZu5aQD/oRQAKlvcEXJpMQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nUgFkACqvHSTWKQEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArRZ9bnaChRAAv5D+u3rwA7AAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8BRIUP0YaQAK3Yn/ZPfkSwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C7lpCPuhZHEACsb/snjwsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRbR5AArdif9k9+RLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIbDeAtkEAgQAKxv+yePCwUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CIbByaJFtHkAC+n5qvHSTEMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/ArU3+MJkSiFAArdif9k9+RLAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIbDeAtkEAgQAKKjuTyH5IWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CwOyePCxUIkACsb/snjwsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlkXt9EAXiNAArdif9k9+RLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLXNO84RWckQAIW+8vuycMOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CdQKaCBteI0AC3pOHhVqTEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Av7UeOkmcSVAAoZa07zjlBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIpXI/C9WgkQAIhsHJokS0UwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGeJYF7dxJUACD5wzorT3EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ano2qz5XeyZAAtcS8kHPJhTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIFNBE2PH0mQAJcIEHxY4wWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CtFn1udpqJEACS8gHPZuVFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Atlfdk8ediVAAv2H9NvXwRfAAAAAAAEfFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAAJBwEAAQEAAAAICQICAQEAAAAHBgICAQEAAAACCAEAAQEAAAAABgEAAQEAAAABCgEAAAAAAAAKCwEAAAAAAAALDAEAAAAAAAAMDQEAAAAAAAAMDgIAAAAAAAANDwEAAAAAAAANAEQCAAAAAAAADwBEQQAAAAAAAABEQESBAAAAAAAAAEXARUEAAQEAAAAARYBFwgIBAQAAAABEwEUBAAEBAAAAAEVARMICAQEAAAAARQBEggMBAQAAAABEgEWBAAEBAAAAAEbARkEAAQEAAAAARoBGwgIBAQAAAABGQEYCAgEBAAAAAEWARoEAAQEAAAAARcBGAQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000020R0806750562S00073741P02028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEcGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJDBRAAgaBlUOLLBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsDIYQAKxv+yePCwUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nUgFkAC7zhFR3L5EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwMhhAAlD8GHPXkhbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI/NV66SQwUQAIv3SQGgZUWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMohFkAC9pfdk4fFF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Apm7lpAP+hFAAkT67evA+RLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKZu5aQD/oRQAKlvcEXJpMQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nUgFkACqvHSTWKQEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArRZ9bnaChRAAv5D+u3rwA7AAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8BRIUP0YaQAK3Yn/ZPfkSwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C7lpCPuhZHEACsb/snjwsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRbR5AArdif9k9+RLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIbDeAtkEAgQAKxv+yePCwUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CIbByaJFtHkAC+n5qvHSTEMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/ArU3+MJkSiFAArdif9k9+RLAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIbDeAtkEAgQAKKjuTyH5IWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CwOyePCxUIkACsb/snjwsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlkXt9EAXiNAArdif9k9+RLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLXNO84RWckQAIW+8vuycMOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CdQKaCBteI0AC3pOHhVqTEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Av7UeOkmcSVAAoZa07zjlBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIpXI/C9WgkQAIhsHJokS0UwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGeJYF7dxJUACD5wzorT3EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ano2qz5XeyZAAtcS8kHPJhTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIFNBE2PH0mQAJcIEHxY4wWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CtFn1udpqJEACS8gHPZuVFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Atlfdk8ediVAAv2H9NvXwRfAAAAAAAEfFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAAJBwEAAQEAAAAICQICAQEAAAAHBgICAQEAAAACCAEAAQEAAAAABgEAAQEAAAABCgEAAAAAAAAKCwEAAAAAAAALDAEAAAAAAAAMDQEAAAAAAAAMDgIAAAAAAAANDwEAAAAAAAANAEQCAAAAAAAADwBEQQAAAAAAAABEQESBAAAAAAAAAEXARUEAAQEAAAAARYBFwgIBAQAAAABEwEUBAAEBAAAAAEVARMICAQEAAAAARQBEggMBAQAAAABEgEWBAAEBAAAAAEbARkEAAQEAAAAARoBGwgIBAQAAAABGQEYCAgEBAAAAAEWARoEAAQEAAAAARcBGAQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -992,7 +992,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000021R0592984828S00000026P01876LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEaGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTmA1AAgwCK4cW2QzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsPISQAJjf9k9edgMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nXgEEAC3nGKjuRyCsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hJAAlD8GHPX0hDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/arx0k5gNQAIv3SQGgdUQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMrhEEAC9pfdk4cFEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AhrAWyBBcQlAAhdIUPwYcwrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEQQAKze/KwUGsUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9+Rhodb0EkACpgpGJXUCGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoV80LNZ9RJAAsrDQq1pnhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKMuWsJ+eAQQAKhZ7PqczUZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CnRGlvcGXDUACHcnlP6SfFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aldbsb/sng1AAoXrUbgeBRjAAAAAABwAAAD8CAD8AAIAAAAAAADwvwK8BRIUPwYVQAIvbqMBvAUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C7lpCPugZF0ACUPwYc9fSEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRLRlAAi9uowG8BRLAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLuWkI+6BkXQALuWkI+6NkMwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CNxrAWyBBG0ACUPwYc9fSEMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRLRlAAgg9m1WfaxTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJpb/CFyVQdQAIvbqMBvAUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cf9k9eVhoH0ACUPwYc9fSEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aj0K16NwvSBAAhBYObTIdgrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK4rwPnjGgfQAK2hHzQs9kMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CZapgVFLHIUACBhIUP8bcDMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApAxdy0hvyBAAp5eKcsQBxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIOLbKd78chQAKMSuoENNEQwAAAAAABHBQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAAYBAAAAAAAABQcBAAAAAAAADAoBAAEBAAAACwwCAgEBAAAACAkBAAEBAAAACggCAgEBAAAACQcCAwEBAAAABwsBAAEBAAAAAw0BAAAAAAAADQ4BAAAAAAAADg8BAAAAAAAADgBEAgAAAAAAAA8AREEAAAAAAAAPAESCAAAAAAAAAERARMEAAAAAAAAARMBFAQAAAAAAAABGQEXBAAEBAAAAAEYARkICAQEAAAAARUBFgQABAQAAAABFwEVCAgEBAAAAAEWARQIDAQEAAAAARQBGAQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000021R0806750562S00000026P01876LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEaGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTmA1AAgwCK4cW2QzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsPISQAJjf9k9edgMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nXgEEAC3nGKjuRyCsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hJAAlD8GHPX0hDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/arx0k5gNQAIv3SQGgdUQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMrhEEAC9pfdk4cFEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AhrAWyBBcQlAAhdIUPwYcwrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEQQAKze/KwUGsUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9+Rhodb0EkACpgpGJXUCGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoV80LNZ9RJAAsrDQq1pnhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKMuWsJ+eAQQAKhZ7PqczUZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CnRGlvcGXDUACHcnlP6SfFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aldbsb/sng1AAoXrUbgeBRjAAAAAABwAAAD8CAD8AAIAAAAAAADwvwK8BRIUPwYVQAIvbqMBvAUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C7lpCPugZF0ACUPwYc9fSEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRLRlAAi9uowG8BRLAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLuWkI+6BkXQALuWkI+6NkMwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CNxrAWyBBG0ACUPwYc9fSEMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRLRlAAgg9m1WfaxTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJpb/CFyVQdQAIvbqMBvAUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cf9k9eVhoH0ACUPwYc9fSEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aj0K16NwvSBAAhBYObTIdgrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK4rwPnjGgfQAK2hHzQs9kMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CZapgVFLHIUACBhIUP8bcDMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApAxdy0hvyBAAp5eKcsQBxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIOLbKd78chQAKMSuoENNEQwAAAAAABHBQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAAYBAAAAAAAABQcBAAAAAAAADAoBAAEBAAAACwwCAgEBAAAACAkBAAEBAAAACggCAgEBAAAACQcCAwEBAAAABwsBAAEBAAAAAw0BAAAAAAAADQ4BAAAAAAAADg8BAAAAAAAADgBEAgAAAAAAAA8AREEAAAAAAAAPAESCAAAAAAAAAERARMEAAAAAAAAARMBFAQAAAAAAAABGQEXBAAEBAAAAAEYARkICAQEAAAAARUBFgQABAQAAAABFwEVCAgEBAAAAAEWARQIDAQEAAAAARQBGAQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -1005,7 +1005,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000022R0592984828S00073727P01812LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEZGAAAAPwIAPwAAgAAAAAAAPC/Arn8h/Tblx5AAv7UeOkm8SHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI2zTtO0VEgQAIijnVxG40iwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CAAAAAABgIUACoImw4en1IcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgAAAAAAYCFAAm1Wfa62wiDAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLPZtXnamsiQALsUbgehSsgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CowG8BRJ0I0ACnYAmwobHIMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSdCNAAtCzWfW5+iHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJzaJHtfH8kQAIcfGEyVTAgwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cc2iR7Xx/JEAC0ZFc/kP6HcAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AkcDeAskiCVAAs6qz9VWzCDAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIWak3zjpMmQAK+MJkqGDUgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6gQ0ETacJ0ACcF8HzhnRIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArprCfmgpyhAAu5aQj7oOSDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKOBvAWSLApQAKgibDh6dUgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CjgbwFkiwKUACRUdy+Q8JIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsPTK2UZoihAAlXBqKROoCLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLqBDQRNpwnQAKjkjoBTQQiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CLGUZ4lhXIEACSZ2AJsImIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Arn8h/Tblx5AAsuhRbbzvSDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIsZRniWFcgQAIs1JrmHecdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9pfdk4dlIUACKcsQx7q4HMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvaX3ZOHZSFAAsNkqmBUUhrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIdyeU/pF8gQAJ88rBQaxoZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CnMQgsHKoHkACf/s6cM5IGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApzEILByqB5AAsl2vp8arxzAAAAAAAEbAAQICAQEAAAABAgEAAQEAAAACAwIDAQEAAAADBAEAAAAAAAAEBQEAAAAAAAAFBgIAAAAAAAAFBwEAAAAAAAAHCAIAAAAAAAAHCQEAAAAAAAAJCgEAAAAAAAAKCwEAAAAAAAALDAIDAQEAAAAMDQEAAQEAAAANDgICAQEAAAAODwEAAQEAAAAPAEQCAgEBAAAAAEQLAQABAQAAAAMAREEAAQEAAAAAREBEggIBAQAAAABEgAEAAQEAAAAAREBEwQAAAAAAAABEwEUCAwEBAAAAAEUARUEAAQEAAAAARUBFggIBAQAAAABFgEXBAAEBAAAAAEXARgICAQEAAAAARgBEwQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000022R0806750562S00073727P01812LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEZGAAAAPwIAPwAAgAAAAAAAPC/Arn8h/Tblx5AAv7UeOkm8SHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI2zTtO0VEgQAIijnVxG40iwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CAAAAAABgIUACoImw4en1IcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgAAAAAAYCFAAm1Wfa62wiDAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLPZtXnamsiQALsUbgehSsgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CowG8BRJ0I0ACnYAmwobHIMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSdCNAAtCzWfW5+iHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJzaJHtfH8kQAIcfGEyVTAgwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cc2iR7Xx/JEAC0ZFc/kP6HcAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AkcDeAskiCVAAs6qz9VWzCDAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIWak3zjpMmQAK+MJkqGDUgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6gQ0ETacJ0ACcF8HzhnRIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArprCfmgpyhAAu5aQj7oOSDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKOBvAWSLApQAKgibDh6dUgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CjgbwFkiwKUACRUdy+Q8JIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsPTK2UZoihAAlXBqKROoCLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLqBDQRNpwnQAKjkjoBTQQiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CLGUZ4lhXIEACSZ2AJsImIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Arn8h/Tblx5AAsuhRbbzvSDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIsZRniWFcgQAIs1JrmHecdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9pfdk4dlIUACKcsQx7q4HMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvaX3ZOHZSFAAsNkqmBUUhrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIdyeU/pF8gQAJ88rBQaxoZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CnMQgsHKoHkACf/s6cM5IGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApzEILByqB5AAsl2vp8arxzAAAAAAAEbAAQICAQEAAAABAgEAAQEAAAACAwIDAQEAAAADBAEAAAAAAAAEBQEAAAAAAAAFBgIAAAAAAAAFBwEAAAAAAAAHCAIAAAAAAAAHCQEAAAAAAAAJCgEAAAAAAAAKCwEAAAAAAAALDAIDAQEAAAAMDQEAAQEAAAANDgICAQEAAAAODwEAAQEAAAAPAEQCAgEBAAAAAEQLAQABAQAAAAMAREEAAQEAAAAAREBEggIBAQAAAABEgAEAAQEAAAAAREBEwQAAAAAAAABEwEUCAwEBAAAAAEUARUEAAQEAAAAARUBFggIBAQAAAABFgEXBAAEBAAAAAEXARgICAQEAAAAARgBEwQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -1018,7 +1018,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000023R0592984828S00073729P01608LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEWGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J48bBlAAgaBlUOLbBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIYJlMFo5IdQAKxv+yePGwQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CcayL22iAG0AC3nGKjuRyDsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjkh1AAlD8GHPX0hLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePGwZQAIv3SQGgdUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C4JwRpb2BG0AC9pfdk4cFFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ak0VjErqhBtAAu/Jw0KtaRbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLecYqO5HIZQAJyio7k8p8XwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8tJNYhBYF0ACIo51cRsNFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsgHPZtVXxdAAqabxCCwchbAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJKe4MvTKYfQAIvbqMBvAUUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CsHJoke3cIEACUPwYc9fSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkmdgCbC5iFAAi9uowG8BRTAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKwcmiR7dwgQAJ3LSEf9GwQwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C48eYu5bwIkACUPwYc9fSEsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AkmdgCbC5iFAAgg9m1WfaxbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLufD81XvojQAIvbqMBvAUUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Ch6dXyjIEJUACUPwYc9fSEsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AhUdyeU/JCVAAnE9CtejcBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIcfGEyVVAmQALD0ytlGeIPwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CfT81XrrpJkACv30dOGcEEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArFQa5p3HCZAAlwgQfFjzBPAAAAAAAEYFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAAJBwEAAQEAAAAICQICAQEAAAAHBgICAQEAAAAECAEAAQEAAAAFBgEAAQEAAAADCgEAAAAAAAAKCwEAAAAAAAALDAEAAAAAAAALDQIAAAAAAAAMDgEAAAAAAAAMDwIAAAAAAAAOAEQBAAAAAAAAAEQAREEAAAAAAAAARQBFQQABAQAAAABEwEUCAgEBAAAAAESARMEAAQEAAAAARIBEQQABAQAAAABFQERCAwEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00002C0000023R0806750562S00073729P01608LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEWGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J48bBlAAgaBlUOLbBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIYJlMFo5IdQAKxv+yePGwQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CcayL22iAG0AC3nGKjuRyDsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjkh1AAlD8GHPX0hLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePGwZQAIv3SQGgdUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C4JwRpb2BG0AC9pfdk4cFFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ak0VjErqhBtAAu/Jw0KtaRbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLecYqO5HIZQAJyio7k8p8XwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8tJNYhBYF0ACIo51cRsNFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsgHPZtVXxdAAqabxCCwchbAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJKe4MvTKYfQAIvbqMBvAUUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CsHJoke3cIEACUPwYc9fSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkmdgCbC5iFAAi9uowG8BRTAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKwcmiR7dwgQAJ3LSEf9GwQwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C48eYu5bwIkACUPwYc9fSEsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AkmdgCbC5iFAAgg9m1WfaxbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLufD81XvojQAIvbqMBvAUUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Ch6dXyjIEJUACUPwYc9fSEsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AhUdyeU/JCVAAnE9CtejcBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIcfGEyVVAmQALD0ytlGeIPwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CfT81XrrpJkACv30dOGcEEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArFQa5p3HCZAAlwgQfFjzBPAAAAAAAEYFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAAJBwEAAQEAAAAICQICAQEAAAAHBgICAQEAAAAECAEAAQEAAAAFBgEAAQEAAAADCgEAAAAAAAAKCwEAAAAAAAALDAEAAAAAAAALDQIAAAAAAAAMDgEAAAAAAAAMDwIAAAAAAAAOAEQBAAAAAAAAAEQAREEAAAAAAAAARQBFQQABAQAAAABEwEUCAgEBAAAAAESARMEAAQEAAAAARIBEQQABAQAAAABFQERCAwEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -1031,7 +1031,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000024R0592984828S00000048P01672LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEXGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487CRAAg4tsp3vhyHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLl8h/Sb/8mQAJkzF1LyIchwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CETY8vVL2JUACAwmKH2PuIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXyH9Jv/yZAArPqc7UVuyLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePOwkQAIj2/l+arwiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CSS7/If32JUAChjjWxW1UI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akku/yH99iVAAoNRSZ2AhiTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLImLuWkO8kQALEsS5uoyElwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUkmdgCbiI0ACnDOitDdYI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlJJnYAm4iNAAl66SQwCiyTAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ+HThnRAkoQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AsTKUACs+pztRW7IsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAqMjufyHVCPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKJ0t7gCxMpQAJHA3gLJIghwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CuycPC7UmK0ACs+pztRW7IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAg8LtaZ5hyTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLG3LWEfDAsQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXwfOGVE6LUACs+pztRW7IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/Au58PzVeWi1AAkSLbOf7iSHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL129eBc4YuQAJ8YTJVMEohwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CVp+rrdgfL0ACayv2l91TIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aoqw4emVUi5AArn8h/TbNyPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLwp8ZLNwkoQALnHafoSO4gwAAAAAABGRQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAACQcBAAEBAAAACAkCAgEBAAAABwYCAgEBAAAABAgBAAEBAAAABQYBAAEBAAAAAwoBAAAAAAAACgsBAAAAAAAACwwBAAAAAAAACw0CAAAAAAAADA4BAAAAAAAADA8CAAAAAAAADgBEAQAAAAAAAABEAERBAAAAAAAAAEUARUEAAQEAAAAARMBFAgIBAQAAAABEgETBAAEBAAAAAESAREEAAQEAAAAARUBEQgMBAQAAAAEARYEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000024R0806750562S00000048P01672LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEXGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487CRAAg4tsp3vhyHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLl8h/Sb/8mQAJkzF1LyIchwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CETY8vVL2JUACAwmKH2PuIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXyH9Jv/yZAArPqc7UVuyLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePOwkQAIj2/l+arwiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CSS7/If32JUAChjjWxW1UI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akku/yH99iVAAoNRSZ2AhiTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLImLuWkO8kQALEsS5uoyElwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUkmdgCbiI0ACnDOitDdYI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlJJnYAm4iNAAl66SQwCiyTAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ+HThnRAkoQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AsTKUACs+pztRW7IsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAqMjufyHVCPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKJ0t7gCxMpQAJHA3gLJIghwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CuycPC7UmK0ACs+pztRW7IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAg8LtaZ5hyTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLG3LWEfDAsQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXwfOGVE6LUACs+pztRW7IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/Au58PzVeWi1AAkSLbOf7iSHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL129eBc4YuQAJ8YTJVMEohwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CVp+rrdgfL0ACayv2l91TIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aoqw4emVUi5AArn8h/TbNyPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLwp8ZLNwkoQALnHafoSO4gwAAAAAABGRQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAACQcBAAEBAAAACAkCAgEBAAAABwYCAgEBAAAABAgBAAEBAAAABQYBAAEBAAAAAwoBAAAAAAAACgsBAAAAAAAACwwBAAAAAAAACw0CAAAAAAAADA4BAAAAAAAADA8CAAAAAAAADgBEAQAAAAAAAABEAERBAAAAAAAAAEUARUEAAQEAAAAARMBFAgIBAQAAAABEgETBAAEBAAAAAESAREEAAQEAAAAARUBEQgMBAQAAAAEARYEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -1044,7 +1044,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000025R0592984828S00000049P01740LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487CRAAg4tsp3vhyHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLl8h/Sb/8mQAJkzF1LyIchwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CETY8vVL2JUACAwmKH2PuIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXyH9Jv/yZAArPqc7UVuyLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePOwkQAIj2/l+arwiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CSS7/If32JUAChjjWxW1UI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akku/yH99iVAAoNRSZ2AhiTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLImLuWkO8kQALEsS5uoyElwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUkmdgCbiI0ACnDOitDdYI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlJJnYAm4iNAAl66SQwCiyTAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ+HThnRAkoQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AsTKUACs+pztRW7IsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAqMjufyHVCPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKJ0t7gCxMpQAJHA3gLJIghwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CuycPC7UmK0ACs+pztRW7IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAg8LtaZ5hyTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLG3LWEfDAsQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXwfOGVE6LUACs+pztRW7IsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvCnxks3CShAAucdp+hI7iDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLdJAaBlUMuQAKPwvUoXO8gwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CfPKwUGs6LUACRwN4CySIIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgXFjzF3TS9AApvmHafoiCHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKh1jTvOEUuQALaG3xhMlUjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CINJvXwdOL0ACXwfOGVG6IsAAAAAAARoUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAkHAQABAQAAAAgJAgIBAQAAAAcGAgIBAQAAAAQIAQABAQAAAAUGAQABAQAAAAMKAQAAAAAAAAoLAQAAAAAAAAsMAQAAAAAAAAsNAgAAAAAAAAwOAQAAAAAAAAwPAgAAAAAAAA4ARAEAAAAAAAAARABEQQAAAAAAAAEARIEAAAAAAAAARcBFQQABAQAAAABFgEXCAgEBAAAAAETARQEAAQEAAAAARUBEwgIBAQAAAABFAERCAwEBAAAAAERARYEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000025R0806750562S00000049P01740LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487CRAAg4tsp3vhyHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLl8h/Sb/8mQAJkzF1LyIchwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CETY8vVL2JUACAwmKH2PuIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXyH9Jv/yZAArPqc7UVuyLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePOwkQAIj2/l+arwiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CSS7/If32JUAChjjWxW1UI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akku/yH99iVAAoNRSZ2AhiTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLImLuWkO8kQALEsS5uoyElwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUkmdgCbiI0ACnDOitDdYI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlJJnYAm4iNAAl66SQwCiyTAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ+HThnRAkoQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AsTKUACs+pztRW7IsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAqMjufyHVCPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKJ0t7gCxMpQAJHA3gLJIghwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CuycPC7UmK0ACs+pztRW7IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAg8LtaZ5hyTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLG3LWEfDAsQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXwfOGVE6LUACs+pztRW7IsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvCnxks3CShAAucdp+hI7iDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLdJAaBlUMuQAKPwvUoXO8gwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CfPKwUGs6LUACRwN4CySIIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgXFjzF3TS9AApvmHafoiCHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKh1jTvOEUuQALaG3xhMlUjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CINJvXwdOL0ACXwfOGVG6IsAAAAAAARoUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAkHAQABAQAAAAgJAgIBAQAAAAcGAgIBAQAAAAQIAQABAQAAAAUGAQABAQAAAAMKAQAAAAAAAAoLAQAAAAAAAAsMAQAAAAAAAAsNAgAAAAAAAAwOAQAAAAAAAAwPAgAAAAAAAA4ARAEAAAAAAAAARABEQQAAAAAAAAEARIEAAAAAAAAARcBFQQABAQAAAABFgEXCAgEBAAAAAETARQEAAQEAAAAARUBEwgIBAQAAAABFAERCAwEBAAAAAERARYEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -1057,7 +1057,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000026R0592984828S00000050P01740LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwIAPwAAgAAAAAAAPC/AkymCkYl1SRAAtXnaiv2NyLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/2T15WOgmQAIrhxbZzjciwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CrBxaZDvfJUACysNCrWmeIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An/ZPXlY6CZAAnqlLEMcayPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJMpgpGJdUkQALqlbIMcWwjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5BQdyeXfJUACTfOOU3QEJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuQUHcnl3yVAAkoMAiuHNiXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJjf9k9edgkQAKLbOf7qdElwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C7C+7Jw/LI0ACY+5aQj4IJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuwvuycPyyNAAiV1ApoIOyXAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIZBFYOLfInQAJq3nGKjgQkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJLn8h/T7KEACeqUsQxxrI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ar3jFB3JBSpAAmrecYqOBCTAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIkufyH9PsoQAIOvjCZKjgiwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CVg4tsp0PK0ACeqUsQxxrI8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/Ar3jFB3JBSpAAtbFbTSANyXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJhw9MrZRksQAJq3nGKjgQkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C+u3rwDkjLUACeqUsQxxrI8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AoqO5PIf8idAAq7YX3ZPniHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ4CyQofiwuQAJWfa62Yp8hwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C+u3rwDkjLUACDr4wmSo4IsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aru4jQbwNi9AAmKh1jTvOCLAAAAAABwAAAD8CAD8AAIAAAAAAADwvwI8vVKWIS4uQAKh1jTvOAUkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cu7iNBvA2L0ACJ8KGp1dqI8AAAAAAARoUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAkHAQABAQAAAAgJAgIBAQAAAAcGAgIBAQAAAAQIAQABAQAAAAUGAQABAQAAAAMKAQAAAAAAAAoLAQAAAAAAAAsMAQAAAAAAAAsNAgAAAAAAAAwOAQAAAAAAAAwPAgAAAAAAAA4ARAEAAAAAAAAARABEQQAAAAAAAAEARIEAAAAAAAAARcBFQQABAQAAAABFgEXCAgEBAAAAAETARQEAAQEAAAAARUBEwgIBAQAAAABFAERCAwEBAAAAAERARYEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000026R0806750562S00000050P01740LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwIAPwAAgAAAAAAAPC/AkymCkYl1SRAAtXnaiv2NyLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/2T15WOgmQAIrhxbZzjciwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CrBxaZDvfJUACysNCrWmeIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An/ZPXlY6CZAAnqlLEMcayPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJMpgpGJdUkQALqlbIMcWwjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5BQdyeXfJUACTfOOU3QEJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuQUHcnl3yVAAkoMAiuHNiXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJjf9k9edgkQAKLbOf7qdElwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C7C+7Jw/LI0ACY+5aQj4IJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuwvuycPyyNAAiV1ApoIOyXAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIZBFYOLfInQAJq3nGKjgQkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJLn8h/T7KEACeqUsQxxrI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ar3jFB3JBSpAAmrecYqOBCTAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIkufyH9PsoQAIOvjCZKjgiwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CVg4tsp0PK0ACeqUsQxxrI8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/Ar3jFB3JBSpAAtbFbTSANyXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJhw9MrZRksQAJq3nGKjgQkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C+u3rwDkjLUACeqUsQxxrI8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AoqO5PIf8idAAq7YX3ZPniHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ4CyQofiwuQAJWfa62Yp8hwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C+u3rwDkjLUACDr4wmSo4IsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aru4jQbwNi9AAmKh1jTvOCLAAAAAABwAAAD8CAD8AAIAAAAAAADwvwI8vVKWIS4uQAKh1jTvOAUkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cu7iNBvA2L0ACJ8KGp1dqI8AAAAAAARoUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAkHAQABAQAAAAgJAgIBAQAAAAcGAgIBAQAAAAQIAQABAQAAAAUGAQABAQAAAAMKAQAAAAAAAAoLAQAAAAAAAAsMAQAAAAAAAAsNAgAAAAAAAAwOAQAAAAAAAAwPAgAAAAAAAA4ARAEAAAAAAAAARABEQQAAAAAAAAEARIEAAAAAAAAARcBFQQABAQAAAABFgEXCAgEBAAAAAETARQEAAQEAAAAARUBEwgIBAQAAAABFAERCAwEBAAAAAERARYEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -1070,7 +1070,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000027R0592984828S00000051P02012LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEcGAAAAPwIAPwAAgAAAAAAAPC/AnZPHhZqTRBAAr1SliGO9RrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ2Tx4Wak0QQAKPwvUoXI8YwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8IXJVMFoEkACKVyPwvVoF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap88LNSaZhRAAg1xrIvbqBjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKfPCzUmmYUQAI7AU2EDQ8bwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJQaBlUNLEkACoWez6nM1HMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvCFyVTBaBJAAvvL7snDAhXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIzMzMzM3MWQAIeFmpN804cwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C48eYu5aQFkACpgpGJXWCF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgRWDi2yXRhAAn9qvHSTGBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKkcD0K16MaQALc14FzRlQYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cat5xio7kF0AC3nGKjuRyG8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AsX+snvycBxAArU3+MJk6hnAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI+6Nms+hwbQAJ90LNZ9fkVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CgQTFjzG3HkACEqW9wRcmGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsPTK2UZQiBAAuoENBE2vBrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL2l92ThwUgQAJKDAIrhxYdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CB1+YTBXsIEACImx4eqWsHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlfsL7snDyJAAn/ZPXlY6B3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKyne+nxksiQAIg0m9fB44bwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CodY07zhlIUACZF3cRgP4GcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Amiz6nO19SJAAlg5tMh2fh/AAAAAABgAAAD8BAD8AAIAAAAAAADwvwJGtvP91BgkQALRkVz+Q7oewAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CV+wvuyePEEAC5/up8dKNE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiV1ApoIWxFAAgrXo3A9ShHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJTBaOSOsETQAIK16NwPUoRwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C4umVsgxxFEAChA1Pr5SlE8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Al1txf6y+w9AAsWPMXctoQ7AAAAAAAEeBAAICAQEAAAACAQEAAQEAAAADAgICAQEAAAAEAwEAAQEAAAAFBAICAQEAAAAABQEAAQEAAAACBgEAAAAAAAAEBwEAAAAAAAADCAEAAAAAAAAICQEAAAAAAAAJCgEAAAAAAAAJCwIAAAAAAAAKDAEAAAAAAAAKDQIAAAAAAAAMDgEAAAAAAAAODwEAAAAAAAAAREBEAQABAQAAAABEgERCAgEBAAAAAETARIEAAQEAAAAARQBEwgIBAQAAAABEDwIDAQEAAAAPAEUBAAEBAAAAAESARUEAAAAAAAAARUBFgQAAAAAAAABFwEYBAAEBAAAAAEYARkICAQEAAAAARkBGgQABAQAAAABFxgEAAQEAAAAARoYCAwEBAAAAAEYARsEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000027R0806750562S00000051P02012LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEcGAAAAPwIAPwAAgAAAAAAAPC/AnZPHhZqTRBAAr1SliGO9RrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ2Tx4Wak0QQAKPwvUoXI8YwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8IXJVMFoEkACKVyPwvVoF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap88LNSaZhRAAg1xrIvbqBjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKfPCzUmmYUQAI7AU2EDQ8bwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJQaBlUNLEkACoWez6nM1HMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvCFyVTBaBJAAvvL7snDAhXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIzMzMzM3MWQAIeFmpN804cwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C48eYu5aQFkACpgpGJXWCF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgRWDi2yXRhAAn9qvHSTGBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKkcD0K16MaQALc14FzRlQYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cat5xio7kF0AC3nGKjuRyG8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AsX+snvycBxAArU3+MJk6hnAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI+6Nms+hwbQAJ90LNZ9fkVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CgQTFjzG3HkACEqW9wRcmGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsPTK2UZQiBAAuoENBE2vBrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL2l92ThwUgQAJKDAIrhxYdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CB1+YTBXsIEACImx4eqWsHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlfsL7snDyJAAn/ZPXlY6B3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKyne+nxksiQAIg0m9fB44bwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CodY07zhlIUACZF3cRgP4GcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Amiz6nO19SJAAlg5tMh2fh/AAAAAABgAAAD8BAD8AAIAAAAAAADwvwJGtvP91BgkQALRkVz+Q7oewAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CV+wvuyePEEAC5/up8dKNE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiV1ApoIWxFAAgrXo3A9ShHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJTBaOSOsETQAIK16NwPUoRwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C4umVsgxxFEAChA1Pr5SlE8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Al1txf6y+w9AAsWPMXctoQ7AAAAAAAEeBAAICAQEAAAACAQEAAQEAAAADAgICAQEAAAAEAwEAAQEAAAAFBAICAQEAAAAABQEAAQEAAAACBgEAAAAAAAAEBwEAAAAAAAADCAEAAAAAAAAICQEAAAAAAAAJCgEAAAAAAAAJCwIAAAAAAAAKDAEAAAAAAAAKDQIAAAAAAAAMDgEAAAAAAAAODwEAAAAAAAAAREBEAQABAQAAAABEgERCAgEBAAAAAETARIEAAQEAAAAARQBEwgIBAQAAAABEDwIDAQEAAAAPAEUBAAEBAAAAAESARUEAAAAAAAAARUBFgQAAAAAAAABFwEYBAAEBAAAAAEYARkICAQEAAAAARkBGgQABAQAAAABFxgEAAQEAAAAARoYCAwEBAAAAAEYARsEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -1083,7 +1083,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000028R0592984828S00000052P01732LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487BVAAgaBlUOLLBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIYJlMFoxIaQAKxv+yePCwQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CcayL22gAGEAC3nGKjuTyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjEhpAAlD8GHPXkhLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePOwVQAIv3SQGgZUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C4JwRpb0BGEAC9pfdk4fFE8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/An9qvHST2BNAAio6kst/yBPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJxrIvbaAAYQAIs1JrmHScJwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CW0I+6NnsFUACb/CFyVTBBsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Akp7gy9MJhxAAi9uowG8xRPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJKe4MvTCYcQAIIPZtVnysWwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CSnuDL0wmHEACbcX+snvyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmDl0CLbOR5AArG/7J48LBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJJnYAmwiYgQAJtxf6ye/INwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CYOXQIts5HkACio7k8h+SEsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AkmdgCbCJiBAAvT91HjpJgnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLjx5i7ljAhQAKxv+yePCwQwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C7nw/NV46IkACbcX+snvyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoenV8oyRCNAArG/7J48LBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK7uI0G8FYlQAJd/kP67SsQwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CrkfhehROJEAC3nGKjuTyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aru4jQbwViVAAlK4HoXrkRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKHp1fKMkQjQAJNhA1Pr5QSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5j+k375OJEACv30dOGfEE8AAAAAAARkUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAQGAQAAAAAAAAIHAQAAAAAAAAcIAQAAAAAAAAMJAQAAAAAAAAkKAQAAAAAAAAELAQAAAAAAAAsMAQAAAAAAAAwNAQAAAAAAAAwOAgAAAAAAAA0PAgAAAAAAAA0ARAEAAAAAAAAARABEQQAAAAAAAABEQESBAAAAAAAAAEXARUEAAQEAAAAARYBFwgIBAQAAAABEwEUBAAEBAAAAAEVARMICAQEAAAAARQBEggMBAQAAAABEgEWBAAEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00002C0000028R0806750562S00000052P01732LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487BVAAgaBlUOLLBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIYJlMFoxIaQAKxv+yePCwQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CcayL22gAGEAC3nGKjuTyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjEhpAAlD8GHPXkhLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePOwVQAIv3SQGgZUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C4JwRpb0BGEAC9pfdk4fFE8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/An9qvHST2BNAAio6kst/yBPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJxrIvbaAAYQAIs1JrmHScJwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CW0I+6NnsFUACb/CFyVTBBsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Akp7gy9MJhxAAi9uowG8xRPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJKe4MvTCYcQAIIPZtVnysWwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CSnuDL0wmHEACbcX+snvyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmDl0CLbOR5AArG/7J48LBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJJnYAmwiYgQAJtxf6ye/INwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CYOXQIts5HkACio7k8h+SEsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AkmdgCbCJiBAAvT91HjpJgnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLjx5i7ljAhQAKxv+yePCwQwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C7nw/NV46IkACbcX+snvyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoenV8oyRCNAArG/7J48LBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK7uI0G8FYlQAJd/kP67SsQwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CrkfhehROJEAC3nGKjuTyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aru4jQbwViVAAlK4HoXrkRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKHp1fKMkQjQAJNhA1Pr5QSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5j+k375OJEACv30dOGfEE8AAAAAAARkUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAQGAQAAAAAAAAIHAQAAAAAAAAcIAQAAAAAAAAMJAQAAAAAAAAkKAQAAAAAAAAELAQAAAAAAAAsMAQAAAAAAAAwNAQAAAAAAAAwOAgAAAAAAAA0PAgAAAAAAAA0ARAEAAAAAAAAARABEQQAAAAAAAABEQESBAAAAAAAAAEXARUEAAQEAAAAARYBFwgIBAQAAAABEwEUBAAEBAAAAAEVARMICAQEAAAAARQBEggMBAQAAAABEgEWBAAEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -1096,7 +1096,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000029R0592984828S00000053P01184LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEQHAAAAPwIAPwAAgAAAAAAAPC/Ao51cRsNIBVAAgAAAAAAwBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIydy0hHzQXQALNzMzMzIwYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMnctIR80F0AC9P3UeOkmFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkjhehSuRxlAAqs+V1uxvxnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ6Nqs+V1sbQALNzMzMzIwYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CSOF6FK5HGUAChA1Pr5QlHMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjDBNAAiKOdXEbjRjAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKsi9toAG8dQAKrPldbsb8ZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5fIf0m+fH0ACoBov3STGGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsxdS8gHnSBAAjy9UpYhjhrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJrmnecogMgQAIaUdobfKEcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CyXa+nxqvHUACi/1l9+QhHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgfOGVHa2xBAAi2yne+nhhnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLf4AuTqYIOQAKRD3o2q74XwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CFYxK6gR0EEACs3vysFCrFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJzBJAAkLPZtXnKhbAAAAAAAERAAQEAAAAAAAABAgIAAAAAAAABAwEAAAAAAAADBAEAAAAAAAADBQIAAAAAAAAABgEAAAAAAAAEBwEAAAAAAAAKCwICAQEAAAAJCgEAAQEAAAAICQICAQEAAAAIBwEAAQEAAAALBwEAAQEAAAAODwICAQEAAAANDgEAAQEAAAAMDQICAQEAAAAMBgEAAQEAAAAPBgEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000029R0806750562S00000053P01184LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEQHAAAAPwIAPwAAgAAAAAAAPC/Ao51cRsNIBVAAgAAAAAAwBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIydy0hHzQXQALNzMzMzIwYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMnctIR80F0AC9P3UeOkmFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkjhehSuRxlAAqs+V1uxvxnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ6Nqs+V1sbQALNzMzMzIwYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CSOF6FK5HGUAChA1Pr5QlHMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjDBNAAiKOdXEbjRjAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKsi9toAG8dQAKrPldbsb8ZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5fIf0m+fH0ACoBov3STGGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsxdS8gHnSBAAjy9UpYhjhrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJrmnecogMgQAIaUdobfKEcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CyXa+nxqvHUACi/1l9+QhHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgfOGVHa2xBAAi2yne+nhhnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLf4AuTqYIOQAKRD3o2q74XwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CFYxK6gR0EEACs3vysFCrFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJzBJAAkLPZtXnKhbAAAAAAAERAAQEAAAAAAAABAgIAAAAAAAABAwEAAAAAAAADBAEAAAAAAAADBQIAAAAAAAAABgEAAAAAAAAEBwEAAAAAAAAKCwICAQEAAAAJCgEAAQEAAAAICQICAQEAAAAIBwEAAQEAAAALBwEAAQEAAAAODwICAQEAAAANDgEAAQEAAAAMDQICAQEAAAAMBgEAAQEAAAAPBgEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -1109,7 +1109,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000030R0592984828S00000054P01468LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAgEUHAAAAPwEAPwAAgAAAAAAAPC/Au2ePCzUGhBAAm40gLdAAhTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIWak3zjlMMQAIp7Q2+MJkSwAAAAAAYCAAA/AQA/AACAAAAAAAA8L8Cc9cS8kHPDUACG55eKctQEMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AiDSb18HThFAAhueXinLUBDAAAAAABgMAAD8BAD8AAIAAAAAAADwvwLOiNLe4AsSQAIp7Q2+MJkSwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CsHJoke38CkACc2iR7Xy/DMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtzXgXNGVBRAAtejcD0KVxPAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIGEhQ/xhwWQAKWQ4ts57sRwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8ChxbZzvfTFEACx7q4jQawFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhNhw9MrZRhAAkT67evAeRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJZhjjWxS0aQAICmggbnt4QwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CS+oENBF2HEACzTtO0ZGcEcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvYoXI/C9RxAAqFns+pz9RPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLM7snDQi0bQALjx5i7lpAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cvp8aL93kGEACNBE2PL3SFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApJc/kP6rRlAAl3cRgN4Cw3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwLYgXNGlHYbQALaG3xhMtUJwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CyeU/pN++HUACN4lBYOVQC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApEPejarPh5AAozbaABvARDAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJ4eqUsQxwXQAJ2cRsN4G0WwAAAAAABFgAEBAAEAAAAAAQIBAAEAAAAAAgMBAAEAAAAAAwQBAAEAAAAABAABAAEAAAAAAgUBBQAAAAAABAYBBAAAAAAABgcBAAAAAAAABggCAAAAAAAABwkBAAAAAAAACwoBAAEBAAAADAsCAgEBAAAADQwBAAEBAAAADg0CAgEBAAAACgkCAwEBAAAACQ4BAAEBAAAAAEQPAgIBAQAAAABEQEQBAAEBAAAAAESAREICAQEAAAALAESBAAEBAAAACg8BAAEBAAAADgBEwQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000030R0806750562S00000054P01468LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAgEUHAAAAPwEAPwAAgAAAAAAAPC/Au2ePCzUGhBAAm40gLdAAhTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIWak3zjlMMQAIp7Q2+MJkSwAAAAAAYCAAA/AQA/AACAAAAAAAA8L8Cc9cS8kHPDUACG55eKctQEMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AiDSb18HThFAAhueXinLUBDAAAAAABgMAAD8BAD8AAIAAAAAAADwvwLOiNLe4AsSQAIp7Q2+MJkSwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CsHJoke38CkACc2iR7Xy/DMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtzXgXNGVBRAAtejcD0KVxPAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIGEhQ/xhwWQAKWQ4ts57sRwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8ChxbZzvfTFEACx7q4jQawFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhNhw9MrZRhAAkT67evAeRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJZhjjWxS0aQAICmggbnt4QwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CS+oENBF2HEACzTtO0ZGcEcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvYoXI/C9RxAAqFns+pz9RPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLM7snDQi0bQALjx5i7lpAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cvp8aL93kGEACNBE2PL3SFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApJc/kP6rRlAAl3cRgN4Cw3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwLYgXNGlHYbQALaG3xhMtUJwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CyeU/pN++HUACN4lBYOVQC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApEPejarPh5AAozbaABvARDAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJ4eqUsQxwXQAJ2cRsN4G0WwAAAAAABFgAEBAAEAAAAAAQIBAAEAAAAAAgMBAAEAAAAAAwQBAAEAAAAABAABAAEAAAAAAgUBBQAAAAAABAYBBAAAAAAABgcBAAAAAAAABggCAAAAAAAABwkBAAAAAAAACwoBAAEBAAAADAsCAgEBAAAADQwBAAEBAAAADg0CAgEBAAAACgkCAwEBAAAACQ4BAAEBAAAAAEQPAgIBAQAAAABEQEQBAAEBAAAAAESAREICAQEAAAALAESBAAEBAAAACg8BAAEBAAAADgBEwQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -1122,7 +1122,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000031R0592984828S00000055P01536LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEVGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJzBVAAngLJCh+TBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsPIZQAIjSnuDL0wZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nXgF0ACYcPTK2UZGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hlAAsKGp1fKshvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI/NV66ScwVQAK9UpYhjrUbwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CbxKDwMrhF0ACaCJseHrlHMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Av8h/fZ14BdAAqTfvg6csxXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK8BRIUPwYcQAKh+DHmruUcwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C7lpCPugZHkACwoanV8qyG8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/ArwFEhQ/BhxAAnrHKTqSSx/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIQWDm0yBYgQAKh+DHmruUcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CRGlv8IUpIkACaCJseHrlHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqqCUUmdICFAAt5xio7kshvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJEaW/whSkiQAJd3EYDeEsfwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CEFg5tMgWIEACWKg1zTtOH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuF6FK5HISFAAuXQItv5PiDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI3GsBbICEhQAIbnl4py1AZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CmEwVjEoqIkACdEaU9gYfGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsHKoUW2MyNAAm3F/rJ7shvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIZBFYOLTIjQAICK4cW2U4ZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C7lpCPugZHkACGw3gLZBAIMAAAAAAARcUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAIGAQAAAAAAAAMHAQAAAAAAAAcIAQAAAAAAAAcJAgAAAAAAAAgKAQAAAAAAAA8NAQABAQAAAA4PAgIBAQAAAAsMAQABAQAAAA0LAgIBAQAAAAwKAgMBAQAAAAoOAQABAQAAAABEwERBAAEBAAAAAESARMICAQEAAAAAREBEAgIBAQAAAAsARIEAAQEAAAAMAEQBAAEBAAAADgBFAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000031R0806750562S00000055P01536LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEVGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJzBVAAngLJCh+TBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsPIZQAIjSnuDL0wZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nXgF0ACYcPTK2UZGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hlAAsKGp1fKshvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI/NV66ScwVQAK9UpYhjrUbwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CbxKDwMrhF0ACaCJseHrlHMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Av8h/fZ14BdAAqTfvg6csxXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK8BRIUPwYcQAKh+DHmruUcwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C7lpCPugZHkACwoanV8qyG8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/ArwFEhQ/BhxAAnrHKTqSSx/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIQWDm0yBYgQAKh+DHmruUcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CRGlv8IUpIkACaCJseHrlHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqqCUUmdICFAAt5xio7kshvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJEaW/whSkiQAJd3EYDeEsfwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CEFg5tMgWIEACWKg1zTtOH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuF6FK5HISFAAuXQItv5PiDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI3GsBbICEhQAIbnl4py1AZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CmEwVjEoqIkACdEaU9gYfGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsHKoUW2MyNAAm3F/rJ7shvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIZBFYOLTIjQAICK4cW2U4ZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C7lpCPugZHkACGw3gLZBAIMAAAAAAARcUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAIGAQAAAAAAAAMHAQAAAAAAAAcIAQAAAAAAAAcJAgAAAAAAAAgKAQAAAAAAAA8NAQABAQAAAA4PAgIBAQAAAAsMAQABAQAAAA0LAgIBAQAAAAwKAgMBAQAAAAoOAQABAQAAAABEwERBAAEBAAAAAESARMICAQEAAAAAREBEAgIBAQAAAAsARIEAAQEAAAAMAEQBAAEBAAAADgBFAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -1131,7 +1131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="770">
   <si>
     <t>Green solvents</t>
   </si>
@@ -5891,12 +5891,45 @@
   <si>
     <t>not commercial, can be prepared from 22468-26-4</t>
   </si>
+  <si>
+    <t>concentration_unit</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>mL/mmol</t>
+  </si>
+  <si>
+    <t>temperature_unit</t>
+  </si>
+  <si>
+    <t>25 up to 60</t>
+  </si>
+  <si>
+    <t>26 up to 60</t>
+  </si>
+  <si>
+    <t>amine_equiv</t>
+  </si>
+  <si>
+    <t>base_equiv</t>
+  </si>
+  <si>
+    <t>coupling_agent_equiv</t>
+  </si>
+  <si>
+    <t>additive_equiv</t>
+  </si>
+  <si>
+    <t>carboxylic_acid_equiv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6177,7 +6210,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -6266,7 +6299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -6464,12 +6497,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6922,10 +7012,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6948,6 +7034,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6980,6 +7124,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6998,10 +7143,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7025,33 +7197,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7067,13 +7212,12 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="164">
+  <dxfs count="189">
     <dxf>
       <font>
         <strike val="0"/>
@@ -8725,6 +8869,962 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFE699"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -13781,8 +14881,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1051560</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14777,7 +15877,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AD60A274-3E1C-485A-B731-7CD6B83F7CCC}" name="Table113" displayName="Table113" ref="B4:N14" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AD60A274-3E1C-485A-B731-7CD6B83F7CCC}" name="Table113" displayName="Table113" ref="B4:N14" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187">
   <autoFilter ref="B4:N14" xr:uid="{AD60A274-3E1C-485A-B731-7CD6B83F7CCC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14794,25 +15894,57 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{B3458D0B-B219-4CE5-861F-8BF5B674CFE4}" name="Class" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{1465F23B-EC9A-4FB6-9FD3-5436573893F2}" name="Solvent" dataDxfId="160"/>
-    <tableColumn id="3" xr3:uid="{CD763A3A-3B8B-4764-8A90-815890C41234}" name="Structure" dataDxfId="159"/>
-    <tableColumn id="4" xr3:uid="{A05A1DB9-C012-4BA7-8252-E76483488FD6}" name="Properties" dataDxfId="158"/>
-    <tableColumn id="5" xr3:uid="{13A8076A-2705-45F2-866A-61E52DD492ED}" name="Source" dataDxfId="157"/>
-    <tableColumn id="6" xr3:uid="{E11A5E59-DE8E-44D7-805C-197928A63FEF}" name="Bp" dataDxfId="156"/>
-    <tableColumn id="7" xr3:uid="{17FACF28-94ED-442F-9306-254A6B6ADB01}" name="Density" dataDxfId="155"/>
-    <tableColumn id="9" xr3:uid="{E6AB0220-32EC-4245-873D-74A6C659D1DD}" name="Replacement" dataDxfId="154"/>
-    <tableColumn id="10" xr3:uid="{6F0B5B1B-7289-4DA6-A6D6-8F468D55F647}" name="Reaction types" dataDxfId="153"/>
-    <tableColumn id="8" xr3:uid="{B5420071-7C51-4CEB-8026-5D6126620B2B}" name="Limitations" dataDxfId="152"/>
-    <tableColumn id="11" xr3:uid="{CA3BE576-FDC7-49F5-8B3D-342AB997F956}" name="Reference 1" dataDxfId="151" dataCellStyle="Hyperlink"/>
-    <tableColumn id="12" xr3:uid="{4852DA71-5944-411A-94A6-11AA539FFA99}" name="Reference 2" dataDxfId="150" dataCellStyle="Hyperlink"/>
-    <tableColumn id="13" xr3:uid="{F5D8BCCF-6721-439C-8066-A4274ABEB85B}" name="Reference 3" dataDxfId="149" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{B3458D0B-B219-4CE5-861F-8BF5B674CFE4}" name="Class" dataDxfId="186"/>
+    <tableColumn id="2" xr3:uid="{1465F23B-EC9A-4FB6-9FD3-5436573893F2}" name="Solvent" dataDxfId="185"/>
+    <tableColumn id="3" xr3:uid="{CD763A3A-3B8B-4764-8A90-815890C41234}" name="Structure" dataDxfId="184"/>
+    <tableColumn id="4" xr3:uid="{A05A1DB9-C012-4BA7-8252-E76483488FD6}" name="Properties" dataDxfId="183"/>
+    <tableColumn id="5" xr3:uid="{13A8076A-2705-45F2-866A-61E52DD492ED}" name="Source" dataDxfId="182"/>
+    <tableColumn id="6" xr3:uid="{E11A5E59-DE8E-44D7-805C-197928A63FEF}" name="Bp" dataDxfId="181"/>
+    <tableColumn id="7" xr3:uid="{17FACF28-94ED-442F-9306-254A6B6ADB01}" name="Density" dataDxfId="180"/>
+    <tableColumn id="9" xr3:uid="{E6AB0220-32EC-4245-873D-74A6C659D1DD}" name="Replacement" dataDxfId="179"/>
+    <tableColumn id="10" xr3:uid="{6F0B5B1B-7289-4DA6-A6D6-8F468D55F647}" name="Reaction types" dataDxfId="178"/>
+    <tableColumn id="8" xr3:uid="{B5420071-7C51-4CEB-8026-5D6126620B2B}" name="Limitations" dataDxfId="177"/>
+    <tableColumn id="11" xr3:uid="{CA3BE576-FDC7-49F5-8B3D-342AB997F956}" name="Reference 1" dataDxfId="176" dataCellStyle="Hyperlink"/>
+    <tableColumn id="12" xr3:uid="{4852DA71-5944-411A-94A6-11AA539FFA99}" name="Reference 2" dataDxfId="175" dataCellStyle="Hyperlink"/>
+    <tableColumn id="13" xr3:uid="{F5D8BCCF-6721-439C-8066-A4274ABEB85B}" name="Reference 3" dataDxfId="174" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{AD586377-AE04-4AA0-B470-419CC2EEEF0D}" name="Table149" displayName="Table149" ref="B7:L14" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="B7:L14" xr:uid="{A17B2FD2-3B7D-478A-8BA0-A42B231DDF8B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{70ADC7B1-680C-472F-98E7-E8E7A65432F1}" name="Conditions #" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{A3A257A3-F422-4710-92AA-3F6E5AD4B5AB}" name="Building block 1" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{587FFBB8-15C7-4800-9FF6-9CEB1F41E30A}" name="Building block 2" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{ADA7AEE9-DB69-4BA8-A518-3316BEC64FD6}" name="Base" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{3B4D2E78-ED52-4CB5-9032-F197A36AC51E}" name="Catalyst" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{A67CC263-55A2-46D8-8D52-B26AA4B042A4}" name="Additive" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{62182C79-C575-45DC-9841-C8E4E80592A8}" name="Solvent" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{A8ABDE37-0E9D-4EB7-9D65-2FE9578A788E}" name="Temperature" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{10DB57F1-E0E6-4568-9A84-DCB20955C2FF}" name="Reference" dataDxfId="53" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" xr3:uid="{AFBC6932-440E-4F5B-9FB3-E3EFD02AF14C}" name="ELN" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{4663A957-1D8E-4D81-9386-C2B1CA59CFC9}" name="Comments" dataDxfId="51"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6C5B2898-328A-4CC7-AF2B-7FB460EC156B}" name="Table110" displayName="Table110" ref="B7:K15" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="B7:K15" xr:uid="{A17B2FD2-3B7D-478A-8BA0-A42B231DDF8B}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -14842,7 +15974,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F0AB4C04-F657-4A74-A522-F9A2826A28DE}" name="Table13711" displayName="Table13711" ref="B7:K11" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="B7:K11" xr:uid="{A17B2FD2-3B7D-478A-8BA0-A42B231DDF8B}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -14872,7 +16004,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{48B94177-BC62-422F-835F-2FAA4D3ABDA5}" name="Table14912" displayName="Table14912" ref="B7:L16" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="B7:L16" xr:uid="{A17B2FD2-3B7D-478A-8BA0-A42B231DDF8B}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -14904,7 +16036,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F03ADDEA-AAD2-4487-8F17-8672217547E4}" name="Table1491214" displayName="Table1491214" ref="B7:M18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="B7:M18" xr:uid="{F03ADDEA-AAD2-4487-8F17-8672217547E4}"/>
   <tableColumns count="12">
@@ -14926,7 +16058,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A17B2FD2-3B7D-478A-8BA0-A42B231DDF8B}" name="Table1" displayName="Table1" ref="B7:K14" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A17B2FD2-3B7D-478A-8BA0-A42B231DDF8B}" name="Table1" displayName="Table1" ref="B7:K14" totalsRowShown="0" headerRowDxfId="173" dataDxfId="172">
   <autoFilter ref="B7:K14" xr:uid="{A17B2FD2-3B7D-478A-8BA0-A42B231DDF8B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -14940,22 +16072,53 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{2D965BFF-D889-439C-8883-2CCE5853AC56}" name="Conditions #" dataDxfId="146"/>
-    <tableColumn id="2" xr3:uid="{D18158CB-20FB-4BC0-8006-9B01A38946B8}" name="Building block 1" dataDxfId="145"/>
-    <tableColumn id="3" xr3:uid="{4067579B-FC21-4638-9F7D-28E65EF35572}" name="Building block 2" dataDxfId="144"/>
-    <tableColumn id="4" xr3:uid="{EC3A7F4C-0880-413A-A58B-779976F986E1}" name="Base" dataDxfId="143"/>
-    <tableColumn id="5" xr3:uid="{1E63307C-62D2-4172-9AEE-DED90EA6D6AE}" name="Coupling agent" dataDxfId="142"/>
-    <tableColumn id="6" xr3:uid="{40A071CF-A2F4-4B55-B09A-27EB5B63FF39}" name="Solvent" dataDxfId="141"/>
-    <tableColumn id="7" xr3:uid="{5772C2B1-F66D-4C71-B30D-EE401047FCD0}" name="Temperature" dataDxfId="140"/>
-    <tableColumn id="9" xr3:uid="{D7EDDE50-19ED-4515-A1BB-3204EAFD7F95}" name="Reference" dataDxfId="139"/>
-    <tableColumn id="10" xr3:uid="{6AD48DCC-89B3-4B52-8F4C-2552AAB3BBC1}" name="ELN" dataDxfId="138"/>
-    <tableColumn id="8" xr3:uid="{226B6DD7-8A13-4766-BB92-A31AC24221D2}" name="Comments" dataDxfId="137"/>
+    <tableColumn id="1" xr3:uid="{2D965BFF-D889-439C-8883-2CCE5853AC56}" name="Conditions #" dataDxfId="171"/>
+    <tableColumn id="2" xr3:uid="{D18158CB-20FB-4BC0-8006-9B01A38946B8}" name="Building block 1" dataDxfId="170"/>
+    <tableColumn id="3" xr3:uid="{4067579B-FC21-4638-9F7D-28E65EF35572}" name="Building block 2" dataDxfId="169"/>
+    <tableColumn id="4" xr3:uid="{EC3A7F4C-0880-413A-A58B-779976F986E1}" name="Base" dataDxfId="168"/>
+    <tableColumn id="5" xr3:uid="{1E63307C-62D2-4172-9AEE-DED90EA6D6AE}" name="Coupling agent" dataDxfId="167"/>
+    <tableColumn id="6" xr3:uid="{40A071CF-A2F4-4B55-B09A-27EB5B63FF39}" name="Solvent" dataDxfId="166"/>
+    <tableColumn id="7" xr3:uid="{5772C2B1-F66D-4C71-B30D-EE401047FCD0}" name="Temperature" dataDxfId="165"/>
+    <tableColumn id="9" xr3:uid="{D7EDDE50-19ED-4515-A1BB-3204EAFD7F95}" name="Reference" dataDxfId="164"/>
+    <tableColumn id="10" xr3:uid="{6AD48DCC-89B3-4B52-8F4C-2552AAB3BBC1}" name="ELN" dataDxfId="163"/>
+    <tableColumn id="8" xr3:uid="{226B6DD7-8A13-4766-BB92-A31AC24221D2}" name="Comments" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1790B832-C1A2-4543-9A60-61B67ADB9FD0}" name="Amides" displayName="Amides" ref="A1:V7" totalsRowShown="0" headerRowDxfId="161" headerRowBorderDxfId="160" tableBorderDxfId="159">
+  <autoFilter ref="A1:V7" xr:uid="{1790B832-C1A2-4543-9A60-61B67ADB9FD0}"/>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{9DAD72AC-F5E9-4117-83FF-9DAFF942C01E}" name="reaction" dataDxfId="158"/>
+    <tableColumn id="2" xr3:uid="{01BA298C-56AD-4EC1-90C1-EDC5FD2FF0AD}" name="results" dataDxfId="157"/>
+    <tableColumn id="3" xr3:uid="{C22E701F-2418-424D-BF80-80445FCEA2CD}" name="conditions#" dataDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{5745139C-078A-4254-9701-B7DAE08B0DE4}" name="carboxylic_acid" dataDxfId="155"/>
+    <tableColumn id="5" xr3:uid="{57B2007C-9B4E-44D0-8142-C5F5D6226A4C}" name="carboxylic_acid_equiv" dataDxfId="154"/>
+    <tableColumn id="7" xr3:uid="{56A9D0AF-82DE-4CA2-BA71-5434E3F2E665}" name="amine" dataDxfId="153"/>
+    <tableColumn id="8" xr3:uid="{AFEBA5DC-9A94-4EE5-B0DD-12FA32995764}" name="amine_equiv" dataDxfId="152"/>
+    <tableColumn id="10" xr3:uid="{6B9097C7-5459-4F34-AE08-225EDB5CF023}" name="base" dataDxfId="151"/>
+    <tableColumn id="11" xr3:uid="{577AB835-94C2-4FDB-B0BA-4B7DEF09BA43}" name="base_equiv" dataDxfId="150"/>
+    <tableColumn id="13" xr3:uid="{00976DB8-1250-4E5B-9964-0A95EDF9183B}" name="coupling_agent" dataDxfId="149"/>
+    <tableColumn id="14" xr3:uid="{61B87FEE-61F9-43F5-B2BC-66D20141BB57}" name="coupling_agent_equiv" dataDxfId="148"/>
+    <tableColumn id="16" xr3:uid="{45CB057F-B2F7-4F49-A954-12A724CD8D79}" name="additive" dataDxfId="147"/>
+    <tableColumn id="17" xr3:uid="{098F3213-39B1-49EF-8D7F-B89CD858EE5F}" name="additive_equiv" dataDxfId="146"/>
+    <tableColumn id="19" xr3:uid="{84EDAA0B-9DAF-46DC-8924-9A535E727ADC}" name="Solvent" dataDxfId="145"/>
+    <tableColumn id="20" xr3:uid="{EE7858D0-54A5-4E83-8561-62A6675ECFCA}" name="concentration_value" dataDxfId="144"/>
+    <tableColumn id="21" xr3:uid="{5FBE6020-C27F-4552-BC10-CDF27A8F8C77}" name="concentration_unit" dataDxfId="143"/>
+    <tableColumn id="22" xr3:uid="{8F5058E9-6BB7-442D-917A-261753788F80}" name="temperature_value" dataDxfId="142"/>
+    <tableColumn id="23" xr3:uid="{9B20D837-6FC9-45D3-9514-7C7EF602B4FF}" name="temperature_unit" dataDxfId="141"/>
+    <tableColumn id="24" xr3:uid="{275421DD-E90A-4F38-A962-D5841CE42DC7}" name="reference" dataDxfId="140"/>
+    <tableColumn id="25" xr3:uid="{28850F7F-ABC3-4EEB-BA4B-016F5B0E4807}" name="link" dataDxfId="139"/>
+    <tableColumn id="26" xr3:uid="{66F1B87D-60DC-4AD3-BD6C-6CEBBC1FFD5E}" name="ELN" dataDxfId="138"/>
+    <tableColumn id="27" xr3:uid="{73983D8E-FADE-4DDF-A3C2-686847070C6E}" name="Comments" dataDxfId="137"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E5A1812-2640-4721-88E6-C77157309BC3}" name="Table13" displayName="Table13" ref="B7:K17" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135">
   <autoFilter ref="B7:K17" xr:uid="{A17B2FD2-3B7D-478A-8BA0-A42B231DDF8B}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -14985,7 +16148,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E1F6971A-E20F-4262-A027-F5A15C8FDFB5}" name="Table14" displayName="Table14" ref="B7:M11" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
   <autoFilter ref="B7:M11" xr:uid="{A17B2FD2-3B7D-478A-8BA0-A42B231DDF8B}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -15019,7 +16182,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2B43171-974D-4E7C-AC43-0F22E216F2A0}" name="Table145" displayName="Table145" ref="B7:K11" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <autoFilter ref="B7:K11" xr:uid="{A17B2FD2-3B7D-478A-8BA0-A42B231DDF8B}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -15049,7 +16212,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE54CDEB-B5EB-48B1-B373-2322F4AB72AC}" name="Table16" displayName="Table16" ref="B7:K8" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <autoFilter ref="B7:K8" xr:uid="{A17B2FD2-3B7D-478A-8BA0-A42B231DDF8B}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -15079,7 +16242,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C9A50D76-282D-4E66-80BA-6DD237B4392E}" name="Table137" displayName="Table137" ref="B7:K10" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="B7:K10" xr:uid="{A17B2FD2-3B7D-478A-8BA0-A42B231DDF8B}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -15109,7 +16272,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8BA5DDA0-F0EE-41AB-AB18-26858FB4B303}" name="Table1458" displayName="Table1458" ref="B7:J10" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="B7:J10" xr:uid="{A17B2FD2-3B7D-478A-8BA0-A42B231DDF8B}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -15132,38 +16295,6 @@
     <tableColumn id="9" xr3:uid="{6138FE1F-AC51-4FEE-85C3-FFFBD6947002}" name="Reference" dataDxfId="66"/>
     <tableColumn id="10" xr3:uid="{C719BF46-6DF3-425D-B929-ED5BFDC4F2DB}" name="ELN" dataDxfId="65"/>
     <tableColumn id="8" xr3:uid="{1629C67B-FC89-4FC6-AAAE-7593A69EC4C1}" name="Comments" dataDxfId="64"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{AD586377-AE04-4AA0-B470-419CC2EEEF0D}" name="Table149" displayName="Table149" ref="B7:L14" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="B7:L14" xr:uid="{A17B2FD2-3B7D-478A-8BA0-A42B231DDF8B}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{70ADC7B1-680C-472F-98E7-E8E7A65432F1}" name="Conditions #" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{A3A257A3-F422-4710-92AA-3F6E5AD4B5AB}" name="Building block 1" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{587FFBB8-15C7-4800-9FF6-9CEB1F41E30A}" name="Building block 2" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{ADA7AEE9-DB69-4BA8-A518-3316BEC64FD6}" name="Base" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{3B4D2E78-ED52-4CB5-9032-F197A36AC51E}" name="Catalyst" dataDxfId="57"/>
-    <tableColumn id="12" xr3:uid="{A67CC263-55A2-46D8-8D52-B26AA4B042A4}" name="Additive" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{62182C79-C575-45DC-9841-C8E4E80592A8}" name="Solvent" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{A8ABDE37-0E9D-4EB7-9D65-2FE9578A788E}" name="Temperature" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{10DB57F1-E0E6-4568-9A84-DCB20955C2FF}" name="Reference" dataDxfId="53" dataCellStyle="Hyperlink"/>
-    <tableColumn id="10" xr3:uid="{AFBC6932-440E-4F5B-9FB3-E3EFD02AF14C}" name="ELN" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{4663A957-1D8E-4D81-9386-C2B1CA59CFC9}" name="Comments" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15441,7 +16572,7 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
@@ -15457,25 +16588,25 @@
     <col min="14" max="14" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="12" customHeight="1" thickBot="1">
+    <row r="1" spans="2:14" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1"/>
       <c r="F1"/>
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="172" t="s">
+    <row r="2" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="173"/>
-    </row>
-    <row r="3" spans="2:14" ht="30" customHeight="1">
+      <c r="C2" s="191"/>
+    </row>
+    <row r="3" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3"/>
       <c r="F3"/>
       <c r="K3"/>
       <c r="L3"/>
     </row>
-    <row r="4" spans="2:14" ht="30" customHeight="1">
+    <row r="4" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="67" t="s">
         <v>1</v>
       </c>
@@ -15516,7 +16647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="90" customHeight="1">
+    <row r="5" spans="2:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="93" t="s">
         <v>14</v>
       </c>
@@ -15554,7 +16685,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:14" ht="90" customHeight="1">
+    <row r="6" spans="2:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="93" t="s">
         <v>24</v>
       </c>
@@ -15592,7 +16723,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:14" ht="90" customHeight="1">
+    <row r="7" spans="2:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="93" t="s">
         <v>24</v>
       </c>
@@ -15632,7 +16763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="90" customHeight="1">
+    <row r="8" spans="2:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="93" t="s">
         <v>14</v>
       </c>
@@ -15668,7 +16799,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="2:14" ht="90" customHeight="1">
+    <row r="9" spans="2:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="93" t="s">
         <v>24</v>
       </c>
@@ -15698,7 +16829,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" ht="90" customHeight="1">
+    <row r="10" spans="2:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="93" t="s">
         <v>24</v>
       </c>
@@ -15740,7 +16871,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="90" customHeight="1">
+    <row r="11" spans="2:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="93" t="s">
         <v>24</v>
       </c>
@@ -15770,7 +16901,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="2:14" ht="90" customHeight="1">
+    <row r="12" spans="2:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="93" t="s">
         <v>14</v>
       </c>
@@ -15802,7 +16933,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="2:14" ht="90" customHeight="1">
+    <row r="13" spans="2:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
@@ -15842,7 +16973,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="90" customHeight="1">
+    <row r="14" spans="2:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -15882,7 +17013,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="30" customHeight="1">
+    <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
@@ -15897,7 +17028,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:14" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
       <c r="D16" s="57"/>
@@ -15912,7 +17043,7 @@
       <c r="M16" s="71"/>
       <c r="N16" s="49"/>
     </row>
-    <row r="17" spans="2:14" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="69" t="s">
         <v>1</v>
       </c>
@@ -15953,7 +17084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="90" customHeight="1">
+    <row r="18" spans="2:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="93" t="s">
         <v>14</v>
       </c>
@@ -15993,7 +17124,7 @@
       </c>
       <c r="N18" s="53"/>
     </row>
-    <row r="19" spans="2:14" ht="90" customHeight="1">
+    <row r="19" spans="2:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -16029,7 +17160,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14" ht="90" customHeight="1" thickBot="1">
+    <row r="20" spans="2:14" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="75" t="s">
         <v>14</v>
       </c>
@@ -16065,19 +17196,19 @@
       </c>
       <c r="N20" s="75"/>
     </row>
-    <row r="21" spans="2:14" ht="30" customHeight="1">
+    <row r="21" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="2:14" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22"/>
       <c r="F22"/>
       <c r="I22" s="13"/>
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="2:14" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="78" t="s">
         <v>121</v>
       </c>
@@ -16090,7 +17221,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="2:14" ht="15" customHeight="1">
+    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
       <c r="D24" s="65"/>
@@ -16101,12 +17232,12 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="2:14" ht="30" customHeight="1">
-      <c r="B25" s="174" t="s">
+    <row r="25" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="192" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
       <c r="F25" s="95" t="s">
         <v>125</v>
       </c>
@@ -16115,12 +17246,12 @@
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="2:14" ht="30" customHeight="1">
-      <c r="B26" s="174" t="s">
+    <row r="26" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="192" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="174"/>
-      <c r="D26" s="174"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="192"/>
       <c r="F26" s="94" t="s">
         <v>127</v>
       </c>
@@ -16128,12 +17259,12 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="2:14" ht="30" customHeight="1">
-      <c r="B27" s="174" t="s">
+    <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="192" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="174"/>
-      <c r="D27" s="174"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="192"/>
       <c r="F27" s="96" t="s">
         <v>129</v>
       </c>
@@ -16141,7 +17272,7 @@
       <c r="L27"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="2:14" ht="15.75" thickBot="1">
+    <row r="28" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
@@ -16199,7 +17330,7 @@
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="3" width="25.7109375" customWidth="1"/>
@@ -16213,26 +17344,26 @@
     <col min="11" max="11" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="12" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="179" t="s">
+    <row r="1" spans="2:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="197" t="s">
         <v>392</v>
       </c>
-      <c r="C2" s="180"/>
+      <c r="C2" s="198"/>
       <c r="H2" s="34"/>
     </row>
-    <row r="3" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H3" s="34"/>
     </row>
-    <row r="4" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H4" s="34"/>
     </row>
-    <row r="5" spans="2:11" ht="99.95" customHeight="1"/>
-    <row r="6" spans="2:11" ht="30" customHeight="1"/>
-    <row r="7" spans="2:11" ht="30" customHeight="1">
+    <row r="5" spans="2:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>132</v>
       </c>
@@ -16261,7 +17392,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" customHeight="1">
+    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -16285,7 +17416,7 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="2:11" ht="30" customHeight="1">
+    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
         <v>2</v>
       </c>
@@ -16310,7 +17441,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:11" ht="30" customHeight="1">
+    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>3</v>
       </c>
@@ -16337,12 +17468,12 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:11" ht="30" customHeight="1">
+    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:11" ht="30" customHeight="1" thickBot="1"/>
-    <row r="13" spans="2:11" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="62" t="s">
         <v>175</v>
       </c>
@@ -16350,13 +17481,13 @@
       <c r="F13" s="13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="2:11" ht="15" customHeight="1">
+    <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
       <c r="F14" s="13"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="2:11" ht="30" customHeight="1">
+    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>247</v>
       </c>
@@ -16364,7 +17495,7 @@
       <c r="F15" s="13"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="2:11" ht="15" customHeight="1" thickBot="1">
+    <row r="16" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="64"/>
       <c r="C16" s="64"/>
       <c r="F16" s="13"/>
@@ -16397,7 +17528,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
@@ -16414,26 +17545,26 @@
     <col min="13" max="13" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="12" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="182" t="s">
+    <row r="1" spans="2:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="201" t="s">
         <v>404</v>
       </c>
-      <c r="C2" s="183"/>
+      <c r="C2" s="202"/>
       <c r="J2" s="34"/>
     </row>
-    <row r="3" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>131</v>
       </c>
       <c r="J4" s="34"/>
     </row>
-    <row r="5" spans="2:13" ht="99.95" customHeight="1"/>
-    <row r="6" spans="2:13" ht="30" customHeight="1"/>
-    <row r="7" spans="2:13" ht="30" customHeight="1">
+    <row r="5" spans="2:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>132</v>
       </c>
@@ -16468,7 +17599,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="30" customHeight="1">
+    <row r="8" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -16501,7 +17632,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="30" customHeight="1">
+    <row r="9" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
         <v>2</v>
       </c>
@@ -16534,7 +17665,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="30" customHeight="1">
+    <row r="10" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>3</v>
       </c>
@@ -16567,7 +17698,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="30" customHeight="1">
+    <row r="11" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
         <v>4</v>
       </c>
@@ -16600,7 +17731,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="30" customHeight="1">
+    <row r="12" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
         <v>5</v>
       </c>
@@ -16631,7 +17762,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="2:13" s="100" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="2:13" s="100" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="97">
         <v>6</v>
       </c>
@@ -16662,7 +17793,7 @@
       </c>
       <c r="L13" s="106"/>
     </row>
-    <row r="14" spans="2:13" s="100" customFormat="1" ht="18">
+    <row r="14" spans="2:13" s="100" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="109">
         <v>7</v>
       </c>
@@ -16692,12 +17823,12 @@
         <v>442</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="30" customHeight="1">
+    <row r="15" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="2:13" ht="30" customHeight="1" thickBot="1"/>
-    <row r="17" spans="2:10" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
         <v>175</v>
       </c>
@@ -16706,28 +17837,28 @@
       <c r="G17" s="13"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="2:10" ht="15" customHeight="1">
-      <c r="B18" s="176"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="176"/>
+    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
       <c r="G18" s="13"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" ht="30" customHeight="1">
+    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="206" t="s">
         <v>446</v>
       </c>
-      <c r="D19" s="187"/>
+      <c r="D19" s="206"/>
       <c r="G19" s="13"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="2:10" ht="106.15" customHeight="1">
+    <row r="20" spans="2:10" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
       <c r="F20" s="2" t="str">
         <f>"L1"</f>
         <v>L1</v>
@@ -16738,10 +17869,10 @@
       </c>
       <c r="J20"/>
     </row>
-    <row r="21" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B21" s="178"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
+    <row r="21" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="196"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="196"/>
       <c r="G21" s="13"/>
       <c r="J21"/>
     </row>
@@ -16782,7 +17913,7 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="3" width="25.7109375" customWidth="1"/>
@@ -16795,22 +17926,22 @@
     <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="182" t="s">
+    <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="201" t="s">
         <v>447</v>
       </c>
-      <c r="C2" s="183"/>
-    </row>
-    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1"/>
-    <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="C2" s="202"/>
+    </row>
+    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="99.95" customHeight="1"/>
-    <row r="6" spans="2:12" ht="30" customHeight="1"/>
-    <row r="7" spans="2:12" ht="30" customHeight="1">
+    <row r="5" spans="2:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>132</v>
       </c>
@@ -16842,7 +17973,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="30" customHeight="1">
+    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -16869,7 +18000,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" ht="30" customHeight="1">
+    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
         <v>2</v>
       </c>
@@ -16896,7 +18027,7 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1">
+    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>3</v>
       </c>
@@ -16923,7 +18054,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="2:12" ht="30" customHeight="1">
+    <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="130">
         <v>4</v>
       </c>
@@ -16953,7 +18084,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="30" customHeight="1">
+    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
         <v>5</v>
       </c>
@@ -16978,7 +18109,7 @@
       <c r="I12" s="38"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1">
+    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
         <v>6</v>
       </c>
@@ -17007,7 +18138,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="30" customHeight="1">
+    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
         <v>7</v>
       </c>
@@ -17036,7 +18167,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="15" spans="2:12" s="100" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="2:12" s="100" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="97">
         <v>8</v>
       </c>
@@ -17068,12 +18199,12 @@
         <v>486</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1">
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" thickBot="1"/>
-    <row r="18" spans="2:7" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
         <v>175</v>
       </c>
@@ -17083,81 +18214,81 @@
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
     </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1">
-      <c r="B19" s="176"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1">
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="194"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="220" t="s">
         <v>488</v>
       </c>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+      <c r="D20" s="220"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="220"/>
+    </row>
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="221" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1">
-      <c r="B22" s="177"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1">
+      <c r="D21" s="221"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="221"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="195"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="195"/>
+    </row>
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C23" s="192" t="s">
+      <c r="C23" s="220" t="s">
         <v>489</v>
       </c>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-    </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1">
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+      <c r="D23" s="220"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="220"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="195"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="195"/>
+      <c r="G24" s="195"/>
+    </row>
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>490</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="D25" s="194" t="s">
+      <c r="D25" s="222" t="s">
         <v>492</v>
       </c>
-      <c r="E25" s="195"/>
-      <c r="F25" s="196" t="s">
+      <c r="E25" s="223"/>
+      <c r="F25" s="224" t="s">
         <v>493</v>
       </c>
-      <c r="G25" s="194"/>
-    </row>
-    <row r="26" spans="2:7" ht="106.15" customHeight="1">
+      <c r="G25" s="222"/>
+    </row>
+    <row r="26" spans="2:7" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="10"/>
       <c r="D26" s="2" t="str">
@@ -17177,21 +18308,21 @@
         <v>Chemistry 5</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="D27" s="194" t="s">
+      <c r="D27" s="222" t="s">
         <v>495</v>
       </c>
-      <c r="E27" s="195"/>
-      <c r="F27" s="188" t="s">
+      <c r="E27" s="223"/>
+      <c r="F27" s="209" t="s">
         <v>496</v>
       </c>
-      <c r="G27" s="189"/>
-    </row>
-    <row r="28" spans="2:7" ht="106.15" customHeight="1">
+      <c r="G27" s="207"/>
+    </row>
+    <row r="28" spans="2:7" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="29"/>
       <c r="D28" s="2" t="str">
@@ -17202,23 +18333,23 @@
         <f>"Chemistry 3"</f>
         <v>Chemistry 3</v>
       </c>
-      <c r="F28" s="190" t="str">
+      <c r="F28" s="218" t="str">
         <f>"Chemistry 6"</f>
         <v>Chemistry 6</v>
       </c>
-      <c r="G28" s="191"/>
-    </row>
-    <row r="29" spans="2:7" ht="15" customHeight="1" thickBot="1">
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1"/>
-    <row r="31" spans="2:7" ht="30" customHeight="1" thickBot="1"/>
-    <row r="32" spans="2:7" ht="30" customHeight="1" thickBot="1">
+      <c r="G28" s="219"/>
+    </row>
+    <row r="29" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="196"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+    </row>
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="24" t="s">
         <v>497</v>
       </c>
@@ -17228,115 +18359,115 @@
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
     </row>
-    <row r="33" spans="2:21" ht="15.75">
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-    </row>
-    <row r="34" spans="2:21" ht="30" customHeight="1">
-      <c r="B34" s="197" t="s">
+    <row r="33" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="194"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+    </row>
+    <row r="34" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="214" t="s">
         <v>498</v>
       </c>
-      <c r="C34" s="198"/>
-      <c r="D34" s="199" t="s">
+      <c r="C34" s="215"/>
+      <c r="D34" s="216" t="s">
         <v>499</v>
       </c>
-      <c r="E34" s="198"/>
-      <c r="F34" s="200" t="s">
+      <c r="E34" s="215"/>
+      <c r="F34" s="217" t="s">
         <v>500</v>
       </c>
-      <c r="G34" s="200"/>
-    </row>
-    <row r="35" spans="2:21" ht="30" customHeight="1">
-      <c r="B35" s="189" t="s">
+      <c r="G34" s="217"/>
+    </row>
+    <row r="35" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="207" t="s">
         <v>501</v>
       </c>
-      <c r="C35" s="201"/>
-      <c r="D35" s="188" t="s">
+      <c r="C35" s="208"/>
+      <c r="D35" s="209" t="s">
         <v>502</v>
       </c>
-      <c r="E35" s="201"/>
-      <c r="F35" s="189" t="s">
+      <c r="E35" s="208"/>
+      <c r="F35" s="207" t="s">
         <v>503</v>
       </c>
-      <c r="G35" s="189"/>
-    </row>
-    <row r="36" spans="2:21" ht="30" customHeight="1">
-      <c r="B36" s="189" t="s">
+      <c r="G35" s="207"/>
+    </row>
+    <row r="36" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="207" t="s">
         <v>504</v>
       </c>
-      <c r="C36" s="201"/>
-      <c r="D36" s="188" t="s">
+      <c r="C36" s="208"/>
+      <c r="D36" s="209" t="s">
         <v>505</v>
       </c>
-      <c r="E36" s="201"/>
-      <c r="F36" s="202" t="s">
+      <c r="E36" s="208"/>
+      <c r="F36" s="210" t="s">
         <v>506</v>
       </c>
-      <c r="G36" s="202"/>
-    </row>
-    <row r="37" spans="2:21" ht="30" customHeight="1">
-      <c r="B37" s="205"/>
-      <c r="C37" s="204"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="189" t="s">
+      <c r="G36" s="210"/>
+    </row>
+    <row r="37" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="213"/>
+      <c r="C37" s="212"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="212"/>
+      <c r="F37" s="207" t="s">
         <v>507</v>
       </c>
-      <c r="G37" s="189"/>
-    </row>
-    <row r="38" spans="2:21" ht="30" customHeight="1">
-      <c r="B38" s="189" t="s">
+      <c r="G37" s="207"/>
+    </row>
+    <row r="38" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="207" t="s">
         <v>508</v>
       </c>
-      <c r="C38" s="201"/>
-      <c r="D38" s="188" t="s">
+      <c r="C38" s="208"/>
+      <c r="D38" s="209" t="s">
         <v>509</v>
       </c>
-      <c r="E38" s="201"/>
-      <c r="F38" s="189" t="s">
+      <c r="E38" s="208"/>
+      <c r="F38" s="207" t="s">
         <v>510</v>
       </c>
-      <c r="G38" s="189"/>
-    </row>
-    <row r="39" spans="2:21" ht="30" customHeight="1">
-      <c r="B39" s="189"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="188" t="s">
+      <c r="G38" s="207"/>
+    </row>
+    <row r="39" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="207"/>
+      <c r="C39" s="208"/>
+      <c r="D39" s="209" t="s">
         <v>511</v>
       </c>
-      <c r="E39" s="201"/>
-      <c r="F39" s="189" t="s">
+      <c r="E39" s="208"/>
+      <c r="F39" s="207" t="s">
         <v>512</v>
       </c>
-      <c r="G39" s="189"/>
-    </row>
-    <row r="40" spans="2:21" ht="30" customHeight="1">
-      <c r="B40" s="189" t="s">
+      <c r="G39" s="207"/>
+    </row>
+    <row r="40" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="207" t="s">
         <v>513</v>
       </c>
-      <c r="C40" s="201"/>
-      <c r="D40" s="188" t="s">
+      <c r="C40" s="208"/>
+      <c r="D40" s="209" t="s">
         <v>514</v>
       </c>
-      <c r="E40" s="201"/>
-      <c r="F40" s="189" t="s">
+      <c r="E40" s="208"/>
+      <c r="F40" s="207" t="s">
         <v>515</v>
       </c>
-      <c r="G40" s="189"/>
-    </row>
-    <row r="41" spans="2:21" ht="15" customHeight="1" thickBot="1">
-      <c r="B41" s="178"/>
-      <c r="C41" s="178"/>
-      <c r="D41" s="178"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="178"/>
-    </row>
-    <row r="44" spans="2:21" ht="47.25">
+      <c r="G40" s="207"/>
+    </row>
+    <row r="41" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="196"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+    </row>
+    <row r="44" spans="2:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B44" s="114" t="s">
         <v>180</v>
       </c>
@@ -17398,7 +18529,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="2:21" ht="31.5">
+    <row r="45" spans="2:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="115" t="s">
         <v>197</v>
       </c>
@@ -17448,7 +18579,7 @@
       </c>
       <c r="U45" s="120"/>
     </row>
-    <row r="46" spans="2:21" ht="47.25">
+    <row r="46" spans="2:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B46" s="121" t="s">
         <v>197</v>
       </c>
@@ -17500,7 +18631,7 @@
       </c>
       <c r="U46" s="124"/>
     </row>
-    <row r="47" spans="2:21" ht="31.5">
+    <row r="47" spans="2:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B47" s="115" t="s">
         <v>197</v>
       </c>
@@ -17550,7 +18681,7 @@
       </c>
       <c r="U47" s="127"/>
     </row>
-    <row r="48" spans="2:21" ht="31.5">
+    <row r="48" spans="2:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="121" t="s">
         <v>528</v>
       </c>
@@ -17600,7 +18731,7 @@
       </c>
       <c r="U48" s="121"/>
     </row>
-    <row r="49" spans="2:21" ht="95.25" thickBot="1">
+    <row r="49" spans="2:21" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="115" t="s">
         <v>208</v>
       </c>
@@ -17652,7 +18783,7 @@
       </c>
       <c r="U49" s="120"/>
     </row>
-    <row r="50" spans="2:21" ht="15.75">
+    <row r="50" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="121"/>
       <c r="C50" s="115"/>
       <c r="D50" s="116"/>
@@ -17678,28 +18809,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B29:G29"/>
@@ -17714,6 +18823,28 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B41:G41"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <hyperlinks>
@@ -17740,7 +18871,7 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="7" width="30.7109375" customWidth="1"/>
@@ -17751,7 +18882,7 @@
     <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="48.75">
+    <row r="1" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="114" t="s">
         <v>180</v>
       </c>
@@ -17804,7 +18935,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="32.25">
+    <row r="2" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
         <v>197</v>
       </c>
@@ -17851,7 +18982,7 @@
       </c>
       <c r="Q2" s="120"/>
     </row>
-    <row r="3" spans="1:19" ht="48.75">
+    <row r="3" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="121" t="s">
         <v>197</v>
       </c>
@@ -17903,7 +19034,7 @@
       <c r="Q3" s="124"/>
       <c r="S3" s="161"/>
     </row>
-    <row r="4" spans="1:19" ht="32.25">
+    <row r="4" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="115" t="s">
         <v>197</v>
       </c>
@@ -17950,7 +19081,7 @@
       </c>
       <c r="Q4" s="127"/>
     </row>
-    <row r="5" spans="1:19" ht="32.25">
+    <row r="5" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="121" t="s">
         <v>528</v>
       </c>
@@ -17987,17 +19118,17 @@
       <c r="L5" s="121">
         <v>12</v>
       </c>
-      <c r="M5" s="170" t="s">
+      <c r="M5" s="168" t="s">
         <v>532</v>
       </c>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="169" t="s">
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="167" t="s">
         <v>474</v>
       </c>
       <c r="Q5" s="121"/>
     </row>
-    <row r="6" spans="1:19" ht="96.75">
+    <row r="6" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="115" t="s">
         <v>208</v>
       </c>
@@ -18031,22 +19162,22 @@
       <c r="K6" s="115" t="s">
         <v>536</v>
       </c>
-      <c r="L6" s="166">
+      <c r="L6" s="164">
         <v>2.5</v>
       </c>
-      <c r="M6" s="164" t="s">
+      <c r="M6" s="162" t="s">
         <v>441</v>
       </c>
-      <c r="N6" s="165" t="s">
+      <c r="N6" s="163" t="s">
         <v>484</v>
       </c>
       <c r="O6" t="s">
         <v>545</v>
       </c>
-      <c r="P6" s="167" t="s">
+      <c r="P6" s="165" t="s">
         <v>537</v>
       </c>
-      <c r="Q6" s="168"/>
+      <c r="Q6" s="166"/>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
@@ -18067,7 +19198,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="51.5703125" customWidth="1"/>
@@ -18084,7 +19215,7 @@
     <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>546</v>
       </c>
@@ -18100,7 +19231,7 @@
       <c r="E1" s="18"/>
       <c r="G1" s="42"/>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="133" t="s">
         <v>497</v>
       </c>
@@ -18116,7 +19247,7 @@
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="133" t="s">
         <v>497</v>
       </c>
@@ -18132,7 +19263,7 @@
       <c r="E3" s="1"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="133" t="s">
         <v>497</v>
       </c>
@@ -18148,7 +19279,7 @@
       <c r="E4" s="132"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="133" t="s">
         <v>497</v>
       </c>
@@ -18164,7 +19295,7 @@
       <c r="E5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="133" t="s">
         <v>497</v>
       </c>
@@ -18178,7 +19309,7 @@
       <c r="E6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="133" t="s">
         <v>497</v>
       </c>
@@ -18212,7 +19343,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="51.5703125" customWidth="1"/>
@@ -18229,7 +19360,7 @@
     <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="133" t="s">
         <v>546</v>
       </c>
@@ -18252,7 +19383,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="133" t="s">
         <v>175</v>
       </c>
@@ -18271,7 +19402,7 @@
       <c r="H2" s="113"/>
       <c r="I2" s="113"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="133" t="s">
         <v>175</v>
       </c>
@@ -18290,7 +19421,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="133" t="s">
         <v>175</v>
       </c>
@@ -18308,7 +19439,7 @@
       </c>
       <c r="H4" s="113"/>
     </row>
-    <row r="5" spans="1:9" ht="67.900000000000006" customHeight="1">
+    <row r="5" spans="1:9" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="133" t="s">
         <v>175</v>
       </c>
@@ -18326,10 +19457,10 @@
         <f>"Chemistry 0"</f>
         <v>Chemistry 0</v>
       </c>
-      <c r="H5" s="196"/>
-      <c r="I5" s="194"/>
-    </row>
-    <row r="6" spans="1:9" ht="106.15" customHeight="1">
+      <c r="H5" s="224"/>
+      <c r="I5" s="222"/>
+    </row>
+    <row r="6" spans="1:9" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="133" t="s">
         <v>175</v>
       </c>
@@ -18348,7 +19479,7 @@
         <v>Chemistry 1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="106.15" customHeight="1">
+    <row r="7" spans="1:9" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="133" t="s">
         <v>175</v>
       </c>
@@ -18369,7 +19500,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="106.15" customHeight="1">
+    <row r="8" spans="1:9" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="133" t="s">
         <v>175</v>
       </c>
@@ -18391,7 +19522,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="67.900000000000006" customHeight="1">
+    <row r="9" spans="1:9" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="133" t="s">
         <v>175</v>
       </c>
@@ -18410,7 +19541,7 @@
         <v>Chemistry 2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="106.15" customHeight="1">
+    <row r="10" spans="1:9" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="133" t="s">
         <v>175</v>
       </c>
@@ -18429,7 +19560,7 @@
         <v>Chemistry 3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="106.15" customHeight="1">
+    <row r="11" spans="1:9" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="133"/>
       <c r="B11" s="137" t="s">
         <v>490</v>
@@ -18449,7 +19580,7 @@
       <c r="H11" s="112"/>
       <c r="I11" s="112"/>
     </row>
-    <row r="12" spans="1:9" ht="87" customHeight="1">
+    <row r="12" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="133" t="s">
         <v>175</v>
       </c>
@@ -18468,14 +19599,14 @@
         <v>Chemistry 6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1"/>
-    <row r="14" spans="1:9" ht="30" customHeight="1"/>
-    <row r="15" spans="1:9" ht="30" customHeight="1"/>
-    <row r="16" spans="1:9" ht="30" customHeight="1"/>
-    <row r="17" ht="30" customHeight="1"/>
-    <row r="18" ht="30" customHeight="1"/>
-    <row r="19" ht="30" customHeight="1"/>
-    <row r="20" ht="30" customHeight="1"/>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H5:I5"/>
@@ -18498,7 +19629,7 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="4" width="25.7109375" customWidth="1"/>
@@ -18510,22 +19641,22 @@
     <col min="12" max="12" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="182" t="s">
+    <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="201" t="s">
         <v>553</v>
       </c>
-      <c r="C2" s="183"/>
-    </row>
-    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1"/>
-    <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="C2" s="202"/>
+    </row>
+    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="99.95" customHeight="1"/>
-    <row r="6" spans="2:12" ht="30" customHeight="1"/>
-    <row r="7" spans="2:12" ht="30" customHeight="1">
+    <row r="5" spans="2:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>132</v>
       </c>
@@ -18557,7 +19688,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="30" customHeight="1">
+    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -18587,7 +19718,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="30" customHeight="1">
+    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
         <v>2</v>
       </c>
@@ -18617,7 +19748,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1">
+    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>3</v>
       </c>
@@ -18647,7 +19778,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="30" customHeight="1">
+    <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
         <v>4</v>
       </c>
@@ -18677,12 +19808,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="30" customHeight="1">
+    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1" thickBot="1"/>
-    <row r="14" spans="2:12" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
         <v>175</v>
       </c>
@@ -18690,23 +19821,23 @@
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" spans="2:12" ht="15" customHeight="1">
+    <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="65"/>
       <c r="C15" s="65"/>
       <c r="D15" s="65"/>
       <c r="E15" s="65"/>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1">
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C16" s="187" t="s">
+      <c r="C16" s="206" t="s">
         <v>391</v>
       </c>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-    </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1" thickBot="1">
+      <c r="D16" s="206"/>
+      <c r="E16" s="206"/>
+    </row>
+    <row r="17" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
@@ -18742,7 +19873,7 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="3" width="25.7109375" customWidth="1"/>
@@ -18757,26 +19888,26 @@
     <col min="13" max="13" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="182" t="s">
+    <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="201" t="s">
         <v>574</v>
       </c>
-      <c r="C2" s="183"/>
+      <c r="C2" s="202"/>
       <c r="J2" s="34"/>
     </row>
-    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>131</v>
       </c>
       <c r="J4" s="34"/>
     </row>
-    <row r="5" spans="2:12" ht="99.95" customHeight="1"/>
-    <row r="6" spans="2:12" ht="30" customHeight="1"/>
-    <row r="7" spans="2:12" ht="30" customHeight="1">
+    <row r="5" spans="2:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>132</v>
       </c>
@@ -18811,7 +19942,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="30" customHeight="1">
+    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -18839,7 +19970,7 @@
       <c r="J8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" ht="30" customHeight="1">
+    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
         <v>2</v>
       </c>
@@ -18869,7 +20000,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1">
+    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>3</v>
       </c>
@@ -18899,7 +20030,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="30" customHeight="1">
+    <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
         <v>4</v>
       </c>
@@ -18931,7 +20062,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="30" customHeight="1">
+    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
         <v>5</v>
       </c>
@@ -18961,7 +20092,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1">
+    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
         <v>6</v>
       </c>
@@ -18991,7 +20122,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" s="100" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="2:12" s="100" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="97">
         <v>7</v>
       </c>
@@ -19022,7 +20153,7 @@
       </c>
       <c r="L14" s="93"/>
     </row>
-    <row r="15" spans="2:12" s="100" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="2:12" s="100" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="97">
         <v>8</v>
       </c>
@@ -19053,7 +20184,7 @@
       </c>
       <c r="L15" s="93"/>
     </row>
-    <row r="16" spans="2:12" s="100" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="2:12" s="100" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="97">
         <v>9</v>
       </c>
@@ -19084,12 +20215,12 @@
       </c>
       <c r="L16" s="93"/>
     </row>
-    <row r="17" spans="2:13" ht="30" customHeight="1">
+    <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" ht="30" customHeight="1" thickBot="1"/>
-    <row r="19" spans="2:13" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="24" t="s">
         <v>175</v>
       </c>
@@ -19099,75 +20230,75 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
     </row>
-    <row r="20" spans="2:13" ht="15" customHeight="1">
-      <c r="B20" s="176"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
-    </row>
-    <row r="21" spans="2:13" s="41" customFormat="1" ht="30" customHeight="1">
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="194"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+    </row>
+    <row r="21" spans="2:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>623</v>
       </c>
-      <c r="C21" s="206" t="s">
+      <c r="C21" s="225" t="s">
         <v>624</v>
       </c>
-      <c r="D21" s="206"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="206"/>
-      <c r="G21" s="206"/>
+      <c r="D21" s="225"/>
+      <c r="E21" s="225"/>
+      <c r="F21" s="225"/>
+      <c r="G21" s="225"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:13" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="B22" s="207"/>
-      <c r="C22" s="207"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="207"/>
+    <row r="22" spans="2:13" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="226"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:13" ht="30" customHeight="1">
+    <row r="23" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C23" s="184" t="s">
+      <c r="C23" s="203" t="s">
         <v>625</v>
       </c>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-    </row>
-    <row r="24" spans="2:13" ht="30" customHeight="1">
+      <c r="D23" s="203"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="203"/>
+    </row>
+    <row r="24" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
-      <c r="C24" s="184" t="s">
+      <c r="C24" s="203" t="s">
         <v>626</v>
       </c>
-      <c r="D24" s="184"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="184"/>
-    </row>
-    <row r="25" spans="2:13" ht="30" customHeight="1">
+      <c r="D24" s="203"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="203"/>
+      <c r="G24" s="203"/>
+    </row>
+    <row r="25" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
-      <c r="C25" s="184" t="s">
+      <c r="C25" s="203" t="s">
         <v>627</v>
       </c>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
-    </row>
-    <row r="26" spans="2:13" ht="15" customHeight="1" thickBot="1">
-      <c r="B26" s="178"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="203"/>
+    </row>
+    <row r="26" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="196"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="196"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19205,7 +20336,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
@@ -19216,33 +20347,33 @@
     <col min="14" max="14" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="12" customHeight="1" thickBot="1">
+    <row r="1" spans="2:14" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="208" t="s">
+    <row r="2" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="227" t="s">
         <v>628</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="210"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="229"/>
       <c r="J2" s="34"/>
     </row>
-    <row r="3" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>131</v>
       </c>
       <c r="J4" s="34"/>
     </row>
-    <row r="5" spans="2:14" ht="99.95" customHeight="1">
+    <row r="5" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="2:14" ht="30" customHeight="1">
+    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:14" ht="30" customHeight="1">
+    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="46" t="s">
         <v>629</v>
       </c>
@@ -19280,7 +20411,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="65.25" customHeight="1">
+    <row r="8" spans="2:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -19319,7 +20450,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="76.5" customHeight="1">
+    <row r="9" spans="2:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
         <v>2</v>
       </c>
@@ -19358,7 +20489,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="50.45" customHeight="1">
+    <row r="10" spans="2:14" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>3</v>
       </c>
@@ -19397,7 +20528,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="49.7" customHeight="1">
+    <row r="11" spans="2:14" ht="49.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
         <v>4</v>
       </c>
@@ -19436,7 +20567,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="50.45" customHeight="1">
+    <row r="12" spans="2:14" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
         <v>5</v>
       </c>
@@ -19475,7 +20606,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="50.45" customHeight="1">
+    <row r="13" spans="2:14" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
         <v>6</v>
       </c>
@@ -19514,7 +20645,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="50.45" customHeight="1">
+    <row r="14" spans="2:14" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
         <v>7</v>
       </c>
@@ -19554,7 +20685,7 @@
       </c>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="2:14" ht="63.6" customHeight="1">
+    <row r="15" spans="2:14" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
         <v>8</v>
       </c>
@@ -19593,7 +20724,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="47.45" customHeight="1">
+    <row r="16" spans="2:14" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
         <v>9</v>
       </c>
@@ -19632,7 +20763,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="51.4" customHeight="1">
+    <row r="17" spans="2:13" ht="51.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
         <v>10</v>
       </c>
@@ -19669,7 +20800,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="56.25" customHeight="1">
+    <row r="18" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="19">
         <v>11</v>
       </c>
@@ -19753,36 +20884,36 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="12" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:10" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="208" t="s">
+    <row r="1" spans="2:10" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="227" t="s">
         <v>693</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="210"/>
-    </row>
-    <row r="3" spans="2:10" s="17" customFormat="1" ht="30" customHeight="1"/>
-    <row r="4" spans="2:10" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="C2" s="228"/>
+      <c r="D2" s="229"/>
+    </row>
+    <row r="3" spans="2:10" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="99.95" customHeight="1"/>
-    <row r="6" spans="2:10" ht="30" customHeight="1" thickBot="1">
+    <row r="5" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
       <c r="F6" s="49"/>
     </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1" thickBot="1">
+    <row r="7" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
@@ -19799,7 +20930,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="67.900000000000006" customHeight="1">
+    <row r="8" spans="2:10" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="str">
         <f>"Chemistry 0"</f>
         <v>Chemistry 0</v>
@@ -19817,7 +20948,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="105" customHeight="1">
+    <row r="9" spans="2:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
         <f>"Chemistry 1"</f>
         <v>Chemistry 1</v>
@@ -19835,7 +20966,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="106.15" customHeight="1">
+    <row r="10" spans="2:10" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="str">
         <f>"Chemistry 2"</f>
         <v>Chemistry 2</v>
@@ -19853,7 +20984,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="106.15" customHeight="1">
+    <row r="11" spans="2:10" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
         <f>"Chemistry 3"</f>
         <v>Chemistry 3</v>
@@ -19875,7 +21006,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="48"/>
     </row>
-    <row r="12" spans="2:10" ht="88.15" customHeight="1">
+    <row r="12" spans="2:10" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="str">
         <f>"Chemistry 4"</f>
         <v>Chemistry 4</v>
@@ -19893,7 +21024,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="105" customHeight="1">
+    <row r="13" spans="2:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="str">
         <f>"Chemistry 5"</f>
         <v>Chemistry 5</v>
@@ -19911,7 +21042,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="106.15" customHeight="1">
+    <row r="14" spans="2:10" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="str">
         <f>"Chemistry 6"</f>
         <v>Chemistry 6</v>
@@ -19929,7 +21060,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="106.15" customHeight="1">
+    <row r="15" spans="2:10" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="str">
         <f>"Chemistry 10"</f>
         <v>Chemistry 10</v>
@@ -19945,7 +21076,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:10" ht="97.15" customHeight="1">
+    <row r="16" spans="2:10" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52" t="str">
         <f>"Chemistry 11"</f>
         <v>Chemistry 11</v>
@@ -19963,7 +21094,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="72.400000000000006" customHeight="1">
+    <row r="17" spans="2:6" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="str">
         <f>"Chemistry 12"</f>
         <v>Chemistry 12</v>
@@ -19981,7 +21112,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="106.15" customHeight="1">
+    <row r="18" spans="2:6" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="52" t="str">
         <f>"Chemistry 14"</f>
         <v>Chemistry 14</v>
@@ -19997,7 +21128,7 @@
       </c>
       <c r="F18" s="53"/>
     </row>
-    <row r="19" spans="2:6" ht="91.5" customHeight="1">
+    <row r="19" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="str">
         <f>"Chemistry 15"</f>
         <v>Chemistry 15</v>
@@ -20015,7 +21146,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="72.400000000000006" customHeight="1">
+    <row r="20" spans="2:6" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="52" t="str">
         <f>"Chemistry 16"</f>
         <v>Chemistry 16</v>
@@ -20033,7 +21164,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="106.15" customHeight="1">
+    <row r="21" spans="2:6" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="str">
         <f>"Chemistry 17"</f>
         <v>Chemistry 17</v>
@@ -20051,7 +21182,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="97.15" customHeight="1">
+    <row r="22" spans="2:6" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="str">
         <f>"Chemistry 18"</f>
         <v>Chemistry 18</v>
@@ -20069,7 +21200,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="72.400000000000006" customHeight="1">
+    <row r="23" spans="2:6" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="str">
         <f>"Chemistry 19"</f>
         <v>Chemistry 19</v>
@@ -20087,7 +21218,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="88.15" customHeight="1">
+    <row r="24" spans="2:6" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="str">
         <f>"Chemistry 19"</f>
         <v>Chemistry 19</v>
@@ -20105,7 +21236,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="72.400000000000006" customHeight="1">
+    <row r="25" spans="2:6" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="str">
         <f>"Chemistry 19"</f>
         <v>Chemistry 19</v>
@@ -20123,7 +21254,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="79.7" customHeight="1">
+    <row r="26" spans="2:6" ht="79.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="52" t="str">
         <f>"Chemistry 19"</f>
         <v>Chemistry 19</v>
@@ -20141,7 +21272,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="106.15" customHeight="1">
+    <row r="27" spans="2:6" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="str">
         <f>"Chemistry 20"</f>
         <v>Chemistry 20</v>
@@ -20155,7 +21286,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" ht="88.15" customHeight="1">
+    <row r="28" spans="2:6" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="52" t="str">
         <f>"Chemistry 21"</f>
         <v>Chemistry 21</v>
@@ -20169,7 +21300,7 @@
       </c>
       <c r="F28" s="53"/>
     </row>
-    <row r="29" spans="2:6" ht="63.4" customHeight="1">
+    <row r="29" spans="2:6" ht="63.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="str">
         <f>"Chemistry 22"</f>
         <v>Chemistry 22</v>
@@ -20183,7 +21314,7 @@
       </c>
       <c r="F29" s="51"/>
     </row>
-    <row r="30" spans="2:6" ht="79.7" customHeight="1">
+    <row r="30" spans="2:6" ht="79.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="52" t="str">
         <f>"Chemistry 23"</f>
         <v>Chemistry 23</v>
@@ -20201,7 +21332,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="91.5" customHeight="1" thickBot="1">
+    <row r="31" spans="2:6" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="57" t="str">
         <f>"Chemistry 24"</f>
         <v>Chemistry 24</v>
@@ -20217,7 +21348,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -20245,7 +21376,7 @@
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="4" width="25.7109375" customWidth="1"/>
@@ -20257,22 +21388,22 @@
     <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="12" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="179" t="s">
+    <row r="1" spans="2:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="180"/>
-    </row>
-    <row r="3" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1"/>
-    <row r="4" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="C2" s="198"/>
+    </row>
+    <row r="3" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="99.95" customHeight="1"/>
-    <row r="6" spans="2:11" ht="30" customHeight="1"/>
-    <row r="7" spans="2:11" ht="30" customHeight="1">
+    <row r="5" spans="2:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>132</v>
       </c>
@@ -20304,7 +21435,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" customHeight="1">
+    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -20332,7 +21463,7 @@
       </c>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="2:11" ht="30" customHeight="1">
+    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
         <v>2</v>
       </c>
@@ -20360,7 +21491,7 @@
       </c>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="2:11" ht="30" customHeight="1">
+    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>3</v>
       </c>
@@ -20390,7 +21521,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="30" customHeight="1">
+    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
         <v>4</v>
       </c>
@@ -20418,7 +21549,7 @@
       </c>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="2:11" ht="30" customHeight="1">
+    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
         <v>5</v>
       </c>
@@ -20444,7 +21575,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" ht="30" customHeight="1">
+    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
         <v>6</v>
       </c>
@@ -20474,7 +21605,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="30" customHeight="1">
+    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="80">
         <v>7</v>
       </c>
@@ -20506,11 +21637,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="30" customHeight="1">
+    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="2:11" ht="30" customHeight="1" thickBot="1"/>
-    <row r="17" spans="2:8" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="62" t="s">
         <v>175</v>
       </c>
@@ -20521,82 +21652,82 @@
       <c r="G17" s="63"/>
       <c r="H17" s="63"/>
     </row>
-    <row r="18" spans="2:8" ht="15" customHeight="1">
-      <c r="B18" s="176"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-    </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1">
+    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+    </row>
+    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="175" t="s">
+      <c r="C19" s="193" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="175"/>
+      <c r="D19" s="193"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:8" ht="15" customHeight="1">
-      <c r="B20" s="177"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-    </row>
-    <row r="21" spans="2:8" ht="106.15" customHeight="1">
+    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="195"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="195"/>
+    </row>
+    <row r="21" spans="2:8" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="181" t="str">
+      <c r="C21" s="199" t="str">
         <f>"T3P"</f>
         <v>T3P</v>
       </c>
-      <c r="D21" s="181"/>
-      <c r="E21" s="211" t="str">
+      <c r="D21" s="199"/>
+      <c r="E21" s="200" t="str">
         <f>"COMU(R)"</f>
         <v>COMU(R)</v>
       </c>
-      <c r="F21" s="211"/>
-      <c r="G21" s="211" t="str">
+      <c r="F21" s="200"/>
+      <c r="G21" s="200" t="str">
         <f>"TCFH"</f>
         <v>TCFH</v>
       </c>
-      <c r="H21" s="211"/>
-    </row>
-    <row r="22" spans="2:8" ht="106.15" customHeight="1">
+      <c r="H21" s="200"/>
+    </row>
+    <row r="22" spans="2:8" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="181" t="str">
+      <c r="C22" s="199" t="str">
         <f>"Chemistry 1"</f>
         <v>Chemistry 1</v>
       </c>
-      <c r="D22" s="181"/>
-      <c r="E22" s="211" t="str">
+      <c r="D22" s="199"/>
+      <c r="E22" s="200" t="str">
         <f>"Chemistry 2"</f>
         <v>Chemistry 2</v>
       </c>
-      <c r="F22" s="211"/>
-      <c r="G22" s="211" t="str">
+      <c r="F22" s="200"/>
+      <c r="G22" s="200" t="str">
         <f>"Chemistry 3"</f>
         <v>Chemistry 3</v>
       </c>
-      <c r="H22" s="211"/>
-    </row>
-    <row r="23" spans="2:8" ht="15" customHeight="1" thickBot="1">
-      <c r="B23" s="178"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
+      <c r="H22" s="200"/>
+    </row>
+    <row r="23" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="196"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20630,395 +21761,451 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="50.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="50.7109375" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="23" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" customWidth="1"/>
+    <col min="22" max="22" width="22.28515625" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="48.75">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="180" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="181" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="181" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="181" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="114" t="s">
+      <c r="E1" s="181" t="s">
+        <v>769</v>
+      </c>
+      <c r="F1" s="181" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="114" t="s">
-        <v>186</v>
-      </c>
-      <c r="H1" s="114" t="s">
+      <c r="G1" s="181" t="s">
+        <v>765</v>
+      </c>
+      <c r="H1" s="181" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="114" t="s">
+      <c r="I1" s="181" t="s">
+        <v>766</v>
+      </c>
+      <c r="J1" s="181" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="114" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="114" t="s">
+      <c r="K1" s="181" t="s">
+        <v>767</v>
+      </c>
+      <c r="L1" s="181" t="s">
         <v>191</v>
       </c>
-      <c r="M1" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="N1" s="114" t="s">
+      <c r="M1" s="181" t="s">
+        <v>768</v>
+      </c>
+      <c r="N1" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="114" t="s">
+      <c r="O1" s="181" t="s">
         <v>193</v>
       </c>
-      <c r="P1" s="114" t="s">
+      <c r="P1" s="181" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q1" s="181" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" s="114" t="s">
+      <c r="R1" s="181" t="s">
+        <v>762</v>
+      </c>
+      <c r="S1" s="181" t="s">
         <v>195</v>
       </c>
-      <c r="R1" s="114" t="s">
+      <c r="T1" s="181" t="s">
         <v>196</v>
       </c>
-      <c r="S1" s="114" t="s">
+      <c r="U1" s="181" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="114" t="s">
+      <c r="V1" s="182" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="32.25">
-      <c r="A2" s="115" t="s">
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="176" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="170" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="116">
+      <c r="C2" s="171">
         <v>1</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="172" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="117">
+      <c r="E2" s="172">
         <v>1</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="170" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="115">
+      <c r="G2" s="170">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H2" s="115" t="s">
+      <c r="H2" s="170" t="s">
         <v>199</v>
       </c>
-      <c r="I2" s="115">
+      <c r="I2" s="170">
         <v>3</v>
       </c>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="170" t="s">
         <v>200</v>
       </c>
-      <c r="K2" s="115">
+      <c r="K2" s="170">
         <v>1.8</v>
       </c>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115" t="s">
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170" t="s">
         <v>201</v>
       </c>
-      <c r="O2" s="115">
+      <c r="O2" s="170">
         <v>7</v>
       </c>
-      <c r="P2" s="147" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="115" t="s">
+      <c r="P2" s="170" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q2" s="170" t="s">
+        <v>763</v>
+      </c>
+      <c r="R2" s="170" t="s">
+        <v>760</v>
+      </c>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="170" t="s">
         <v>202</v>
       </c>
-      <c r="T2" s="120"/>
-    </row>
-    <row r="3" spans="1:20" ht="32.25">
-      <c r="A3" s="121" t="s">
+      <c r="V2" s="177"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="176" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="170" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="122">
+      <c r="C3" s="171">
         <v>1</v>
       </c>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="172" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="123">
+      <c r="E3" s="172">
         <v>1</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="170" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="121">
+      <c r="G3" s="170">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H3" s="121" t="s">
+      <c r="H3" s="170" t="s">
         <v>199</v>
       </c>
-      <c r="I3" s="121">
+      <c r="I3" s="170">
         <v>2</v>
       </c>
-      <c r="J3" s="121" t="s">
+      <c r="J3" s="170" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="121">
+      <c r="K3" s="170">
         <v>1.5</v>
       </c>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121" t="s">
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170" t="s">
         <v>201</v>
       </c>
-      <c r="O3" s="121">
+      <c r="O3" s="170">
         <v>5</v>
       </c>
-      <c r="P3" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="121" t="s">
+      <c r="P3" s="170" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q3" s="170" t="s">
+        <v>764</v>
+      </c>
+      <c r="R3" s="170" t="s">
+        <v>760</v>
+      </c>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="170" t="s">
         <v>147</v>
       </c>
-      <c r="T3" s="124"/>
-    </row>
-    <row r="4" spans="1:20" ht="64.5">
-      <c r="A4" s="115" t="s">
+      <c r="V3" s="177"/>
+    </row>
+    <row r="4" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="176" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="170" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="116">
+      <c r="C4" s="171">
         <v>2</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="172" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="117">
+      <c r="E4" s="172">
         <v>1</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="170" t="s">
         <v>185</v>
       </c>
-      <c r="G4" s="115">
+      <c r="G4" s="170">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H4" s="115" t="s">
+      <c r="H4" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="115">
+      <c r="I4" s="170">
         <v>2</v>
       </c>
-      <c r="J4" s="115" t="s">
+      <c r="J4" s="170" t="s">
         <v>206</v>
       </c>
-      <c r="K4" s="115">
+      <c r="K4" s="170">
         <v>1.3</v>
       </c>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115" t="s">
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170" t="s">
         <v>170</v>
       </c>
-      <c r="O4" s="115">
+      <c r="O4" s="170">
         <v>2</v>
       </c>
-      <c r="P4" s="147" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q4" s="162" t="s">
+      <c r="P4" s="170" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q4" s="170">
+        <v>60</v>
+      </c>
+      <c r="R4" s="170" t="s">
+        <v>760</v>
+      </c>
+      <c r="S4" s="174" t="s">
         <v>172</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" s="174" t="s">
         <v>207</v>
       </c>
-      <c r="S4" s="163" t="s">
+      <c r="U4" s="175" t="s">
         <v>173</v>
       </c>
-      <c r="T4" s="127" t="s">
+      <c r="V4" s="178" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="129">
-      <c r="A5" s="121" t="s">
+    <row r="5" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="176" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="170" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="122">
+      <c r="C5" s="171">
         <v>1</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="172" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="123">
+      <c r="E5" s="172">
         <v>1</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="170" t="s">
         <v>185</v>
       </c>
-      <c r="G5" s="121">
+      <c r="G5" s="170">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H5" s="121" t="s">
+      <c r="H5" s="170" t="s">
         <v>209</v>
       </c>
-      <c r="I5" s="121">
+      <c r="I5" s="170">
         <v>3</v>
       </c>
-      <c r="J5" s="121" t="s">
+      <c r="J5" s="170" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="121">
+      <c r="K5" s="170">
         <v>2</v>
       </c>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121" t="s">
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="170" t="s">
         <v>211</v>
       </c>
-      <c r="O5" s="121">
+      <c r="O5" s="170">
         <v>5</v>
       </c>
-      <c r="P5" s="149" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="121" t="s">
+      <c r="P5" s="170" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q5" s="170">
+        <v>25</v>
+      </c>
+      <c r="R5" s="170" t="s">
+        <v>760</v>
+      </c>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="T5" s="121" t="s">
+      <c r="V5" s="179" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="32.25">
-      <c r="A6" s="115" t="s">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="176" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="170" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="116">
+      <c r="C6" s="171">
         <v>3</v>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="170" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="117">
+      <c r="E6" s="172">
         <v>1</v>
       </c>
-      <c r="F6" s="115" t="s">
+      <c r="F6" s="170" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="115">
+      <c r="G6" s="170">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115" t="s">
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="O6" s="115">
+      <c r="O6" s="170">
         <v>20</v>
       </c>
-      <c r="P6" s="147" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="148"/>
-      <c r="S6" s="126" t="s">
+      <c r="P6" s="170" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q6" s="170" t="s">
+        <v>764</v>
+      </c>
+      <c r="R6" s="170" t="s">
+        <v>760</v>
+      </c>
+      <c r="S6" s="173"/>
+      <c r="T6" s="173"/>
+      <c r="U6" s="175" t="s">
         <v>160</v>
       </c>
-      <c r="T6" s="120"/>
-    </row>
-    <row r="7" spans="1:20" ht="16.5">
-      <c r="A7" s="121" t="s">
+      <c r="V6" s="177"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="183" t="s">
         <v>208</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="184" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="122">
+      <c r="C7" s="185">
         <v>2</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="184" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="123">
+      <c r="E7" s="186">
         <v>1</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="184" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="121">
+      <c r="G7" s="184">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121" t="s">
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184" t="s">
         <v>213</v>
       </c>
-      <c r="M7" s="121">
+      <c r="M7" s="184">
         <v>0.1</v>
       </c>
-      <c r="N7" s="121" t="s">
+      <c r="N7" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="O7" s="121">
+      <c r="O7" s="184">
         <v>3.4</v>
       </c>
-      <c r="P7" s="149"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="128" t="s">
+      <c r="P7" s="184" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="187"/>
+      <c r="T7" s="187"/>
+      <c r="U7" s="188" t="s">
         <v>165</v>
       </c>
-      <c r="T7" s="124"/>
+      <c r="V7" s="189"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -21033,7 +22220,7 @@
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="4" width="25.7109375" customWidth="1"/>
@@ -21048,22 +22235,22 @@
     <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="12" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="182" t="s">
+    <row r="1" spans="2:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="201" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="183"/>
-    </row>
-    <row r="3" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1"/>
-    <row r="4" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="C2" s="202"/>
+    </row>
+    <row r="3" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="99.95" customHeight="1"/>
-    <row r="6" spans="2:11" ht="30" customHeight="1"/>
-    <row r="7" spans="2:11" ht="30" customHeight="1">
+    <row r="5" spans="2:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>132</v>
       </c>
@@ -21095,7 +22282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" customHeight="1">
+    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -21123,7 +22310,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="30" customHeight="1">
+    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
         <v>2</v>
       </c>
@@ -21151,7 +22338,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="30" customHeight="1">
+    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>3</v>
       </c>
@@ -21179,7 +22366,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="30" customHeight="1">
+    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
         <v>4</v>
       </c>
@@ -21206,7 +22393,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="30" customHeight="1">
+    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
         <v>5</v>
       </c>
@@ -21233,7 +22420,7 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="2:11" ht="30" customHeight="1">
+    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
         <v>6</v>
       </c>
@@ -21260,7 +22447,7 @@
       </c>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="2:11" ht="30" customHeight="1">
+    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
         <v>7</v>
       </c>
@@ -21287,7 +22474,7 @@
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="2:11" ht="30" customHeight="1">
+    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
         <v>8</v>
       </c>
@@ -21317,7 +22504,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="30" customHeight="1">
+    <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
         <v>9</v>
       </c>
@@ -21347,7 +22534,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:20" ht="30" customHeight="1">
+    <row r="17" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
         <v>10</v>
       </c>
@@ -21373,12 +22560,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="30" customHeight="1">
+    <row r="18" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:20" ht="30" customHeight="1" thickBot="1"/>
-    <row r="20" spans="2:20" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
         <v>175</v>
       </c>
@@ -21387,14 +22574,14 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="2:20" ht="15" customHeight="1">
+    <row r="21" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
       <c r="D21" s="65"/>
       <c r="E21" s="65"/>
       <c r="F21" s="65"/>
     </row>
-    <row r="22" spans="2:20" ht="30" customHeight="1">
+    <row r="22" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>265</v>
       </c>
@@ -21407,50 +22594,50 @@
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
     </row>
-    <row r="23" spans="2:20" ht="15" customHeight="1">
+    <row r="23" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
       <c r="F23" s="66"/>
     </row>
-    <row r="24" spans="2:20" ht="30" customHeight="1">
+    <row r="24" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C24" s="184" t="s">
+      <c r="C24" s="203" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="184"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="184"/>
-    </row>
-    <row r="25" spans="2:20" ht="15" customHeight="1">
+      <c r="D24" s="203"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="203"/>
+    </row>
+    <row r="25" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="44"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
     </row>
-    <row r="26" spans="2:20" ht="30" customHeight="1">
+    <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="C26" s="184" t="s">
+      <c r="C26" s="203" t="s">
         <v>271</v>
       </c>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
-    </row>
-    <row r="27" spans="2:20" ht="15" customHeight="1" thickBot="1">
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+    </row>
+    <row r="27" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
     </row>
-    <row r="29" spans="2:20" ht="47.25">
+    <row r="29" spans="2:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B29" s="114" t="s">
         <v>180</v>
       </c>
@@ -21509,7 +22696,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="15.75">
+    <row r="30" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="115"/>
       <c r="C30" s="115"/>
       <c r="D30" s="116"/>
@@ -21530,7 +22717,7 @@
       <c r="S30" s="115"/>
       <c r="T30" s="120"/>
     </row>
-    <row r="31" spans="2:20" ht="15.75">
+    <row r="31" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="121"/>
       <c r="C31" s="121"/>
       <c r="D31" s="122"/>
@@ -21551,7 +22738,7 @@
       <c r="S31" s="121"/>
       <c r="T31" s="124"/>
     </row>
-    <row r="32" spans="2:20" ht="15.75">
+    <row r="32" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="115"/>
       <c r="C32" s="115"/>
       <c r="D32" s="116"/>
@@ -21572,7 +22759,7 @@
       <c r="S32" s="126"/>
       <c r="T32" s="127"/>
     </row>
-    <row r="33" spans="2:20" ht="15.75">
+    <row r="33" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="121"/>
       <c r="C33" s="121"/>
       <c r="D33" s="122"/>
@@ -21593,7 +22780,7 @@
       <c r="S33" s="121"/>
       <c r="T33" s="121"/>
     </row>
-    <row r="34" spans="2:20" ht="15.75">
+    <row r="34" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="115"/>
       <c r="C34" s="115"/>
       <c r="D34" s="116"/>
@@ -21614,7 +22801,7 @@
       <c r="S34" s="126"/>
       <c r="T34" s="120"/>
     </row>
-    <row r="35" spans="2:20" ht="15.75">
+    <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="121"/>
       <c r="C35" s="121"/>
       <c r="D35" s="122"/>
@@ -21670,7 +22857,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
@@ -21685,22 +22872,22 @@
     <col min="14" max="14" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="12" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="182" t="s">
+    <row r="1" spans="2:14" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="201" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="183"/>
-    </row>
-    <row r="3" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1"/>
-    <row r="4" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="C2" s="202"/>
+    </row>
+    <row r="3" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="99.95" customHeight="1"/>
-    <row r="6" spans="2:14" ht="30" customHeight="1"/>
-    <row r="7" spans="2:14" ht="30" customHeight="1">
+    <row r="5" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>132</v>
       </c>
@@ -21738,7 +22925,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="30" customHeight="1">
+    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -21774,7 +22961,7 @@
       </c>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="2:14" ht="30" customHeight="1">
+    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
         <v>2</v>
       </c>
@@ -21808,7 +22995,7 @@
       <c r="L9" s="20"/>
       <c r="M9" s="21"/>
     </row>
-    <row r="10" spans="2:14" ht="30" customHeight="1">
+    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>3</v>
       </c>
@@ -21842,7 +23029,7 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
     </row>
-    <row r="11" spans="2:14" ht="30" customHeight="1">
+    <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="85">
         <v>4</v>
       </c>
@@ -21876,90 +23063,90 @@
       <c r="L11" s="92"/>
       <c r="M11" s="92"/>
     </row>
-    <row r="12" spans="2:14" ht="30" customHeight="1">
+    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="2:14" ht="30" customHeight="1" thickBot="1"/>
-    <row r="14" spans="2:14" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="185" t="s">
+    <row r="13" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="204" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-    </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1">
+      <c r="C14" s="204"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="204"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="65"/>
       <c r="C15" s="65"/>
       <c r="D15" s="65"/>
       <c r="E15" s="65"/>
     </row>
-    <row r="16" spans="2:14" ht="30" customHeight="1">
+    <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="C16" s="186" t="s">
+      <c r="C16" s="205" t="s">
         <v>301</v>
       </c>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-    </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1">
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
+    </row>
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
-      <c r="C17" s="186" t="s">
+      <c r="C17" s="205" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-    </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1">
+      <c r="D17" s="205"/>
+      <c r="E17" s="205"/>
+    </row>
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="44"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1">
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="C19" s="184" t="s">
+      <c r="C19" s="203" t="s">
         <v>304</v>
       </c>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-    </row>
-    <row r="20" spans="2:5" ht="15" customHeight="1">
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+    </row>
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
     </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1">
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C21" s="184" t="s">
+      <c r="C21" s="203" t="s">
         <v>306</v>
       </c>
-      <c r="D21" s="184"/>
-      <c r="E21" s="184"/>
-    </row>
-    <row r="22" spans="2:5" ht="99.95" customHeight="1">
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+    </row>
+    <row r="22" spans="2:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-    </row>
-    <row r="23" spans="2:5" ht="30" customHeight="1">
+      <c r="C22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+    </row>
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
-      <c r="C23" s="184" t="s">
+      <c r="C23" s="203" t="s">
         <v>307</v>
       </c>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-    </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1" thickBot="1">
+      <c r="D23" s="203"/>
+      <c r="E23" s="203"/>
+    </row>
+    <row r="24" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
@@ -22001,7 +23188,7 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="3" width="25.7109375" customWidth="1"/>
@@ -22018,26 +23205,26 @@
     <col min="19" max="19" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="182" t="s">
+    <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="201" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="183"/>
+      <c r="C2" s="202"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I3" s="34"/>
     </row>
-    <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>131</v>
       </c>
       <c r="I4" s="34"/>
     </row>
-    <row r="5" spans="2:12" ht="99.95" customHeight="1"/>
-    <row r="6" spans="2:12" ht="30" customHeight="1"/>
-    <row r="7" spans="2:12" ht="30" customHeight="1">
+    <row r="5" spans="2:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>132</v>
       </c>
@@ -22069,7 +23256,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="30" customHeight="1">
+    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -22098,7 +23285,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="30" customHeight="1">
+    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
         <v>2</v>
       </c>
@@ -22127,7 +23314,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1">
+    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>3</v>
       </c>
@@ -22156,7 +23343,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="30" customHeight="1">
+    <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19">
         <v>4</v>
       </c>
@@ -22188,12 +23375,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="30" customHeight="1">
+    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1" thickBot="1"/>
-    <row r="14" spans="2:12" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
         <v>175</v>
       </c>
@@ -22201,13 +23388,13 @@
       <c r="F14" s="13"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="2:12" ht="15" customHeight="1">
+    <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="65"/>
       <c r="C15" s="65"/>
       <c r="F15" s="13"/>
       <c r="I15"/>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1">
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>247</v>
       </c>
@@ -22215,13 +23402,13 @@
       <c r="F16" s="13"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="2:21" ht="15" customHeight="1" thickBot="1">
+    <row r="17" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
       <c r="F17" s="13"/>
       <c r="I17"/>
     </row>
-    <row r="19" spans="2:21" ht="47.25">
+    <row r="19" spans="2:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B19" s="114" t="s">
         <v>180</v>
       </c>
@@ -22283,7 +23470,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="2:21" ht="78.75" customHeight="1">
+    <row r="20" spans="2:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="115" t="s">
         <v>197</v>
       </c>
@@ -22337,7 +23524,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="2:21" ht="63">
+    <row r="21" spans="2:21" ht="63" x14ac:dyDescent="0.25">
       <c r="B21" s="121" t="s">
         <v>197</v>
       </c>
@@ -22387,7 +23574,7 @@
       <c r="T21" s="121"/>
       <c r="U21" s="124"/>
     </row>
-    <row r="22" spans="2:21" ht="30">
+    <row r="22" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="115" t="s">
         <v>208</v>
       </c>
@@ -22441,7 +23628,7 @@
       <c r="T22" s="126"/>
       <c r="U22" s="127"/>
     </row>
-    <row r="23" spans="2:21" ht="15.75">
+    <row r="23" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="121"/>
       <c r="C23" s="121"/>
       <c r="D23" s="122"/>
@@ -22463,7 +23650,7 @@
       <c r="T23" s="121"/>
       <c r="U23" s="121"/>
     </row>
-    <row r="24" spans="2:21" ht="15.75">
+    <row r="24" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="115"/>
       <c r="C24" s="115"/>
       <c r="D24" s="116"/>
@@ -22485,7 +23672,7 @@
       <c r="T24" s="126"/>
       <c r="U24" s="120"/>
     </row>
-    <row r="25" spans="2:21" ht="15.75">
+    <row r="25" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="121"/>
       <c r="C25" s="121"/>
       <c r="D25" s="122"/>
@@ -22536,7 +23723,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
@@ -22553,7 +23740,7 @@
     <col min="21" max="21" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="48.75">
+    <row r="1" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="114" t="s">
         <v>180</v>
       </c>
@@ -22618,7 +23805,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="78.75" customHeight="1">
+    <row r="2" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
         <v>197</v>
       </c>
@@ -22675,7 +23862,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="64.5">
+    <row r="3" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="121" t="s">
         <v>197</v>
       </c>
@@ -22728,7 +23915,7 @@
       <c r="T3" s="157"/>
       <c r="U3" s="124"/>
     </row>
-    <row r="4" spans="1:21" ht="30.75">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="115" t="s">
         <v>208</v>
       </c>
@@ -22803,7 +23990,7 @@
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="5" width="25.7109375" customWidth="1"/>
@@ -22814,22 +24001,22 @@
     <col min="12" max="12" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="179" t="s">
+    <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="197" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="180"/>
-    </row>
-    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1"/>
-    <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="C2" s="198"/>
+    </row>
+    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="99.95" customHeight="1"/>
-    <row r="6" spans="2:12" ht="30" customHeight="1"/>
-    <row r="7" spans="2:12" ht="30" customHeight="1">
+    <row r="5" spans="2:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>132</v>
       </c>
@@ -22861,7 +24048,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="30" customHeight="1">
+    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -22891,12 +24078,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="30" customHeight="1">
+    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1" thickBot="1"/>
-    <row r="11" spans="2:12" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="62" t="s">
         <v>175</v>
       </c>
@@ -22905,49 +24092,49 @@
       <c r="E11" s="63"/>
       <c r="F11" s="63"/>
     </row>
-    <row r="12" spans="2:12" ht="15" customHeight="1">
-      <c r="B12" s="176"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
-    </row>
-    <row r="13" spans="2:12" ht="106.15" customHeight="1">
+    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="194"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
+    </row>
+    <row r="13" spans="2:12" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="C13" s="211" t="str">
+      <c r="C13" s="200" t="str">
         <f>"triphenylphosphine"</f>
         <v>triphenylphosphine</v>
       </c>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211" t="str">
+      <c r="D13" s="200"/>
+      <c r="E13" s="200" t="str">
         <f>"DIAD"</f>
         <v>DIAD</v>
       </c>
-      <c r="F13" s="211"/>
-    </row>
-    <row r="14" spans="2:12" ht="106.15" customHeight="1">
+      <c r="F13" s="200"/>
+    </row>
+    <row r="14" spans="2:12" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="211" t="str">
+      <c r="C14" s="200" t="str">
         <f>"triphenylphosphine oxide"</f>
         <v>triphenylphosphine oxide</v>
       </c>
-      <c r="D14" s="211"/>
-      <c r="E14" s="211" t="str">
+      <c r="D14" s="200"/>
+      <c r="E14" s="200" t="str">
         <f>"reduced DIAD"</f>
         <v>reduced DIAD</v>
       </c>
-      <c r="F14" s="211"/>
-    </row>
-    <row r="15" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
+      <c r="F14" s="200"/>
+    </row>
+    <row r="15" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -22980,7 +24167,7 @@
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="4" width="25.7109375" customWidth="1"/>
@@ -22992,22 +24179,22 @@
     <col min="12" max="12" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="182" t="s">
+    <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="201" t="s">
         <v>374</v>
       </c>
-      <c r="C2" s="183"/>
-    </row>
-    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1"/>
-    <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="C2" s="202"/>
+    </row>
+    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="99.95" customHeight="1"/>
-    <row r="6" spans="2:12" ht="30" customHeight="1"/>
-    <row r="7" spans="2:12" ht="30" customHeight="1">
+    <row r="5" spans="2:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>132</v>
       </c>
@@ -23039,7 +24226,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="30" customHeight="1">
+    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -23069,7 +24256,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="30" customHeight="1">
+    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19">
         <v>2</v>
       </c>
@@ -23099,7 +24286,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1">
+    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>3</v>
       </c>
@@ -23127,12 +24314,12 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="2:12" ht="30" customHeight="1">
+    <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:12" ht="30" customHeight="1" thickBot="1"/>
-    <row r="13" spans="2:12" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
         <v>175</v>
       </c>
@@ -23140,23 +24327,23 @@
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="2:12" ht="15" customHeight="1">
+    <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
       <c r="E14" s="65"/>
     </row>
-    <row r="15" spans="2:12" ht="30" customHeight="1">
+    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C15" s="184" t="s">
+      <c r="C15" s="203" t="s">
         <v>391</v>
       </c>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-    </row>
-    <row r="16" spans="2:12" ht="15" customHeight="1" thickBot="1">
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="64"/>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
@@ -23182,6 +24369,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045D600CCD8A8AE44A6FBA1638FC576D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f8768c457e099643b8ac34f623f80bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0f0deb7c-f2b6-4ffe-ad31-d7437f7a4f8d" xmlns:ns3="4f8065f1-a7a3-45ba-9f56-e8a3143bde6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be970c72ff9811227cd82dce639a505c" ns2:_="" ns3:_="">
     <xsd:import namespace="0f0deb7c-f2b6-4ffe-ad31-d7437f7a4f8d"/>
@@ -23346,15 +24542,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -23370,13 +24557,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A48137EF-07E0-442F-A116-7378942D74A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2CE3D49-F3ED-4327-A201-2B7B89556889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2CE3D49-F3ED-4327-A201-2B7B89556889}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A48137EF-07E0-442F-A116-7378942D74A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0f0deb7c-f2b6-4ffe-ad31-d7437f7a4f8d"/>
+    <ds:schemaRef ds:uri="4f8065f1-a7a3-45ba-9f56-e8a3143bde6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DFD1102-B6A6-4ECD-841B-BE5B35E4A7DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DFD1102-B6A6-4ECD-841B-BE5B35E4A7DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4f8065f1-a7a3-45ba-9f56-e8a3143bde6f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>